--- a/9_characterizationRheology/solutionsNrheology.xlsx
+++ b/9_characterizationRheology/solutionsNrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/9_characterizationRheology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{757C5D4E-2ABF-4872-8EC9-A8D2AA37C6FB}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2E33E56-B40C-4643-8CFA-F0539A99B8A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -702,24 +702,6 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,6 +762,24 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -934,16 +934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>168356</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>606136</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -973,8 +973,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12406314" y="15109825"/>
-          <a:ext cx="5464968" cy="2822656"/>
+          <a:off x="17855045" y="8814955"/>
+          <a:ext cx="5455227" cy="2822656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:AB186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD90" sqref="AD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,98 +2049,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="76"/>
-      <c r="C1" s="101" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="25"/>
       <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="77"/>
-      <c r="C2" s="77">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71">
         <v>1500</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
       <c r="N2">
         <v>2</v>
       </c>
-      <c r="AB2" s="102" t="s">
+      <c r="AB2" s="96" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="26"/>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="103" t="s">
+      <c r="M3" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="103" t="s">
+      <c r="N3" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="103" t="s">
+      <c r="O3" s="97" t="s">
         <v>105</v>
       </c>
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="89">
-        <v>0</v>
-      </c>
-      <c r="D4" s="90">
+      <c r="A4" s="102"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="83">
+        <v>0</v>
+      </c>
+      <c r="D4" s="84">
         <f>E4*$D$12</f>
         <v>1684.5</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="84">
         <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="85">
         <f>(D4*C4)/(100-C4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="85">
         <v>11.28</v>
       </c>
-      <c r="H4" s="84"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="27"/>
       <c r="K4" s="12" t="str" cm="1">
         <f t="array" ref="K4:K11">solventNpolymerData!C2:C9</f>
@@ -2153,7 +2153,7 @@
       <c r="M4" s="12">
         <v>3800</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="92">
         <f>$N$2*7500</f>
         <v>15000</v>
       </c>
@@ -2164,95 +2164,95 @@
       <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="89">
+      <c r="A5" s="102"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="83">
         <v>0.01</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="84">
         <f t="shared" ref="D5:D10" si="0">E5*$D$12</f>
         <v>1684.5</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="84">
         <f t="shared" ref="E5:E10" si="1">$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="85">
         <f t="shared" ref="F5:F10" si="2">(D5*C5)/(100-C5)</f>
         <v>0.16846684668466846</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="85">
         <v>11.28</v>
       </c>
-      <c r="H5" s="84"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="27"/>
-      <c r="K5" s="95" t="str">
+      <c r="K5" s="89" t="str">
         <v>DMAc</v>
       </c>
-      <c r="L5" s="95">
+      <c r="L5" s="89">
         <v>1000000</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="95"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="89"/>
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="89">
+      <c r="A6" s="102"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="83">
         <v>0.1</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="84">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="84">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="85">
         <f t="shared" si="2"/>
         <v>1.6861861861861862</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="85">
         <v>11.3</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="27"/>
-      <c r="K6" s="95" t="str">
+      <c r="K6" s="89" t="str">
         <v>MEK</v>
       </c>
-      <c r="L6" s="95">
+      <c r="L6" s="89">
         <v>500000</v>
       </c>
-      <c r="M6" s="95"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="95"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="89"/>
       <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="89">
+      <c r="A7" s="102"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="83">
         <v>0.25</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="84">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="84">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="85">
         <f t="shared" si="2"/>
         <v>4.2218045112781954</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="85">
         <v>11.32</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="27"/>
       <c r="K7" s="12" t="str">
         <v>CHL</v>
@@ -2263,7 +2263,7 @@
       <c r="M7" s="12">
         <v>3800</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="92">
         <f>$N$2*7500</f>
         <v>15000</v>
       </c>
@@ -2274,27 +2274,27 @@
       <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="89">
+      <c r="A8" s="102"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="83">
         <v>0.5</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="84">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="84">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="85">
         <f t="shared" si="2"/>
         <v>8.4648241206030157</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="85">
         <v>11.34</v>
       </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="27"/>
       <c r="K8" s="12" t="str">
         <v>NMP</v>
@@ -2305,7 +2305,7 @@
       <c r="M8" s="12">
         <v>3800</v>
       </c>
-      <c r="N8" s="98">
+      <c r="N8" s="92">
         <f>$N$2*9000</f>
         <v>18000</v>
       </c>
@@ -2316,27 +2316,27 @@
       <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="89">
+      <c r="A9" s="102"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="83">
         <v>0.75</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="84">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="84">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="85">
         <f t="shared" si="2"/>
         <v>12.729219143576826</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="85">
         <v>11.37</v>
       </c>
-      <c r="H9" s="84"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="27"/>
       <c r="K9" s="12" t="str">
         <v>DMF</v>
@@ -2347,7 +2347,7 @@
       <c r="M9" s="12">
         <v>9200</v>
       </c>
-      <c r="N9" s="100">
+      <c r="N9" s="94">
         <f>$N$2*(2625+10500)</f>
         <v>26250</v>
       </c>
@@ -2358,27 +2358,27 @@
       <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="89">
+      <c r="A10" s="102"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="83">
         <v>1</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="84">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="84">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="85">
         <f t="shared" si="2"/>
         <v>17.015151515151516</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="85">
         <v>11.4</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="28"/>
       <c r="K10" s="12" t="str">
         <v>SU8</v>
@@ -2390,7 +2390,7 @@
         <f>9200+5100</f>
         <v>14300</v>
       </c>
-      <c r="N10" s="98">
+      <c r="N10" s="92">
         <f>$N$2*10500</f>
         <v>21000</v>
       </c>
@@ -2400,14 +2400,14 @@
       <c r="Q10" s="28"/>
     </row>
     <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="28"/>
       <c r="K11" s="12" t="str">
         <v>THF</v>
@@ -2419,7 +2419,7 @@
         <f>3*10000</f>
         <v>30000</v>
       </c>
-      <c r="N11" s="100">
+      <c r="N11" s="94">
         <f>$N$2*(10500+7875)</f>
         <v>36750</v>
       </c>
@@ -2430,65 +2430,65 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="85" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="80">
         <v>1.123</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86">
+      <c r="E12" s="80"/>
+      <c r="F12" s="80">
         <v>1.21</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="80">
         <v>0.4</v>
       </c>
-      <c r="H12" s="85"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="28"/>
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87">
+      <c r="A13" s="102"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81">
         <f>C2*D12</f>
         <v>1684.5</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="28"/>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="103" t="s">
+      <c r="M13" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="103" t="s">
+      <c r="O13" s="97" t="s">
         <v>105</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
       <c r="K14" s="12" t="str" cm="1">
         <f t="array" ref="K14:K20">solventNpolymerData!C12:C18</f>
         <v>PVK</v>
@@ -2500,7 +2500,7 @@
       <c r="M14" s="4">
         <v>435</v>
       </c>
-      <c r="N14" s="99">
+      <c r="N14" s="93">
         <f>$N$2*1691</f>
         <v>3382</v>
       </c>
@@ -2510,10 +2510,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="86">
         <v>0</v>
       </c>
       <c r="C15" s="17" t="e">
@@ -2526,21 +2526,21 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="K15" s="95" t="str">
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="K15" s="89" t="str">
         <v>PANI</v>
       </c>
-      <c r="L15" s="96">
+      <c r="L15" s="90">
         <v>5000</v>
       </c>
-      <c r="M15" s="97"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="96"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="90"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="92">
+      <c r="A16" s="98"/>
+      <c r="B16" s="86">
         <v>1</v>
       </c>
       <c r="C16" s="17" t="e">
@@ -2553,8 +2553,8 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
       <c r="K16" s="12" t="str">
         <v>PSMS</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="M16" s="4">
         <v>770</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="93">
         <f>$N$2*540</f>
         <v>1080</v>
       </c>
@@ -2574,8 +2574,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="92">
+      <c r="A17" s="98"/>
+      <c r="B17" s="86">
         <v>2</v>
       </c>
       <c r="C17" s="17" t="e">
@@ -2588,8 +2588,8 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
       <c r="K17" s="12" t="str">
         <v>PSB</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="M17" s="4">
         <v>4100</v>
       </c>
-      <c r="N17" s="99">
+      <c r="N17" s="93">
         <f>$N$2*1850</f>
         <v>3700</v>
       </c>
@@ -2609,8 +2609,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="92">
+      <c r="A18" s="98"/>
+      <c r="B18" s="86">
         <v>3</v>
       </c>
       <c r="C18" s="17" t="e">
@@ -2623,8 +2623,8 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
       <c r="K18" s="12" t="str">
         <v>PS</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="M18" s="4">
         <v>4700</v>
       </c>
-      <c r="N18" s="99">
+      <c r="N18" s="93">
         <f>$N$2*1305</f>
         <v>2610</v>
       </c>
@@ -2644,8 +2644,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="92">
+      <c r="A19" s="98"/>
+      <c r="B19" s="86">
         <v>4</v>
       </c>
       <c r="C19" s="17" t="e">
@@ -2658,8 +2658,8 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
       <c r="K19" s="12" t="str">
         <v>PEO</v>
       </c>
@@ -2669,14 +2669,14 @@
       <c r="M19" s="4">
         <v>170</v>
       </c>
-      <c r="N19" s="99"/>
+      <c r="N19" s="93"/>
       <c r="O19" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="92">
+      <c r="A20" s="98"/>
+      <c r="B20" s="86">
         <v>5</v>
       </c>
       <c r="C20" s="17" t="e">
@@ -2689,8 +2689,8 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="K20" s="12" t="str">
         <v>TBT</v>
       </c>
@@ -2700,14 +2700,14 @@
       <c r="M20" s="4">
         <v>170</v>
       </c>
-      <c r="N20" s="99"/>
+      <c r="N20" s="93"/>
       <c r="O20" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="92">
+      <c r="A21" s="98"/>
+      <c r="B21" s="86">
         <v>6</v>
       </c>
       <c r="C21" s="17" t="e">
@@ -2720,33 +2720,33 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
       <c r="K22"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="102" t="s">
         <v>96</v>
       </c>
       <c r="B24" s="44"/>
@@ -2766,7 +2766,7 @@
       <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="44"/>
       <c r="C25" s="14">
         <v>0.1</v>
@@ -2786,7 +2786,7 @@
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="44"/>
       <c r="C26" s="14">
         <v>0.2</v>
@@ -2806,7 +2806,7 @@
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="44"/>
       <c r="C27" s="14">
         <v>1</v>
@@ -2826,7 +2826,7 @@
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="44"/>
       <c r="C28" s="14">
         <v>10</v>
@@ -2846,7 +2846,7 @@
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="44"/>
       <c r="C29" s="14">
         <v>15</v>
@@ -2866,7 +2866,7 @@
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="62"/>
       <c r="C30" s="14">
         <v>20</v>
@@ -2886,7 +2886,7 @@
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="62"/>
       <c r="C31" s="14">
         <v>30</v>
@@ -2906,7 +2906,7 @@
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
+      <c r="A32" s="102"/>
       <c r="B32" s="62"/>
       <c r="C32" s="14"/>
       <c r="D32" s="17"/>
@@ -2915,11 +2915,11 @@
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="44"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="44"/>
       <c r="C34" s="36" t="s">
         <v>35</v>
@@ -2950,7 +2950,7 @@
       <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="98" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="34">
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="34">
         <v>8</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="58">
         <v>9</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="58">
         <v>10</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="58">
         <v>11</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="58">
         <v>12</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="58">
         <v>13</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="98" t="s">
         <v>100</v>
       </c>
       <c r="B45" s="47">
@@ -3098,7 +3098,7 @@
       <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="47">
         <v>1</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="47">
         <v>2</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="47">
         <v>3</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="47">
         <v>4</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="B50" s="34"/>
     </row>
     <row r="51" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="98" t="s">
         <v>97</v>
       </c>
       <c r="B51" s="47">
@@ -3214,7 +3214,7 @@
       <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="47">
         <v>1</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="47">
         <v>2</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="47">
         <v>3</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
+      <c r="A55" s="98"/>
       <c r="B55" s="47">
         <v>4</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="B56" s="35"/>
     </row>
     <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="102" t="s">
         <v>96</v>
       </c>
       <c r="B57" s="44"/>
@@ -3332,7 +3332,7 @@
       <c r="Q57" s="29"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
+      <c r="A58" s="102"/>
       <c r="B58" s="44"/>
       <c r="C58" s="14">
         <v>0.1</v>
@@ -3359,7 +3359,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
+      <c r="A59" s="102"/>
       <c r="B59" s="44"/>
       <c r="C59" s="14">
         <v>0.2</v>
@@ -3386,7 +3386,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+      <c r="A60" s="102"/>
       <c r="B60" s="44"/>
       <c r="C60" s="14">
         <v>1</v>
@@ -3413,7 +3413,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
+      <c r="A61" s="102"/>
       <c r="B61" s="44"/>
       <c r="C61" s="14">
         <v>10</v>
@@ -3440,7 +3440,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
+      <c r="A62" s="102"/>
       <c r="B62" s="44"/>
       <c r="C62" s="14">
         <v>15</v>
@@ -3467,7 +3467,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
+      <c r="A63" s="102"/>
       <c r="B63" s="62"/>
       <c r="C63" s="14">
         <v>20</v>
@@ -3494,7 +3494,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
+      <c r="A64" s="102"/>
       <c r="B64" s="62"/>
       <c r="C64" s="14">
         <v>25</v>
@@ -3521,11 +3521,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
+      <c r="A65" s="102"/>
       <c r="B65" s="44"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
+      <c r="A66" s="102"/>
       <c r="B66" s="44"/>
       <c r="C66" s="36" t="s">
         <v>35</v>
@@ -3558,10 +3558,10 @@
       <c r="H67" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="94">
+      <c r="B69" s="88">
         <v>14</v>
       </c>
       <c r="C69" s="17" t="e">
@@ -3581,8 +3581,8 @@
       <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="94">
+      <c r="A70" s="98"/>
+      <c r="B70" s="88">
         <v>15</v>
       </c>
       <c r="C70" s="17" t="e">
@@ -3602,7 +3602,7 @@
       <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="58">
         <v>16</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="59">
         <v>17</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
+      <c r="A73" s="98"/>
       <c r="B73" s="59">
         <v>18</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
+      <c r="A74" s="98"/>
       <c r="B74" s="59">
         <v>19</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
+      <c r="A75" s="98"/>
       <c r="B75" s="59">
         <v>20</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="H75" s="17"/>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="98" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="47">
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="48">
         <v>6</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
+      <c r="A79" s="101"/>
       <c r="B79" s="48">
         <v>7</v>
       </c>
@@ -3790,7 +3790,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="72"/>
+      <c r="A80" s="101"/>
       <c r="B80" s="48">
         <v>8</v>
       </c>
@@ -3817,7 +3817,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="72"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="48">
         <v>9</v>
       </c>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="98" t="s">
         <v>97</v>
       </c>
       <c r="B83" s="47">
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="72"/>
+      <c r="A84" s="101"/>
       <c r="B84" s="48">
         <v>6</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="72"/>
+      <c r="A85" s="101"/>
       <c r="B85" s="48">
         <v>7</v>
       </c>
@@ -3928,7 +3928,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="48">
         <v>8</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72"/>
+      <c r="A87" s="101"/>
       <c r="B87" s="48">
         <v>9</v>
       </c>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70" t="s">
+      <c r="A89" s="102" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="44"/>
@@ -4004,7 +4004,7 @@
       <c r="Q89" s="29"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
+      <c r="A90" s="102"/>
       <c r="B90" s="44"/>
       <c r="C90" s="14">
         <v>0.1</v>
@@ -4025,7 +4025,7 @@
       <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
+      <c r="A91" s="102"/>
       <c r="B91" s="44"/>
       <c r="C91" s="14">
         <v>1</v>
@@ -4046,7 +4046,7 @@
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
+      <c r="A92" s="102"/>
       <c r="B92" s="44"/>
       <c r="C92" s="14">
         <v>3.5</v>
@@ -4067,7 +4067,7 @@
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
+      <c r="A93" s="102"/>
       <c r="B93" s="44"/>
       <c r="C93" s="14">
         <v>8</v>
@@ -4088,7 +4088,7 @@
       <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
+      <c r="A94" s="102"/>
       <c r="B94" s="44"/>
       <c r="C94" s="14">
         <v>10</v>
@@ -4109,7 +4109,7 @@
       <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="70"/>
+      <c r="A95" s="102"/>
       <c r="B95" s="62"/>
       <c r="C95" s="14">
         <v>15</v>
@@ -4130,11 +4130,11 @@
       <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="70"/>
+      <c r="A96" s="102"/>
       <c r="B96" s="44"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="70"/>
+      <c r="A97" s="102"/>
       <c r="B97" s="44"/>
       <c r="C97" s="36" t="s">
         <v>35</v>
@@ -4175,7 +4175,7 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="74" t="s">
+      <c r="A100" s="99" t="s">
         <v>109</v>
       </c>
       <c r="B100" s="61">
@@ -4195,7 +4195,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="74"/>
+      <c r="A101" s="99"/>
       <c r="B101" s="60">
         <v>22</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="H101" s="43"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
+      <c r="A102" s="99"/>
       <c r="B102" s="61">
         <v>23</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="74"/>
+      <c r="A103" s="99"/>
       <c r="B103" s="61">
         <v>24</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="74"/>
+      <c r="A104" s="99"/>
       <c r="B104" s="61">
         <v>25</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="74"/>
+      <c r="A105" s="99"/>
       <c r="B105" s="61">
         <v>26</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="74" t="s">
+      <c r="A107" s="99" t="s">
         <v>97</v>
       </c>
       <c r="B107" s="45">
@@ -4319,7 +4319,7 @@
       <c r="H107" s="43"/>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="75"/>
+      <c r="A108" s="103"/>
       <c r="B108" s="46">
         <v>11</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="75"/>
+      <c r="A109" s="103"/>
       <c r="B109" s="46">
         <v>12</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="75"/>
+      <c r="A110" s="103"/>
       <c r="B110" s="46">
         <v>13</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="75"/>
+      <c r="A111" s="103"/>
       <c r="B111" s="46">
         <v>14</v>
       </c>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="70" t="s">
+      <c r="A113" s="102" t="s">
         <v>96</v>
       </c>
       <c r="B113" s="44"/>
@@ -4430,7 +4430,7 @@
       <c r="H113" s="31"/>
     </row>
     <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
+      <c r="A114" s="102"/>
       <c r="B114" s="44"/>
       <c r="C114" s="23">
         <v>0.25</v>
@@ -4454,7 +4454,7 @@
       <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
+      <c r="A115" s="102"/>
       <c r="B115" s="44"/>
       <c r="C115" s="23">
         <v>3.75</v>
@@ -4478,7 +4478,7 @@
       <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="70"/>
+      <c r="A116" s="102"/>
       <c r="B116" s="44"/>
       <c r="C116" s="23">
         <v>7.5</v>
@@ -4502,7 +4502,7 @@
       <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="70"/>
+      <c r="A117" s="102"/>
       <c r="B117" s="44"/>
       <c r="C117" s="23">
         <v>11.25</v>
@@ -4526,7 +4526,7 @@
       <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="70"/>
+      <c r="A118" s="102"/>
       <c r="B118" s="44"/>
       <c r="C118" s="23">
         <v>15</v>
@@ -4550,7 +4550,7 @@
       <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="70"/>
+      <c r="A119" s="102"/>
       <c r="B119" s="44"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -4560,7 +4560,7 @@
       <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="70"/>
+      <c r="A120" s="102"/>
       <c r="B120" s="44"/>
       <c r="C120" s="38" t="s">
         <v>35</v>
@@ -4578,7 +4578,7 @@
       <c r="H120" s="40"/>
     </row>
     <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="70"/>
+      <c r="A121" s="102"/>
       <c r="B121" s="44"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18" t="e">
@@ -4594,7 +4594,7 @@
     </row>
     <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="102" t="s">
         <v>96</v>
       </c>
       <c r="B123" s="44"/>
@@ -4616,7 +4616,7 @@
       <c r="Q123" s="29"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="70"/>
+      <c r="A124" s="102"/>
       <c r="B124" s="44"/>
       <c r="C124" s="14">
         <v>0.25</v>
@@ -4637,9 +4637,9 @@
       <c r="H124" s="50"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="70"/>
+      <c r="A125" s="102"/>
       <c r="B125" s="44"/>
-      <c r="C125" s="93">
+      <c r="C125" s="87">
         <v>3.75</v>
       </c>
       <c r="D125" s="17">
@@ -4658,9 +4658,9 @@
       <c r="H125" s="50"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="70"/>
+      <c r="A126" s="102"/>
       <c r="B126" s="44"/>
-      <c r="C126" s="93">
+      <c r="C126" s="87">
         <v>7.5</v>
       </c>
       <c r="D126" s="17">
@@ -4679,9 +4679,9 @@
       <c r="H126" s="50"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="70"/>
+      <c r="A127" s="102"/>
       <c r="B127" s="44"/>
-      <c r="C127" s="93">
+      <c r="C127" s="87">
         <v>10</v>
       </c>
       <c r="D127" s="17">
@@ -4700,9 +4700,9 @@
       <c r="H127" s="50"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="70"/>
+      <c r="A128" s="102"/>
       <c r="B128" s="44"/>
-      <c r="C128" s="93">
+      <c r="C128" s="87">
         <v>15</v>
       </c>
       <c r="D128" s="17">
@@ -4721,13 +4721,13 @@
       <c r="H128" s="50"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="70"/>
+      <c r="A129" s="102"/>
       <c r="B129" s="44"/>
       <c r="G129" s="51"/>
       <c r="H129" s="51"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="70"/>
+      <c r="A130" s="102"/>
       <c r="B130" s="44"/>
       <c r="C130" s="36" t="s">
         <v>35</v>
@@ -4743,7 +4743,7 @@
       <c r="H130" s="55"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="70"/>
+      <c r="A131" s="102"/>
       <c r="B131" s="44"/>
       <c r="C131" s="15"/>
       <c r="D131" s="15">
@@ -4768,7 +4768,7 @@
       <c r="H132" s="55"/>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="74" t="s">
+      <c r="A133" s="99" t="s">
         <v>108</v>
       </c>
       <c r="B133" s="60">
@@ -4788,7 +4788,7 @@
       <c r="H133" s="55"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="74"/>
+      <c r="A134" s="99"/>
       <c r="B134" s="60">
         <v>28</v>
       </c>
@@ -4806,7 +4806,7 @@
       <c r="H134" s="55"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="74"/>
+      <c r="A135" s="99"/>
       <c r="B135" s="60">
         <v>29</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="H135" s="55"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="74"/>
+      <c r="A136" s="99"/>
       <c r="B136" s="60">
         <v>30</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="H136" s="55"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="74"/>
+      <c r="A137" s="99"/>
       <c r="B137" s="60">
         <v>31</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="H138" s="55"/>
     </row>
     <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="74" t="s">
+      <c r="A139" s="99" t="s">
         <v>98</v>
       </c>
       <c r="B139" s="45">
@@ -4894,7 +4894,7 @@
       <c r="H139" s="55"/>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="74"/>
+      <c r="A140" s="99"/>
       <c r="B140" s="45">
         <v>1</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="H141" s="51"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="70" t="s">
+      <c r="A142" s="102" t="s">
         <v>96</v>
       </c>
       <c r="B142" s="44"/>
@@ -4940,7 +4940,7 @@
       <c r="H142" s="51"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="70"/>
+      <c r="A143" s="102"/>
       <c r="B143" s="44"/>
       <c r="C143" s="14">
         <v>0.25</v>
@@ -4961,9 +4961,9 @@
       <c r="H143" s="50"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="70"/>
+      <c r="A144" s="102"/>
       <c r="B144" s="44"/>
-      <c r="C144" s="93">
+      <c r="C144" s="87">
         <v>2</v>
       </c>
       <c r="D144" s="17">
@@ -4982,9 +4982,9 @@
       <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="70"/>
+      <c r="A145" s="102"/>
       <c r="B145" s="44"/>
-      <c r="C145" s="93">
+      <c r="C145" s="87">
         <v>7.5</v>
       </c>
       <c r="D145" s="17">
@@ -5003,9 +5003,9 @@
       <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="70"/>
+      <c r="A146" s="102"/>
       <c r="B146" s="44"/>
-      <c r="C146" s="93">
+      <c r="C146" s="87">
         <v>10</v>
       </c>
       <c r="D146" s="17">
@@ -5024,9 +5024,9 @@
       <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="70"/>
+      <c r="A147" s="102"/>
       <c r="B147" s="44"/>
-      <c r="C147" s="93">
+      <c r="C147" s="87">
         <v>15</v>
       </c>
       <c r="D147" s="17">
@@ -5045,13 +5045,13 @@
       <c r="H147" s="50"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="70"/>
+      <c r="A148" s="102"/>
       <c r="B148" s="44"/>
       <c r="G148" s="51"/>
       <c r="H148" s="51"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="70"/>
+      <c r="A149" s="102"/>
       <c r="B149" s="44"/>
       <c r="C149" s="36" t="s">
         <v>35</v>
@@ -5067,7 +5067,7 @@
       <c r="H149" s="55"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="70"/>
+      <c r="A150" s="102"/>
       <c r="B150" s="44"/>
       <c r="C150" s="15"/>
       <c r="D150" s="15">
@@ -5086,7 +5086,7 @@
       <c r="H151" s="51"/>
     </row>
     <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="71" t="s">
+      <c r="A152" s="98" t="s">
         <v>108</v>
       </c>
       <c r="B152" s="58">
@@ -5104,7 +5104,7 @@
       <c r="H152" s="51"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="71"/>
+      <c r="A153" s="98"/>
       <c r="B153" s="58">
         <v>33</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="H153" s="51"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="71"/>
+      <c r="A154" s="98"/>
       <c r="B154" s="58">
         <v>34</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="H154" s="51"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="71"/>
+      <c r="A155" s="98"/>
       <c r="B155" s="58">
         <v>35</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="H155" s="51"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="71"/>
+      <c r="A156" s="98"/>
       <c r="B156" s="58">
         <v>36</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="H157" s="51"/>
     </row>
     <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="71" t="s">
+      <c r="A158" s="98" t="s">
         <v>98</v>
       </c>
       <c r="B158" s="47">
@@ -5196,7 +5196,7 @@
       <c r="H158" s="51"/>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="71"/>
+      <c r="A159" s="98"/>
       <c r="B159" s="47">
         <v>4</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="H160" s="51"/>
     </row>
     <row r="161" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="70" t="s">
+      <c r="A161" s="102" t="s">
         <v>96</v>
       </c>
       <c r="B161" s="44"/>
@@ -5242,7 +5242,7 @@
       <c r="Q161" s="29"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="70"/>
+      <c r="A162" s="102"/>
       <c r="B162" s="44"/>
       <c r="C162" s="14">
         <v>0.1</v>
@@ -5263,7 +5263,7 @@
       <c r="H162" s="17"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="70"/>
+      <c r="A163" s="102"/>
       <c r="B163" s="44"/>
       <c r="C163" s="14">
         <v>0.6</v>
@@ -5284,7 +5284,7 @@
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="70"/>
+      <c r="A164" s="102"/>
       <c r="B164" s="44"/>
       <c r="C164" s="14">
         <v>1</v>
@@ -5305,7 +5305,7 @@
       <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="70"/>
+      <c r="A165" s="102"/>
       <c r="B165" s="44"/>
       <c r="C165" s="14">
         <v>2</v>
@@ -5326,7 +5326,7 @@
       <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="70"/>
+      <c r="A166" s="102"/>
       <c r="B166" s="44"/>
       <c r="C166" s="14">
         <v>5</v>
@@ -5347,7 +5347,7 @@
       <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="70"/>
+      <c r="A167" s="102"/>
       <c r="B167" s="62"/>
       <c r="C167" s="14">
         <v>10</v>
@@ -5368,7 +5368,7 @@
       <c r="H167" s="17"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="70"/>
+      <c r="A168" s="102"/>
       <c r="B168" s="62"/>
       <c r="C168" s="14">
         <v>15</v>
@@ -5389,11 +5389,11 @@
       <c r="H168" s="17"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="70"/>
+      <c r="A169" s="102"/>
       <c r="B169" s="44"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="70"/>
+      <c r="A170" s="102"/>
       <c r="B170" s="44"/>
       <c r="C170" s="36" t="s">
         <v>35</v>
@@ -5409,7 +5409,7 @@
       <c r="H170" s="15"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="70"/>
+      <c r="A171" s="102"/>
       <c r="B171" s="44"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15">
@@ -5424,10 +5424,10 @@
       <c r="H171" s="15"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A173" s="73" t="s">
+      <c r="A173" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B173" s="94">
+      <c r="B173" s="88">
         <v>37</v>
       </c>
       <c r="C173" s="42" t="e">
@@ -5435,30 +5435,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D173" s="33">
-        <f>$D$170*E173</f>
+        <f t="shared" ref="D173:D179" si="65">$D$170*E173</f>
         <v>0</v>
       </c>
       <c r="E173" s="33"/>
       <c r="F173" s="33"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="73"/>
-      <c r="B174" s="94">
+      <c r="A174" s="100"/>
+      <c r="B174" s="88">
         <v>38</v>
       </c>
       <c r="C174" s="42" t="e">
-        <f t="shared" ref="C174" si="65">(F174/(D174+F174))*100</f>
+        <f t="shared" ref="C174" si="66">(F174/(D174+F174))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D174" s="33">
-        <f>$D$170*E174</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="33"/>
     </row>
     <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="73"/>
+      <c r="A175" s="100"/>
       <c r="B175" s="60">
         <v>39</v>
       </c>
@@ -5467,78 +5467,78 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D175" s="33">
-        <f>$D$170*E175</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E175" s="33"/>
       <c r="F175" s="33"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A176" s="73"/>
+      <c r="A176" s="100"/>
       <c r="B176" s="60">
         <v>40</v>
       </c>
       <c r="C176" s="42" t="e">
-        <f t="shared" ref="C176:C179" si="66">(F176/(D176+F176))*100</f>
+        <f t="shared" ref="C176:C179" si="67">(F176/(D176+F176))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D176" s="33">
-        <f>$D$170*E176</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E176" s="33"/>
       <c r="F176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="73"/>
+      <c r="A177" s="100"/>
       <c r="B177" s="60">
         <v>41</v>
       </c>
       <c r="C177" s="42" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D177" s="33">
-        <f>$D$170*E177</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E177" s="33"/>
       <c r="F177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="73"/>
+      <c r="A178" s="100"/>
       <c r="B178" s="60">
         <v>42</v>
       </c>
       <c r="C178" s="42" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D178" s="33">
-        <f>$D$170*E178</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E178" s="33"/>
       <c r="F178" s="33"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="73"/>
+      <c r="A179" s="100"/>
       <c r="B179" s="60">
         <v>43</v>
       </c>
       <c r="C179" s="42" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D179" s="33">
-        <f>$D$170*E179</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E179" s="33"/>
       <c r="F179" s="33"/>
     </row>
     <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="73" t="s">
+      <c r="A181" s="100" t="s">
         <v>98</v>
       </c>
       <c r="B181" s="45">
@@ -5563,12 +5563,12 @@
       </c>
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="73"/>
+      <c r="A182" s="100"/>
       <c r="B182" s="45">
         <v>7</v>
       </c>
       <c r="C182" s="42">
-        <f t="shared" ref="C182:C185" si="67">(F182/(D182+F182))*100</f>
+        <f t="shared" ref="C182:C185" si="68">(F182/(D182+F182))*100</f>
         <v>4.9399620813145146</v>
       </c>
       <c r="D182" s="33">
@@ -5586,12 +5586,12 @@
       </c>
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="73"/>
+      <c r="A183" s="100"/>
       <c r="B183" s="45">
         <v>8</v>
       </c>
       <c r="C183" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>8.0002152041749603</v>
       </c>
       <c r="D183" s="33">
@@ -5609,12 +5609,12 @@
       </c>
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="73"/>
+      <c r="A184" s="100"/>
       <c r="B184" s="45">
         <v>9</v>
       </c>
       <c r="C184" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>11.43108717045631</v>
       </c>
       <c r="D184" s="33">
@@ -5632,12 +5632,12 @@
       </c>
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="73"/>
+      <c r="A185" s="100"/>
       <c r="B185" s="45">
         <v>10</v>
       </c>
       <c r="C185" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>15.165204601565371</v>
       </c>
       <c r="D185" s="33">
@@ -5657,11 +5657,11 @@
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A83:A87"/>
     <mergeCell ref="A173:A179"/>
     <mergeCell ref="A181:A185"/>
     <mergeCell ref="A45:A49"/>
@@ -5675,11 +5675,11 @@
     <mergeCell ref="A139:A140"/>
     <mergeCell ref="A158:A159"/>
     <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A100:A105"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/9_characterizationRheology/solutionsNrheology.xlsx
+++ b/9_characterizationRheology/solutionsNrheology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/9_characterizationRheology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2E33E56-B40C-4643-8CFA-F0539A99B8A6}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E152B6E-5594-44B5-9697-B6BCC05530F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="225" yWindow="-15" windowWidth="21555" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -416,7 +416,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +520,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -575,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -729,9 +742,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -762,23 +772,39 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -848,13 +874,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>419839</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>105188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -892,13 +918,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>457944</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>39009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -936,13 +962,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>606136</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>155656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2020,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD90" sqref="AD90"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2076,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="70"/>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="94" t="s">
         <v>112</v>
       </c>
       <c r="D1" s="70" t="s">
@@ -2076,12 +2102,12 @@
       <c r="N2">
         <v>2</v>
       </c>
-      <c r="AB2" s="96" t="s">
+      <c r="AB2" s="95" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="97" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="72"/>
@@ -2102,42 +2128,42 @@
       </c>
       <c r="H3" s="74"/>
       <c r="I3" s="26"/>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="97" t="s">
+      <c r="N3" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="96" t="s">
         <v>105</v>
       </c>
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="72"/>
-      <c r="C4" s="83">
-        <v>0</v>
-      </c>
-      <c r="D4" s="84">
-        <f>E4*$D$12</f>
+      <c r="C4" s="84">
+        <v>0</v>
+      </c>
+      <c r="D4" s="83">
+        <f>E4*$D$13</f>
         <v>1684.5</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="103">
         <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="84">
         <f>(D4*C4)/(100-C4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="84">
         <v>11.28</v>
       </c>
       <c r="H4" s="78"/>
@@ -2153,7 +2179,7 @@
       <c r="M4" s="12">
         <v>3800</v>
       </c>
-      <c r="N4" s="92">
+      <c r="N4" s="91">
         <f>$N$2*7500</f>
         <v>15000</v>
       </c>
@@ -2164,135 +2190,125 @@
       <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="72"/>
-      <c r="C5" s="83">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="84">
-        <f t="shared" ref="D5:D10" si="0">E5*$D$12</f>
+      <c r="C5" s="84">
+        <v>1E-3</v>
+      </c>
+      <c r="D5" s="83">
+        <f>E5*$D$13</f>
         <v>1684.5</v>
       </c>
-      <c r="E5" s="84">
-        <f t="shared" ref="E5:E10" si="1">$C$2</f>
+      <c r="E5" s="103">
+        <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F5" s="85">
-        <f t="shared" ref="F5:F10" si="2">(D5*C5)/(100-C5)</f>
-        <v>0.16846684668466846</v>
-      </c>
-      <c r="G5" s="85">
-        <v>11.28</v>
+      <c r="F5" s="84">
+        <f>(D5*C5)/(100-C5)</f>
+        <v>1.684516845168452E-2</v>
+      </c>
+      <c r="G5" s="84">
+        <v>12.28</v>
       </c>
       <c r="H5" s="78"/>
       <c r="I5" s="27"/>
-      <c r="K5" s="89" t="str">
+      <c r="K5" s="12" t="str">
         <v>DMAc</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="12">
         <v>1000000</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="89"/>
+      <c r="N5" s="91"/>
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="72"/>
-      <c r="C6" s="83">
+      <c r="C6" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="83">
+        <f t="shared" ref="D6:D11" si="0">E6*$D$13</f>
+        <v>1684.5</v>
+      </c>
+      <c r="E6" s="103">
+        <f t="shared" ref="E6:E11" si="1">$C$2</f>
+        <v>1500</v>
+      </c>
+      <c r="F6" s="84">
+        <f t="shared" ref="F6:F11" si="2">(D6*C6)/(100-C6)</f>
+        <v>0.16846684668466846</v>
+      </c>
+      <c r="G6" s="84">
+        <v>11.28</v>
+      </c>
+      <c r="H6" s="78"/>
+      <c r="I6" s="27"/>
+      <c r="K6" s="88" t="str">
+        <v>MEK</v>
+      </c>
+      <c r="L6" s="88">
+        <v>500000</v>
+      </c>
+      <c r="M6" s="88"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="88"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="84">
         <v>0.1</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D7" s="83">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E7" s="103">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F7" s="84">
         <f t="shared" si="2"/>
         <v>1.6861861861861862</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G7" s="84">
         <v>11.3</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="27"/>
-      <c r="K6" s="89" t="str">
-        <v>MEK</v>
-      </c>
-      <c r="L6" s="89">
-        <v>500000</v>
-      </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="89"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="83">
+      <c r="H7" s="78"/>
+      <c r="I7" s="27"/>
+      <c r="K7" s="88" t="str">
+        <v>CHL</v>
+      </c>
+      <c r="L7" s="88">
+        <v>1000000</v>
+      </c>
+      <c r="M7" s="88"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="88"/>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="110">
         <v>0.25</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D8" s="108">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E8" s="109">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F8" s="110">
         <f t="shared" si="2"/>
         <v>4.2218045112781954</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G8" s="110">
         <v>11.32</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="27"/>
-      <c r="K7" s="12" t="str">
-        <v>CHL</v>
-      </c>
-      <c r="L7" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="M7" s="12">
-        <v>3800</v>
-      </c>
-      <c r="N7" s="92">
-        <f>$N$2*7500</f>
-        <v>15000</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" ref="O7:O11" si="3">L7-M7</f>
-        <v>996200</v>
-      </c>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="84">
-        <f t="shared" si="0"/>
-        <v>1684.5</v>
-      </c>
-      <c r="E8" s="84">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="F8" s="85">
-        <f t="shared" si="2"/>
-        <v>8.4648241206030157</v>
-      </c>
-      <c r="G8" s="85">
-        <v>11.34</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="27"/>
@@ -2305,36 +2321,36 @@
       <c r="M8" s="12">
         <v>3800</v>
       </c>
-      <c r="N8" s="92">
-        <f>$N$2*9000</f>
-        <v>18000</v>
+      <c r="N8" s="91">
+        <f>$N$2*7500</f>
+        <v>15000</v>
       </c>
       <c r="O8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O8:O12" si="3">L8-M8</f>
         <v>96200</v>
       </c>
       <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="72"/>
-      <c r="C9" s="83">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="84">
+      <c r="C9" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="83">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="103">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="84">
         <f t="shared" si="2"/>
-        <v>12.729219143576826</v>
-      </c>
-      <c r="G9" s="85">
-        <v>11.37</v>
+        <v>8.4648241206030157</v>
+      </c>
+      <c r="G9" s="84">
+        <v>11.34</v>
       </c>
       <c r="H9" s="78"/>
       <c r="I9" s="27"/>
@@ -2345,68 +2361,81 @@
         <v>100000</v>
       </c>
       <c r="M9" s="12">
+        <v>3800</v>
+      </c>
+      <c r="N9" s="91">
+        <f>$N$2*9000</f>
+        <v>18000</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="3"/>
+        <v>96200</v>
+      </c>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="83">
+        <f t="shared" si="0"/>
+        <v>1684.5</v>
+      </c>
+      <c r="E10" s="103">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="F10" s="84">
+        <f t="shared" si="2"/>
+        <v>12.729219143576826</v>
+      </c>
+      <c r="G10" s="84">
+        <v>11.37</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="27"/>
+      <c r="K10" s="12" t="str">
+        <v>SU8</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <v>?</v>
+      </c>
+      <c r="M10" s="12">
         <v>9200</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N10" s="93">
         <f>$N$2*(2625+10500)</f>
         <v>26250</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O10" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>90800</v>
-      </c>
-      <c r="Q9" s="27"/>
-    </row>
-    <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="84">
         <v>1</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D11" s="83">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E11" s="103">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F11" s="84">
         <f t="shared" si="2"/>
         <v>17.015151515151516</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G11" s="84">
         <v>11.4</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="28"/>
-      <c r="K10" s="12" t="str">
-        <v>SU8</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <v>?</v>
-      </c>
-      <c r="M10" s="12">
-        <f>9200+5100</f>
-        <v>14300</v>
-      </c>
-      <c r="N10" s="92">
-        <f>$N$2*10500</f>
-        <v>21000</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="28"/>
-    </row>
-    <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
       <c r="H11" s="78"/>
       <c r="I11" s="28"/>
       <c r="K11" s="12" t="str">
@@ -2416,174 +2445,162 @@
         <v>100000</v>
       </c>
       <c r="M11" s="12">
+        <f>9200+5100</f>
+        <v>14300</v>
+      </c>
+      <c r="N11" s="91">
+        <f>$N$2*10500</f>
+        <v>21000</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="28"/>
+      <c r="M12" s="12">
         <f>3*10000</f>
         <v>30000</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N12" s="93">
         <f>$N$2*(10500+7875)</f>
         <v>36750</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O12" s="12">
         <f t="shared" si="3"/>
-        <v>70000</v>
-      </c>
-      <c r="Q11" s="28"/>
-    </row>
-    <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="79" t="s">
+        <v>-30000</v>
+      </c>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D13" s="80">
         <v>1.123</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80">
+      <c r="E13" s="80"/>
+      <c r="F13" s="80">
         <v>1.21</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G13" s="80">
         <v>0.4</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="28"/>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81">
-        <f>C2*D12</f>
+      <c r="H13" s="79"/>
+      <c r="I13" s="28"/>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81">
+        <f>C2*D13</f>
         <v>1684.5</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E14" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="28"/>
-      <c r="K13" s="97" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="28"/>
+      <c r="K14" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="97" t="s">
+      <c r="L14" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="97" t="s">
+      <c r="M14" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="97" t="s">
+      <c r="N14" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="97" t="s">
+      <c r="O14" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="K14" s="12" t="str" cm="1">
-        <f t="array" ref="K14:K20">solventNpolymerData!C12:C18</f>
+      <c r="Q14" s="28"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="K15" s="12" t="str" cm="1">
+        <f t="array" ref="K15:K21">solventNpolymerData!C12:C18</f>
         <v>PVK</v>
       </c>
-      <c r="L14" s="4" cm="1">
-        <f t="array" ref="L14:L20">solventNpolymerData!B12:B18</f>
+      <c r="L15" s="4" cm="1">
+        <f t="array" ref="L15:L21">solventNpolymerData!B12:B18</f>
         <v>5000</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M15" s="4">
         <v>435</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N15" s="92">
         <f>$N$2*1691</f>
         <v>3382</v>
       </c>
-      <c r="O14" s="4">
-        <f>L14-M14</f>
+      <c r="O15" s="4">
+        <f>L15-M15</f>
         <v>4565</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="86">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17" t="e">
-        <f>(F15/(D15+F15))*100</f>
+      <c r="B16" s="85">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17" t="e">
+        <f>(F16/(D16+F16))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="17">
-        <f>$D$12*E15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="K15" s="89" t="str">
-        <v>PANI</v>
-      </c>
-      <c r="L15" s="90">
-        <v>5000</v>
-      </c>
-      <c r="M15" s="91"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="90"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="86">
-        <v>1</v>
-      </c>
-      <c r="C16" s="17" t="e">
-        <f t="shared" ref="C16:C21" si="4">(F16/(D16+F16))*100</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D16" s="17">
-        <f t="shared" ref="D16:D21" si="5">$D$12*E16</f>
+        <f>$D$13*E16</f>
         <v>0</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="71"/>
       <c r="H16" s="71"/>
-      <c r="K16" s="12" t="str">
-        <v>PSMS</v>
-      </c>
-      <c r="L16" s="4">
-        <v>250000</v>
-      </c>
-      <c r="M16" s="4">
-        <v>770</v>
-      </c>
-      <c r="N16" s="93">
-        <f>$N$2*540</f>
-        <v>1080</v>
-      </c>
-      <c r="O16" s="4">
-        <f>L16-M16</f>
-        <v>249230</v>
-      </c>
+      <c r="K16" s="88" t="str">
+        <v>PANI</v>
+      </c>
+      <c r="L16" s="89">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="90"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="89"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="98"/>
-      <c r="B17" s="86">
-        <v>2</v>
+      <c r="B17" s="85">
+        <v>1</v>
       </c>
       <c r="C17" s="17" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C17:C22" si="4">(F17/(D17+F17))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D17:D22" si="5">$D$13*E17</f>
         <v>0</v>
       </c>
       <c r="E17" s="17"/>
@@ -2591,27 +2608,27 @@
       <c r="G17" s="71"/>
       <c r="H17" s="71"/>
       <c r="K17" s="12" t="str">
-        <v>PSB</v>
+        <v>PSMS</v>
       </c>
       <c r="L17" s="4">
-        <v>1000000</v>
+        <v>250000</v>
       </c>
       <c r="M17" s="4">
-        <v>4100</v>
-      </c>
-      <c r="N17" s="93">
-        <f>$N$2*1850</f>
-        <v>3700</v>
+        <v>770</v>
+      </c>
+      <c r="N17" s="92">
+        <f>$N$2*540</f>
+        <v>1080</v>
       </c>
       <c r="O17" s="4">
         <f>L17-M17</f>
-        <v>995900</v>
+        <v>249230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="98"/>
-      <c r="B18" s="86">
-        <v>3</v>
+      <c r="B18" s="85">
+        <v>2</v>
       </c>
       <c r="C18" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2626,27 +2643,27 @@
       <c r="G18" s="71"/>
       <c r="H18" s="71"/>
       <c r="K18" s="12" t="str">
-        <v>PS</v>
+        <v>PSB</v>
       </c>
       <c r="L18" s="4">
         <v>1000000</v>
       </c>
       <c r="M18" s="4">
-        <v>4700</v>
-      </c>
-      <c r="N18" s="93">
-        <f>$N$2*1305</f>
-        <v>2610</v>
+        <v>4100</v>
+      </c>
+      <c r="N18" s="92">
+        <f>$N$2*1850</f>
+        <v>3700</v>
       </c>
       <c r="O18" s="4">
         <f>L18-M18</f>
-        <v>995300</v>
+        <v>995900</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
-      <c r="B19" s="86">
-        <v>4</v>
+      <c r="B19" s="85">
+        <v>3</v>
       </c>
       <c r="C19" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2661,23 +2678,27 @@
       <c r="G19" s="71"/>
       <c r="H19" s="71"/>
       <c r="K19" s="12" t="str">
-        <v>PEO</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <v>?</v>
+        <v>PS</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1000000</v>
       </c>
       <c r="M19" s="4">
-        <v>170</v>
-      </c>
-      <c r="N19" s="93"/>
-      <c r="O19" s="4" t="s">
-        <v>102</v>
+        <v>4700</v>
+      </c>
+      <c r="N19" s="92">
+        <f>$N$2*1305</f>
+        <v>2610</v>
+      </c>
+      <c r="O19" s="4">
+        <f>L19-M19</f>
+        <v>995300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
-      <c r="B20" s="86">
-        <v>5</v>
+      <c r="B20" s="85">
+        <v>4</v>
       </c>
       <c r="C20" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2692,7 +2713,7 @@
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
       <c r="K20" s="12" t="str">
-        <v>TBT</v>
+        <v>PEO</v>
       </c>
       <c r="L20" s="4" t="str">
         <v>?</v>
@@ -2700,15 +2721,15 @@
       <c r="M20" s="4">
         <v>170</v>
       </c>
-      <c r="N20" s="93"/>
+      <c r="N20" s="92"/>
       <c r="O20" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="98"/>
-      <c r="B21" s="86">
-        <v>6</v>
+      <c r="B21" s="85">
+        <v>5</v>
       </c>
       <c r="C21" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2722,292 +2743,305 @@
       <c r="F21" s="17"/>
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12" t="str">
+        <v>TBT</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <v>?</v>
+      </c>
+      <c r="M21" s="4">
+        <v>170</v>
+      </c>
+      <c r="N21" s="92"/>
+      <c r="O21" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="71"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="85">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
-      <c r="K22"/>
-      <c r="N22" s="4"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="71"/>
       <c r="H23" s="71"/>
       <c r="K23"/>
-    </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="24" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="Q24" s="29"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="14">
+      <c r="I25" s="29"/>
+      <c r="Q25" s="29"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="14">
         <v>0.1</v>
       </c>
-      <c r="D25" s="17">
-        <f>E25*$D$34</f>
+      <c r="D26" s="17">
+        <f>E26*$D$35</f>
         <v>1332</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="104">
         <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F25" s="17">
-        <f>(D25*C25)/(100-C25)</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="17">
-        <f t="shared" ref="D26:D31" si="6">E26*$D$34</f>
-        <v>1332</v>
-      </c>
-      <c r="E26" s="17">
-        <f t="shared" ref="E26:E31" si="7">$C$2</f>
-        <v>1500</v>
-      </c>
       <c r="F26" s="17">
         <f>(D26*C26)/(100-C26)</f>
-        <v>2.6693386773547099</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="44"/>
       <c r="C27" s="14">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="D27" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D27:D32" si="6">E27*$D$35</f>
         <v>1332</v>
       </c>
-      <c r="E27" s="17">
-        <f t="shared" si="7"/>
+      <c r="E27" s="104">
+        <f t="shared" ref="E27:E32" si="7">$C$2</f>
         <v>1500</v>
       </c>
       <c r="F27" s="17">
         <f>(D27*C27)/(100-C27)</f>
-        <v>13.454545454545455</v>
+        <v>4.5442504515352207</v>
       </c>
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="44"/>
       <c r="C28" s="14">
-        <v>10</v>
+        <v>1.22</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="104">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="F28" s="17">
         <f>(D28*C28)/(100-C28)</f>
-        <v>148</v>
+        <v>16.45110346223932</v>
       </c>
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="44"/>
       <c r="C29" s="14">
-        <v>15</v>
+        <v>4.28</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="104">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="F29" s="17">
         <f>(D29*C29)/(100-C29)</f>
-        <v>235.05882352941177</v>
+        <v>59.558712912661932</v>
       </c>
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="14">
-        <v>20</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="A30" s="97"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="105">
+        <v>15</v>
+      </c>
+      <c r="D30" s="106">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="107">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="F30" s="17">
-        <f t="shared" ref="F30:F31" si="8">(D30*C30)/(100-C30)</f>
-        <v>333</v>
+      <c r="F30" s="106">
+        <f>(D30*C30)/(100-C30)</f>
+        <v>235.05882352941177</v>
       </c>
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="62"/>
       <c r="C31" s="14">
-        <v>30</v>
+        <v>21.21</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="104">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="F31" s="17">
+        <f t="shared" ref="F31:F32" si="8">(D31*C31)/(100-C31)</f>
+        <v>358.5698692727504</v>
+      </c>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="97"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="14">
+        <v>30</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="6"/>
+        <v>1332</v>
+      </c>
+      <c r="E32" s="104">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="F32" s="17">
         <f t="shared" si="8"/>
         <v>570.85714285714289</v>
       </c>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="44"/>
-      <c r="C34" s="36" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="97"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D35" s="37">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37">
         <v>1.06</v>
       </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="D35" s="15">
-        <f>C2*D34</f>
+      <c r="G35" s="37"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="D36" s="15">
+        <f>C2*D35</f>
         <v>1332</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B38" s="34">
         <v>7</v>
       </c>
-      <c r="C37" s="17" t="e">
-        <f t="shared" ref="C37:C38" si="9">(F37/(D37+F37))*100</f>
+      <c r="C38" s="17" t="e">
+        <f t="shared" ref="C38:C39" si="9">(F38/(D38+F38))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="17">
-        <f t="shared" ref="D37:D38" si="10">$D$34*E37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
-      <c r="B38" s="34">
+      <c r="D38" s="17">
+        <f t="shared" ref="D38:D39" si="10">$D$35*E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="98"/>
+      <c r="B39" s="34">
         <v>8</v>
       </c>
-      <c r="C38" s="17" t="e">
+      <c r="C39" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
-      <c r="B39" s="58">
-        <v>9</v>
-      </c>
-      <c r="C39" s="17" t="e">
-        <f>(F39/(D39+F39))*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="17">
-        <f>$D$34*E39</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="98"/>
       <c r="B40" s="58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="17" t="e">
-        <f t="shared" ref="C40:C43" si="11">(F40/(D40+F40))*100</f>
+        <f>(F40/(D40+F40))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D40" s="17">
-        <f t="shared" ref="D40:D43" si="12">$D$34*E40</f>
+        <f>$D$35*E40</f>
         <v>0</v>
       </c>
       <c r="E40" s="17"/>
@@ -3018,14 +3052,14 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="98"/>
       <c r="B41" s="58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="17" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C41:C44" si="11">(F41/(D41+F41))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D41:D44" si="12">$D$35*E41</f>
         <v>0</v>
       </c>
       <c r="E41" s="17"/>
@@ -3036,7 +3070,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="98"/>
       <c r="B42" s="58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3054,7 +3088,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="98"/>
       <c r="B43" s="58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3069,52 +3103,48 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="98"/>
+      <c r="B44" s="58">
+        <v>13</v>
+      </c>
+      <c r="C44" s="17" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="47">
-        <v>0</v>
-      </c>
-      <c r="C45" s="17">
-        <f>(F45/(D45+F45))*100</f>
+      <c r="B46" s="47">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17">
+        <f>(F46/(D46+F46))*100</f>
         <v>19.752993448301833</v>
       </c>
-      <c r="D45" s="17">
-        <f>$D$34*E45</f>
+      <c r="D46" s="17">
+        <f>$D$35*E46</f>
         <v>2131.1999999999998</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>2400</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>524.6</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
-      <c r="B46" s="47">
-        <v>1</v>
-      </c>
-      <c r="C46" s="17">
-        <f t="shared" ref="C46:C49" si="13">(F46/(D46+F46))*100</f>
-        <v>25.221052631578942</v>
-      </c>
-      <c r="D46" s="17">
-        <f t="shared" ref="D46:D49" si="14">$D$34*E46</f>
-        <v>1953.6000000000001</v>
-      </c>
-      <c r="E46" s="17">
-        <v>2200</v>
-      </c>
-      <c r="F46" s="17">
-        <v>658.9</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -3122,21 +3152,21 @@
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="98"/>
       <c r="B47" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="17">
-        <f t="shared" si="13"/>
-        <v>30.222637979420021</v>
+        <f t="shared" ref="C47:C50" si="13">(F47/(D47+F47))*100</f>
+        <v>25.221052631578942</v>
       </c>
       <c r="D47" s="17">
-        <f t="shared" si="14"/>
-        <v>1864.8</v>
+        <f t="shared" ref="D47:D50" si="14">$D$35*E47</f>
+        <v>1953.6000000000001</v>
       </c>
       <c r="E47" s="17">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F47" s="17">
-        <v>807.7</v>
+        <v>658.9</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -3144,21 +3174,21 @@
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="98"/>
       <c r="B48" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" si="13"/>
-        <v>35.583384239462433</v>
+        <v>30.222637979420021</v>
       </c>
       <c r="D48" s="17">
         <f t="shared" si="14"/>
-        <v>1687.2</v>
+        <v>1864.8</v>
       </c>
       <c r="E48" s="17">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F48" s="17">
-        <v>932</v>
+        <v>807.7</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -3166,71 +3196,71 @@
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="98"/>
       <c r="B49" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" si="13"/>
-        <v>39.941384233861875</v>
+        <v>35.583384239462433</v>
       </c>
       <c r="D49" s="17">
         <f t="shared" si="14"/>
-        <v>1598.4</v>
+        <v>1687.2</v>
       </c>
       <c r="E49" s="17">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="17">
-        <v>1063</v>
+        <v>932</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-    </row>
-    <row r="51" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="98" t="s">
+      <c r="A50" s="98"/>
+      <c r="B50" s="47">
+        <v>4</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="13"/>
+        <v>39.941384233861875</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="14"/>
+        <v>1598.4</v>
+      </c>
+      <c r="E50" s="17">
+        <v>1800</v>
+      </c>
+      <c r="F50" s="17">
+        <v>1063</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+    </row>
+    <row r="52" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="47">
-        <v>0</v>
-      </c>
-      <c r="C51" s="17">
-        <f>(F51/(D51+F51))*100</f>
+      <c r="B52" s="47">
+        <v>0</v>
+      </c>
+      <c r="C52" s="17">
+        <f>(F52/(D52+F52))*100</f>
         <v>0.25833988543187686</v>
       </c>
-      <c r="D51" s="17">
-        <f>$D$34*E51</f>
+      <c r="D52" s="17">
+        <f>$D$35*E52</f>
         <v>1776</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>2000</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="98"/>
-      <c r="B52" s="47">
-        <v>1</v>
-      </c>
-      <c r="C52" s="17">
-        <f t="shared" ref="C52:C55" si="15">(F52/(D52+F52))*100</f>
-        <v>4.1635898892360119</v>
-      </c>
-      <c r="D52" s="17">
-        <f t="shared" ref="D52:D55" si="16">$D$34*E52</f>
-        <v>1687.2</v>
-      </c>
-      <c r="E52" s="17">
-        <v>1900</v>
-      </c>
-      <c r="F52" s="17">
-        <v>73.3</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -3238,21 +3268,21 @@
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="98"/>
       <c r="B53" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="17">
-        <f t="shared" si="15"/>
-        <v>8.3275980729525099</v>
+        <f t="shared" ref="C53:C56" si="15">(F53/(D53+F53))*100</f>
+        <v>4.1635898892360119</v>
       </c>
       <c r="D53" s="17">
-        <f t="shared" si="16"/>
-        <v>1598.4</v>
+        <f t="shared" ref="D53:D56" si="16">$D$35*E53</f>
+        <v>1687.2</v>
       </c>
       <c r="E53" s="17">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F53" s="17">
-        <v>145.19999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -3260,11 +3290,11 @@
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="98"/>
       <c r="B54" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" si="15"/>
-        <v>11.031949237448513</v>
+        <v>8.3275980729525099</v>
       </c>
       <c r="D54" s="17">
         <f t="shared" si="16"/>
@@ -3274,7 +3304,7 @@
         <v>1800</v>
       </c>
       <c r="F54" s="17">
-        <v>198.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -3282,147 +3312,142 @@
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="98"/>
       <c r="B55" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="15"/>
-        <v>15.172902080219371</v>
+        <v>11.031949237448513</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="16"/>
-        <v>1509.6</v>
+        <v>1598.4</v>
       </c>
       <c r="E55" s="17">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F55" s="17">
-        <v>270.02</v>
+        <v>198.2</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-    </row>
-    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="98"/>
+      <c r="B56" s="47">
+        <v>4</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="15"/>
+        <v>15.172902080219371</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="16"/>
+        <v>1509.6</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1700</v>
+      </c>
+      <c r="F56" s="17">
+        <v>270.02</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+    </row>
+    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="24" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D58" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E58" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H58" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="I57" s="29"/>
-      <c r="Q57" s="29"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="102"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="14">
+      <c r="I58" s="29"/>
+      <c r="Q58" s="29"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="97"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="14">
         <v>0.1</v>
       </c>
-      <c r="D58" s="17">
-        <f>E58*$D$66</f>
+      <c r="D59" s="17">
+        <f>E59*$D$67</f>
         <v>999</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="104">
         <f>$C$2*0.75</f>
         <v>1125</v>
       </c>
-      <c r="F58" s="17">
-        <f>G58*$F$66</f>
+      <c r="F59" s="17">
+        <f>G59*$F$67</f>
         <v>356.25</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="104">
         <f>$C$2*0.25</f>
         <v>375</v>
       </c>
-      <c r="H58" s="17">
-        <f>((D58+F58)*C58)/(100-C58)</f>
+      <c r="H59" s="17">
+        <f>((D59+F59)*C59)/(100-C59)</f>
         <v>1.3566066066066065</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="102"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D59" s="17">
-        <f t="shared" ref="D59:D64" si="17">E59*$D$66</f>
-        <v>999</v>
-      </c>
-      <c r="E59" s="17">
-        <f t="shared" ref="E59:E64" si="18">$C$2*0.75</f>
-        <v>1125</v>
-      </c>
-      <c r="F59" s="17">
-        <f t="shared" ref="F59:F64" si="19">G59*$F$66</f>
-        <v>356.25</v>
-      </c>
-      <c r="G59" s="17">
-        <f t="shared" ref="G59:G64" si="20">$C$2*0.25</f>
-        <v>375</v>
-      </c>
-      <c r="H59" s="17">
-        <f t="shared" ref="H59:H62" si="21">((D59+F59)*C59)/(100-C59)</f>
-        <v>2.7159318637274552</v>
-      </c>
-    </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="102"/>
+      <c r="A60" s="97"/>
       <c r="B60" s="44"/>
       <c r="C60" s="14">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="D60" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D60:D65" si="17">E60*$D$67</f>
         <v>999</v>
       </c>
-      <c r="E60" s="17">
-        <f t="shared" si="18"/>
+      <c r="E60" s="104">
+        <f t="shared" ref="E60:E65" si="18">$C$2*0.75</f>
         <v>1125</v>
       </c>
       <c r="F60" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F60:F65" si="19">G60*$F$67</f>
         <v>356.25</v>
       </c>
-      <c r="G60" s="17">
-        <f t="shared" si="20"/>
+      <c r="G60" s="104">
+        <f t="shared" ref="G60:G65" si="20">$C$2*0.25</f>
         <v>375</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" si="21"/>
-        <v>13.689393939393939</v>
+        <f t="shared" ref="H60:H63" si="21">((D60+F60)*C60)/(100-C60)</f>
+        <v>4.623570138470801</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="44"/>
       <c r="C61" s="14">
-        <v>10</v>
+        <v>1.224</v>
       </c>
       <c r="D61" s="17">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="104">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
@@ -3430,26 +3455,26 @@
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="104">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="21"/>
-        <v>150.58333333333334</v>
+        <v>16.793816311654655</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
+      <c r="A62" s="97"/>
       <c r="B62" s="44"/>
       <c r="C62" s="14">
-        <v>15</v>
+        <v>4.28</v>
       </c>
       <c r="D62" s="17">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="104">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
@@ -3457,53 +3482,53 @@
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="104">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="21"/>
-        <v>239.16176470588235</v>
+        <v>60.598307563727545</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="14">
-        <v>20</v>
-      </c>
-      <c r="D63" s="17">
+      <c r="A63" s="97"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="105">
+        <v>15</v>
+      </c>
+      <c r="D63" s="106">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="107">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="106">
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="107">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
-      <c r="H63" s="17">
-        <f t="shared" ref="H63:H64" si="22">((D63+F63)*C63)/(100-C63)</f>
-        <v>338.8125</v>
+      <c r="H63" s="106">
+        <f t="shared" si="21"/>
+        <v>239.16176470588235</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="102"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="62"/>
       <c r="C64" s="14">
-        <v>25</v>
+        <v>19.36</v>
       </c>
       <c r="D64" s="17">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="104">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
@@ -3511,133 +3536,139 @@
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="104">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
       <c r="H64" s="17">
+        <f t="shared" ref="H64:H65" si="22">((D64+F64)*C64)/(100-C64)</f>
+        <v>325.36755952380952</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="97"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="14">
+        <v>25</v>
+      </c>
+      <c r="D65" s="17">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+      <c r="E65" s="104">
+        <f t="shared" si="18"/>
+        <v>1125</v>
+      </c>
+      <c r="F65" s="17">
+        <f t="shared" si="19"/>
+        <v>356.25</v>
+      </c>
+      <c r="G65" s="104">
+        <f t="shared" si="20"/>
+        <v>375</v>
+      </c>
+      <c r="H65" s="17">
         <f t="shared" si="22"/>
         <v>451.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="102"/>
-      <c r="B65" s="44"/>
-    </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
+      <c r="A66" s="97"/>
       <c r="B66" s="44"/>
-      <c r="C66" s="36" t="s">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="97"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="37">
+      <c r="D67" s="37">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37">
+      <c r="E67" s="37"/>
+      <c r="F67" s="37">
         <v>0.95</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="37">
+      <c r="G67" s="17"/>
+      <c r="H67" s="37">
         <v>1.04</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15">
-        <f>C2*((D66*0.75)+(F66*0.25))</f>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15">
+        <f>C2*((D67*0.75)+(F67*0.25))</f>
         <v>1355.25</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="98" t="s">
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="88">
+      <c r="B70" s="87">
         <v>14</v>
       </c>
-      <c r="C69" s="17" t="e">
-        <f t="shared" ref="C69:C70" si="23">(H69/(D69+F69+H69))*100</f>
+      <c r="C70" s="17" t="e">
+        <f t="shared" ref="C70:C71" si="23">(H70/(D70+F70+H70))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D69" s="17">
-        <f t="shared" ref="D69:D70" si="24">$D$66*E69</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17">
-        <f t="shared" ref="F69:F70" si="25">$F$66*G69</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
-      <c r="B70" s="88">
+      <c r="D70" s="17">
+        <f t="shared" ref="D70:D71" si="24">$D$67*E70</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17">
+        <f t="shared" ref="F70:F71" si="25">$F$67*G70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="98"/>
+      <c r="B71" s="87">
         <v>15</v>
       </c>
-      <c r="C70" s="17" t="e">
+      <c r="C71" s="17" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
-      <c r="B71" s="58">
-        <v>16</v>
-      </c>
-      <c r="C71" s="17" t="e">
-        <f>(H71/(D71+F71+H71))*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" s="17">
-        <f>$D$66*E71</f>
         <v>0</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17">
-        <f>$F$66*G71</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="98"/>
-      <c r="B72" s="59">
-        <v>17</v>
+      <c r="B72" s="58">
+        <v>16</v>
       </c>
       <c r="C72" s="17" t="e">
-        <f t="shared" ref="C72:C75" si="26">(H72/(D72+F72+H72))*100</f>
+        <f>(H72/(D72+F72+H72))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D72" s="17">
-        <f t="shared" ref="D72:D75" si="27">$D$66*E72</f>
+        <f>$D$67*E72</f>
         <v>0</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17">
-        <f t="shared" ref="F72:F75" si="28">$F$66*G72</f>
+        <f>$F$67*G72</f>
         <v>0</v>
       </c>
       <c r="G72" s="17"/>
@@ -3646,19 +3677,19 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="98"/>
       <c r="B73" s="59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="17" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="C73:C76" si="26">(H73/(D73+F73+H73))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D73" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="D73:D76" si="27">$D$67*E73</f>
         <v>0</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F73:F76" si="28">$F$67*G73</f>
         <v>0</v>
       </c>
       <c r="G73" s="17"/>
@@ -3667,7 +3698,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="98"/>
       <c r="B74" s="59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3688,7 +3719,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="98"/>
       <c r="B75" s="59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3706,242 +3737,236 @@
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="98" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="98"/>
+      <c r="B76" s="59">
+        <v>20</v>
+      </c>
+      <c r="C76" s="17" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="47">
+      <c r="B78" s="47">
         <v>5</v>
       </c>
-      <c r="C77" s="17">
-        <f>(H77/(D77+F77+H77))*100</f>
+      <c r="C78" s="17">
+        <f>(H78/(D78+F78+H78))*100</f>
         <v>9.2846497764530547</v>
       </c>
-      <c r="D77" s="17">
-        <f>$D$66*E77</f>
+      <c r="D78" s="17">
+        <f>$D$67*E78</f>
         <v>1864.8</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>2100</v>
       </c>
-      <c r="F77" s="17">
-        <f>$F$66*G77</f>
-        <v>570</v>
-      </c>
-      <c r="G77" s="17">
-        <v>600</v>
-      </c>
-      <c r="H77" s="17">
-        <v>249.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="101"/>
-      <c r="B78" s="48">
-        <v>6</v>
-      </c>
-      <c r="C78" s="17">
-        <f t="shared" ref="C78:C81" si="29">(H78/(D78+F78+H78))*100</f>
-        <v>13.75317083930738</v>
-      </c>
-      <c r="D78" s="17">
-        <f t="shared" ref="D78:D81" si="30">$D$66*E78</f>
-        <v>1776</v>
-      </c>
-      <c r="E78" s="17">
-        <v>2000</v>
-      </c>
       <c r="F78" s="17">
-        <f t="shared" ref="F78:F81" si="31">$F$66*G78</f>
+        <f>$F$67*G78</f>
         <v>570</v>
       </c>
       <c r="G78" s="17">
         <v>600</v>
       </c>
       <c r="H78" s="17">
+        <v>249.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="99"/>
+      <c r="B79" s="48">
+        <v>6</v>
+      </c>
+      <c r="C79" s="17">
+        <f t="shared" ref="C79:C82" si="29">(H79/(D79+F79+H79))*100</f>
+        <v>13.75317083930738</v>
+      </c>
+      <c r="D79" s="17">
+        <f t="shared" ref="D79:D82" si="30">$D$67*E79</f>
+        <v>1776</v>
+      </c>
+      <c r="E79" s="17">
+        <v>2000</v>
+      </c>
+      <c r="F79" s="17">
+        <f t="shared" ref="F79:F82" si="31">$F$67*G79</f>
+        <v>570</v>
+      </c>
+      <c r="G79" s="17">
+        <v>600</v>
+      </c>
+      <c r="H79" s="17">
         <v>374.1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="101"/>
-      <c r="B79" s="48">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="99"/>
+      <c r="B80" s="48">
         <v>7</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C80" s="17">
         <f t="shared" si="29"/>
         <v>19.465181058495823</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <f t="shared" si="30"/>
         <v>1598.4</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>1800</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <f t="shared" si="31"/>
         <v>570</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>600</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>524.1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="101"/>
-      <c r="B80" s="48">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="99"/>
+      <c r="B81" s="48">
         <v>8</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C81" s="17">
         <f t="shared" si="29"/>
         <v>24.788721719028313</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <f t="shared" si="30"/>
         <v>1509.6</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>1700</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <f t="shared" si="31"/>
         <v>475</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>500</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>654.1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="101"/>
-      <c r="B81" s="48">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="99"/>
+      <c r="B82" s="48">
         <v>9</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C82" s="17">
         <f t="shared" si="29"/>
         <v>29.406524885870166</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <f t="shared" si="30"/>
         <v>1332</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>1500</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <f t="shared" si="31"/>
         <v>570</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>600</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>792.3</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="98" t="s">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="47">
+      <c r="B84" s="47">
         <v>5</v>
       </c>
-      <c r="C83" s="17">
-        <f>(H83/(D83+F83+H83))*100</f>
+      <c r="C84" s="17">
+        <f>(H84/(D84+F84+H84))*100</f>
         <v>1.4023026136301631</v>
       </c>
-      <c r="D83" s="17">
-        <f>$D$66*E83</f>
-        <v>1332</v>
-      </c>
-      <c r="E83" s="17">
-        <v>1500</v>
-      </c>
-      <c r="F83" s="17">
-        <f>$F$66*G83</f>
-        <v>475</v>
-      </c>
-      <c r="G83" s="17">
-        <v>500</v>
-      </c>
-      <c r="H83" s="17">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="101"/>
-      <c r="B84" s="48">
-        <v>6</v>
-      </c>
-      <c r="C84" s="17">
-        <f t="shared" ref="C84:C87" si="32">(H84/(D84+F84+H84))*100</f>
-        <v>3.8727524204702628</v>
-      </c>
       <c r="D84" s="17">
-        <f t="shared" ref="D84:D87" si="33">$D$66*E84</f>
+        <f>$D$67*E84</f>
         <v>1332</v>
       </c>
       <c r="E84" s="17">
         <v>1500</v>
       </c>
       <c r="F84" s="17">
-        <f t="shared" ref="F84:F87" si="34">$F$66*G84</f>
+        <f>$F$67*G84</f>
         <v>475</v>
       </c>
       <c r="G84" s="17">
         <v>500</v>
       </c>
       <c r="H84" s="17">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="99"/>
+      <c r="B85" s="48">
+        <v>6</v>
+      </c>
+      <c r="C85" s="17">
+        <f t="shared" ref="C85:C88" si="32">(H85/(D85+F85+H85))*100</f>
+        <v>3.8727524204702628</v>
+      </c>
+      <c r="D85" s="17">
+        <f t="shared" ref="D85:D88" si="33">$D$67*E85</f>
+        <v>1332</v>
+      </c>
+      <c r="E85" s="17">
+        <v>1500</v>
+      </c>
+      <c r="F85" s="17">
+        <f t="shared" ref="F85:F88" si="34">$F$67*G85</f>
+        <v>475</v>
+      </c>
+      <c r="G85" s="17">
+        <v>500</v>
+      </c>
+      <c r="H85" s="17">
         <v>72.8</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="101"/>
-      <c r="B85" s="48">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="99"/>
+      <c r="B86" s="48">
         <v>7</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C86" s="17">
         <f t="shared" si="32"/>
         <v>27.189116689020885</v>
       </c>
-      <c r="D85" s="17">
-        <f>$D$66*G66</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="17">
+      <c r="D86" s="17">
+        <f>$D$67*G67</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="17">
         <v>1400</v>
-      </c>
-      <c r="F85" s="17">
-        <f t="shared" si="34"/>
-        <v>380</v>
-      </c>
-      <c r="G85" s="17">
-        <v>400</v>
-      </c>
-      <c r="H85" s="17">
-        <v>141.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="101"/>
-      <c r="B86" s="48">
-        <v>8</v>
-      </c>
-      <c r="C86" s="17">
-        <f t="shared" si="32"/>
-        <v>11.750158164145628</v>
-      </c>
-      <c r="D86" s="17">
-        <f t="shared" si="33"/>
-        <v>1154.4000000000001</v>
-      </c>
-      <c r="E86" s="17">
-        <v>1300</v>
       </c>
       <c r="F86" s="17">
         <f t="shared" si="34"/>
@@ -3951,17 +3976,17 @@
         <v>400</v>
       </c>
       <c r="H86" s="17">
-        <v>204.3</v>
+        <v>141.9</v>
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="101"/>
+      <c r="A87" s="99"/>
       <c r="B87" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="17">
         <f t="shared" si="32"/>
-        <v>14.646492740724259</v>
+        <v>11.750158164145628</v>
       </c>
       <c r="D87" s="17">
         <f t="shared" si="33"/>
@@ -3978,251 +4003,260 @@
         <v>400</v>
       </c>
       <c r="H87" s="17">
+        <v>204.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="99"/>
+      <c r="B88" s="48">
+        <v>9</v>
+      </c>
+      <c r="C88" s="17">
+        <f t="shared" si="32"/>
+        <v>14.646492740724259</v>
+      </c>
+      <c r="D88" s="17">
+        <f t="shared" si="33"/>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="E88" s="17">
+        <v>1300</v>
+      </c>
+      <c r="F88" s="17">
+        <f t="shared" si="34"/>
+        <v>380</v>
+      </c>
+      <c r="G88" s="17">
+        <v>400</v>
+      </c>
+      <c r="H88" s="17">
         <v>263.3</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="102" t="s">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="24" t="s">
+      <c r="B90" s="44"/>
+      <c r="C90" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="F90" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G89" s="16"/>
-      <c r="I89" s="29"/>
-      <c r="Q89" s="29"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="102"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="14">
+      <c r="G90" s="16"/>
+      <c r="I90" s="29"/>
+      <c r="Q90" s="29"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="97"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="14">
         <v>0.1</v>
       </c>
-      <c r="D90" s="17">
-        <f>E90*$D$97</f>
+      <c r="D91" s="17">
+        <f>E91*$D$98</f>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="104">
         <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F90" s="17">
-        <f>(D90*C90)/(100-C90)</f>
+      <c r="F91" s="17">
+        <f>(D91*C91)/(100-C91)</f>
         <v>1.5420420420420418</v>
-      </c>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="102"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="14">
-        <v>1</v>
-      </c>
-      <c r="D91" s="17">
-        <f t="shared" ref="D91:D95" si="35">E91*$D$97</f>
-        <v>1540.4999999999998</v>
-      </c>
-      <c r="E91" s="17">
-        <f t="shared" ref="E91:E95" si="36">$C$2</f>
-        <v>1500</v>
-      </c>
-      <c r="F91" s="17">
-        <f t="shared" ref="F91:F94" si="37">(D91*C91)/(100-C91)</f>
-        <v>15.560606060606059</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="102"/>
+      <c r="A92" s="97"/>
       <c r="B92" s="44"/>
       <c r="C92" s="14">
-        <v>3.5</v>
+        <v>0.43</v>
       </c>
       <c r="D92" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="D92:D96" si="35">E92*$D$98</f>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E92" s="17">
-        <f t="shared" si="36"/>
+      <c r="E92" s="104">
+        <f t="shared" ref="E92:E96" si="36">$C$2</f>
         <v>1500</v>
       </c>
       <c r="F92" s="17">
-        <f t="shared" si="37"/>
-        <v>55.87305699481864</v>
+        <f t="shared" ref="F92:F95" si="37">(D92*C92)/(100-C92)</f>
+        <v>6.6527568544742381</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="102"/>
+      <c r="A93" s="97"/>
       <c r="B93" s="44"/>
       <c r="C93" s="14">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="D93" s="17">
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="104">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
       <c r="F93" s="17">
         <f t="shared" si="37"/>
-        <v>133.95652173913041</v>
+        <v>29.036423841059598</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="102"/>
+      <c r="A94" s="97"/>
       <c r="B94" s="44"/>
-      <c r="C94" s="14">
-        <v>10</v>
-      </c>
-      <c r="D94" s="17">
+      <c r="C94" s="105">
+        <v>8</v>
+      </c>
+      <c r="D94" s="106">
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="107">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="106">
         <f t="shared" si="37"/>
-        <v>171.16666666666666</v>
+        <v>133.95652173913041</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="102"/>
-      <c r="B95" s="62"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14">
-        <v>15</v>
+        <v>10.95</v>
       </c>
       <c r="D95" s="17">
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="104">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
       <c r="F95" s="17">
-        <f t="shared" ref="F95" si="38">(D95*C95)/(100-C95)</f>
-        <v>271.85294117647055</v>
+        <f t="shared" si="37"/>
+        <v>189.42700729927003</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="102"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="14">
+        <v>15</v>
+      </c>
+      <c r="D96" s="17">
+        <f t="shared" si="35"/>
+        <v>1540.4999999999998</v>
+      </c>
+      <c r="E96" s="104">
+        <f t="shared" si="36"/>
+        <v>1500</v>
+      </c>
+      <c r="F96" s="17">
+        <f t="shared" ref="F96" si="38">(D96*C96)/(100-C96)</f>
+        <v>271.85294117647055</v>
+      </c>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="102"/>
+      <c r="A97" s="97"/>
       <c r="B97" s="44"/>
-      <c r="C97" s="36" t="s">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="97"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D98" s="15">
         <v>1.0269999999999999</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="37">
+      <c r="E98" s="15"/>
+      <c r="F98" s="37">
         <v>1.04</v>
       </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15">
-        <f>C2*D97</f>
+      <c r="G98" s="37"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15">
+        <f>C2*D98</f>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E99" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100" s="61">
-        <v>21</v>
-      </c>
-      <c r="C100" s="42" t="e">
-        <f t="shared" ref="C100" si="39">(F100/(D100+F100))*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="43">
-        <f t="shared" ref="D100" si="40">$D$97*E100</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="99"/>
-      <c r="B101" s="60">
-        <v>22</v>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="61">
+        <v>21</v>
       </c>
       <c r="C101" s="42" t="e">
-        <f>(F101/(D101+F101))*100</f>
+        <f t="shared" ref="C101" si="39">(F101/(D101+F101))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D101" s="43">
-        <f>$D$97*E101</f>
+        <f t="shared" ref="D101" si="40">$D$98*E101</f>
         <v>0</v>
       </c>
       <c r="E101" s="43"/>
       <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
-      <c r="B102" s="61">
-        <v>23</v>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="101"/>
+      <c r="B102" s="60">
+        <v>22</v>
       </c>
       <c r="C102" s="42" t="e">
-        <f t="shared" ref="C102:C105" si="41">(F102/(D102+F102))*100</f>
+        <f>(F102/(D102+F102))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D102" s="43">
-        <f t="shared" ref="D102:D105" si="42">$D$97*E102</f>
+        <f>$D$98*E102</f>
         <v>0</v>
       </c>
       <c r="E102" s="43"/>
@@ -4231,16 +4265,16 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="99"/>
+      <c r="A103" s="101"/>
       <c r="B103" s="61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C103" s="42" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="C103:C106" si="41">(F103/(D103+F103))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D103" s="43">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="D103:D106" si="42">$D$98*E103</f>
         <v>0</v>
       </c>
       <c r="E103" s="43"/>
@@ -4249,9 +4283,9 @@
       <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="99"/>
+      <c r="A104" s="101"/>
       <c r="B104" s="61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4267,9 +4301,9 @@
       <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="99"/>
+      <c r="A105" s="101"/>
       <c r="B105" s="61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4285,91 +4319,87 @@
       <c r="H105" s="43"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="99" t="s">
+      <c r="A106" s="101"/>
+      <c r="B106" s="61">
+        <v>26</v>
+      </c>
+      <c r="C106" s="42" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="43">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="45">
+      <c r="B108" s="45">
         <v>10</v>
       </c>
-      <c r="C107" s="42">
-        <f>(F107/(D107+F107))*100</f>
+      <c r="C108" s="42">
+        <f>(F108/(D108+F108))*100</f>
         <v>1.0263576350407171</v>
       </c>
-      <c r="D107" s="43">
-        <f>$D$97*E107</f>
+      <c r="D108" s="43">
+        <f>$D$98*E108</f>
         <v>2054</v>
       </c>
-      <c r="E107" s="43">
+      <c r="E108" s="43">
         <v>2000</v>
       </c>
-      <c r="F107" s="43">
+      <c r="F108" s="43">
         <v>21.3</v>
-      </c>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="103"/>
-      <c r="B108" s="46">
-        <v>11</v>
-      </c>
-      <c r="C108" s="42">
-        <f t="shared" ref="C108:C111" si="43">(F108/(D108+F108))*100</f>
-        <v>3.5633092814075318</v>
-      </c>
-      <c r="D108" s="43">
-        <f t="shared" ref="D108:D111" si="44">$D$97*E108</f>
-        <v>1951.2999999999997</v>
-      </c>
-      <c r="E108" s="43">
-        <v>1900</v>
-      </c>
-      <c r="F108" s="43">
-        <v>72.099999999999994</v>
       </c>
       <c r="G108" s="43"/>
       <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="103"/>
+      <c r="A109" s="102"/>
       <c r="B109" s="46">
+        <v>11</v>
+      </c>
+      <c r="C109" s="42">
+        <f t="shared" ref="C109:C112" si="43">(F109/(D109+F109))*100</f>
+        <v>3.5633092814075318</v>
+      </c>
+      <c r="D109" s="43">
+        <f t="shared" ref="D109:D112" si="44">$D$98*E109</f>
+        <v>1951.2999999999997</v>
+      </c>
+      <c r="E109" s="43">
+        <v>1900</v>
+      </c>
+      <c r="F109" s="43">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="102"/>
+      <c r="B110" s="46">
         <v>12</v>
       </c>
-      <c r="C109" s="42">
+      <c r="C110" s="42">
         <f t="shared" si="43"/>
         <v>7.74067974247642</v>
-      </c>
-      <c r="D109" s="43">
-        <f t="shared" si="44"/>
-        <v>1848.6</v>
-      </c>
-      <c r="E109" s="43">
-        <v>1800</v>
-      </c>
-      <c r="F109" s="43">
-        <v>155.1</v>
-      </c>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="103"/>
-      <c r="B110" s="46">
-        <v>13</v>
-      </c>
-      <c r="C110" s="42">
-        <f t="shared" si="43"/>
-        <v>11.512134411947729</v>
       </c>
       <c r="D110" s="43">
         <f t="shared" si="44"/>
@@ -4379,136 +4409,134 @@
         <v>1800</v>
       </c>
       <c r="F110" s="43">
-        <v>240.5</v>
+        <v>155.1</v>
       </c>
       <c r="G110" s="43"/>
       <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="103"/>
+      <c r="A111" s="102"/>
       <c r="B111" s="46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="42">
         <f t="shared" si="43"/>
-        <v>14.950311769290725</v>
+        <v>11.512134411947729</v>
       </c>
       <c r="D111" s="43">
         <f t="shared" si="44"/>
-        <v>1745.8999999999999</v>
+        <v>1848.6</v>
       </c>
       <c r="E111" s="43">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F111" s="43">
-        <v>306.89999999999998</v>
+        <v>240.5</v>
       </c>
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="102"/>
+      <c r="B112" s="46">
+        <v>14</v>
+      </c>
+      <c r="C112" s="42">
+        <f t="shared" si="43"/>
+        <v>14.950311769290725</v>
+      </c>
+      <c r="D112" s="43">
+        <f t="shared" si="44"/>
+        <v>1745.8999999999999</v>
+      </c>
+      <c r="E112" s="43">
+        <v>1700</v>
+      </c>
+      <c r="F112" s="43">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+    </row>
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="44"/>
-      <c r="C113" s="24" t="s">
+      <c r="B114" s="44"/>
+      <c r="C114" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D114" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E114" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F114" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G114" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H113" s="31"/>
-    </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="102"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="D114" s="21" t="e">
-        <f t="shared" ref="D114:D115" si="45">$D$121*((100-C114)/100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E114" s="21" t="e">
-        <f>D114/$D$120</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F114" s="21" t="e">
-        <f>$D$121*((C114*0.3)/100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G114" s="21" t="e">
-        <f>$D$121*((C114*0.7)/100)</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="102"/>
+      <c r="A115" s="97"/>
       <c r="B115" s="44"/>
       <c r="C115" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="D115" s="21" t="e">
+        <f t="shared" ref="D115:D116" si="45">$D$122*((100-C115)/100)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E115" s="21" t="e">
+        <f>D115/$D$121</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F115" s="21" t="e">
+        <f>$D$122*((C115*0.3)/100)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G115" s="21" t="e">
+        <f>$D$122*((C115*0.7)/100)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H115" s="31"/>
+    </row>
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="97"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="23">
         <v>3.75</v>
       </c>
-      <c r="D115" s="21" t="e">
+      <c r="D116" s="21" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E115" s="21" t="e">
-        <f t="shared" ref="E115:E118" si="46">D115/$D$120</f>
+      <c r="E116" s="21" t="e">
+        <f t="shared" ref="E116:E119" si="46">D116/$D$121</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F115" s="21" t="e">
-        <f t="shared" ref="F115:F118" si="47">$D$121*((C115*0.3)/100)</f>
+      <c r="F116" s="21" t="e">
+        <f t="shared" ref="F116:F119" si="47">$D$122*((C116*0.3)/100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G115" s="21" t="e">
-        <f>$D$121*((C115*0.7)/100)</f>
+      <c r="G116" s="21" t="e">
+        <f>$D$122*((C116*0.7)/100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H115" s="31"/>
-    </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="102"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="23">
-        <v>7.5</v>
-      </c>
-      <c r="D116" s="21" t="e">
-        <f>$D$121*((100-C116)/100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E116" s="21" t="e">
-        <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F116" s="21" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G116" s="21" t="e">
-        <f>$D$121*((C116*0.7)/100)</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="102"/>
+      <c r="A117" s="97"/>
       <c r="B117" s="44"/>
       <c r="C117" s="23">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
       <c r="D117" s="21" t="e">
-        <f t="shared" ref="D117:D118" si="48">$D$121*((100-C117)/100)</f>
+        <f>$D$122*((100-C117)/100)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E117" s="21" t="e">
@@ -4520,19 +4548,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G117" s="21" t="e">
-        <f>$D$121*((C117*0.7)/100)</f>
+        <f>$D$122*((C117*0.7)/100)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="102"/>
+      <c r="A118" s="97"/>
       <c r="B118" s="44"/>
       <c r="C118" s="23">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="D118" s="21" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="D118:D119" si="48">$D$122*((100-C118)/100)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E118" s="21" t="e">
@@ -4544,260 +4572,276 @@
         <v>#VALUE!</v>
       </c>
       <c r="G118" s="21" t="e">
-        <f>$D$121*((C118*0.7)/100)</f>
+        <f>$D$122*((C118*0.7)/100)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="102"/>
+      <c r="A119" s="97"/>
       <c r="B119" s="44"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
+      <c r="C119" s="23">
+        <v>15</v>
+      </c>
+      <c r="D119" s="21" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E119" s="21" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F119" s="21" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G119" s="21" t="e">
+        <f>$D$122*((C119*0.7)/100)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="102"/>
+      <c r="A120" s="97"/>
       <c r="B120" s="44"/>
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="31"/>
+    </row>
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="97"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D120" s="39">
+      <c r="D121" s="39">
         <v>1.0269999999999999</v>
       </c>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39">
+      <c r="E121" s="39"/>
+      <c r="F121" s="39">
         <v>1.2450000000000001</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G121" s="18">
         <v>1.1839999999999999</v>
       </c>
-      <c r="H120" s="40"/>
-    </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="102"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18" t="e">
-        <f>C1*D120</f>
+      <c r="H121" s="40"/>
+    </row>
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="97"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18" t="e">
+        <f>C1*D121</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E122" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-    </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="102" t="s">
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="24" t="s">
+      <c r="B124" s="44"/>
+      <c r="C124" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="29"/>
-      <c r="Q123" s="29"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="102"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D124" s="17">
-        <f>E124*$D$130</f>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="29"/>
+      <c r="Q124" s="29"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="97"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D125" s="17">
+        <f>E125*$D$131</f>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E125" s="104">
         <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F124" s="17">
-        <f>(D124*C124)/(100-C124)</f>
-        <v>5.5759398496240609</v>
-      </c>
-      <c r="G124" s="56"/>
-      <c r="H124" s="50"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="102"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="87">
-        <v>3.75</v>
-      </c>
-      <c r="D125" s="17">
-        <f t="shared" ref="D125:D128" si="49">E125*$D$130</f>
+      <c r="F125" s="17">
+        <f>(D125*C125)/(100-C125)</f>
+        <v>2.2270270270270269</v>
+      </c>
+      <c r="G125" s="56"/>
+      <c r="H125" s="50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="97"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D126" s="17">
+        <f t="shared" ref="D126:D129" si="49">E126*$D$131</f>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E125" s="17">
-        <f t="shared" ref="E125:E128" si="50">$C$2</f>
+      <c r="E126" s="104">
+        <f t="shared" ref="E126:E129" si="50">$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F125" s="17">
-        <f t="shared" ref="F125:F128" si="51">(D125*C125)/(100-C125)</f>
-        <v>86.680519480519479</v>
-      </c>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="102"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="87">
-        <v>7.5</v>
-      </c>
-      <c r="D126" s="17">
-        <f t="shared" si="49"/>
-        <v>2224.8000000000002</v>
-      </c>
-      <c r="E126" s="17">
-        <f t="shared" si="50"/>
-        <v>1500</v>
-      </c>
       <c r="F126" s="17">
-        <f t="shared" si="51"/>
-        <v>180.38918918918918</v>
+        <f t="shared" ref="F126:F129" si="51">(D126*C126)/(100-C126)</f>
+        <v>7.8141495233316611</v>
       </c>
       <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
+      <c r="H126" s="50">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="102"/>
+      <c r="A127" s="97"/>
       <c r="B127" s="44"/>
-      <c r="C127" s="87">
-        <v>10</v>
+      <c r="C127" s="86">
+        <v>1.22</v>
       </c>
       <c r="D127" s="17">
         <f t="shared" si="49"/>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="104">
         <f t="shared" si="50"/>
         <v>1500</v>
       </c>
       <c r="F127" s="17">
         <f t="shared" si="51"/>
-        <v>247.2</v>
-      </c>
-      <c r="G127" s="53"/>
-      <c r="H127" s="50"/>
+        <v>27.47778902611865</v>
+      </c>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="102"/>
+      <c r="A128" s="97"/>
       <c r="B128" s="44"/>
-      <c r="C128" s="87">
-        <v>15</v>
+      <c r="C128" s="86">
+        <v>4.28</v>
       </c>
       <c r="D128" s="17">
         <f t="shared" si="49"/>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E128" s="104">
         <f t="shared" si="50"/>
         <v>1500</v>
       </c>
       <c r="F128" s="17">
         <f t="shared" si="51"/>
+        <v>99.479147513581296</v>
+      </c>
+      <c r="G128" s="53"/>
+      <c r="H128" s="50">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="97"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="86">
+        <v>15</v>
+      </c>
+      <c r="D129" s="17">
+        <f t="shared" si="49"/>
+        <v>2224.8000000000002</v>
+      </c>
+      <c r="E129" s="104">
+        <f t="shared" si="50"/>
+        <v>1500</v>
+      </c>
+      <c r="F129" s="17">
+        <f t="shared" si="51"/>
         <v>392.61176470588236</v>
       </c>
-      <c r="G128" s="53"/>
-      <c r="H128" s="50"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="102"/>
-      <c r="B129" s="44"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="50">
+        <v>15</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="102"/>
+      <c r="A130" s="97"/>
       <c r="B130" s="44"/>
-      <c r="C130" s="36" t="s">
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="97"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D130" s="37">
+      <c r="D131" s="37">
         <v>1.4832000000000001</v>
       </c>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37">
+      <c r="E131" s="37"/>
+      <c r="F131" s="37">
         <v>1.2</v>
       </c>
-      <c r="G130" s="54"/>
-      <c r="H130" s="55"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="102"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15">
-        <f>C2*D130</f>
+      <c r="G131" s="54"/>
+      <c r="H131" s="55"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="97"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15">
+        <f>C2*D131</f>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="E132" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="55"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
       <c r="F132" s="15"/>
       <c r="G132" s="55"/>
       <c r="H132" s="55"/>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="B133" s="60">
-        <v>27</v>
-      </c>
-      <c r="C133" s="43" t="e">
-        <f>(F133/(D133+F133))*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D133" s="6">
-        <f>$D$130*E133</f>
-        <v>0</v>
-      </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="49"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
       <c r="G133" s="55"/>
       <c r="H133" s="55"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="99"/>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="101" t="s">
+        <v>108</v>
+      </c>
       <c r="B134" s="60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C134" s="43" t="e">
-        <f t="shared" ref="C134:C137" si="52">(F134/(D134+F134))*100</f>
+        <f>(F134/(D134+F134))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D134" s="6">
-        <f>$D$130*E134</f>
+        <f>$D$131*E134</f>
         <v>0</v>
       </c>
       <c r="E134" s="6"/>
@@ -4806,34 +4850,34 @@
       <c r="H134" s="55"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="99"/>
+      <c r="A135" s="101"/>
       <c r="B135" s="60">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C135" s="43" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="C135:C138" si="52">(F135/(D135+F135))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" ref="D135:D137" si="53">$D$130*E135</f>
-        <v>0</v>
-      </c>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
+        <f>$D$131*E135</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
       <c r="G135" s="55"/>
       <c r="H135" s="55"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="99"/>
+      <c r="A136" s="101"/>
       <c r="B136" s="60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136" s="43" t="e">
         <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="D136:D138" si="53">$D$131*E136</f>
         <v>0</v>
       </c>
       <c r="E136" s="15"/>
@@ -4842,9 +4886,9 @@
       <c r="H136" s="55"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="99"/>
+      <c r="A137" s="101"/>
       <c r="B137" s="60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C137" s="43" t="e">
         <f t="shared" si="52"/>
@@ -4860,260 +4904,262 @@
       <c r="H137" s="55"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
-      <c r="B138" s="49"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
+      <c r="A138" s="101"/>
+      <c r="B138" s="60">
+        <v>31</v>
+      </c>
+      <c r="C138" s="43" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D138" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
       <c r="G138" s="55"/>
       <c r="H138" s="55"/>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="99" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="49"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B139" s="45">
-        <v>0</v>
-      </c>
-      <c r="C139" s="43">
-        <f>(F139/(D139+F139))*100</f>
+      <c r="B140" s="45">
+        <v>0</v>
+      </c>
+      <c r="C140" s="43">
+        <f>(F140/(D140+F140))*100</f>
         <v>0.24548542220129804</v>
       </c>
-      <c r="D139" s="6">
-        <f>$D$130*E139</f>
+      <c r="D140" s="6">
+        <f>$D$131*E140</f>
         <v>2966.4</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E140" s="6">
         <v>2000</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F140" s="6">
         <v>7.3</v>
       </c>
-      <c r="G139" s="56"/>
-      <c r="H139" s="55"/>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="99"/>
-      <c r="B140" s="45">
+      <c r="G140" s="56"/>
+      <c r="H140" s="55"/>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="101"/>
+      <c r="B141" s="45">
         <v>1</v>
       </c>
-      <c r="C140" s="43">
-        <f t="shared" ref="C140" si="54">(F140/(D140+F140))*100</f>
+      <c r="C141" s="43">
+        <f t="shared" ref="C141" si="54">(F141/(D141+F141))*100</f>
         <v>7.5875055383252095</v>
       </c>
-      <c r="D140" s="6">
-        <f>$D$130*E140</f>
+      <c r="D141" s="6">
+        <f>$D$131*E141</f>
         <v>2669.76</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E141" s="6">
         <v>1800</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F141" s="6">
         <v>219.2</v>
       </c>
-      <c r="G140" s="53"/>
-      <c r="H140" s="55"/>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G141" s="51"/>
-      <c r="H141" s="51"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="102" t="s">
+      <c r="G141" s="53"/>
+      <c r="H141" s="55"/>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="51"/>
+      <c r="H142" s="51"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B142" s="44"/>
-      <c r="C142" s="24" t="s">
+      <c r="B143" s="44"/>
+      <c r="C143" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E143" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F143" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G142" s="52"/>
-      <c r="H142" s="51"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="102"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D143" s="17">
-        <f>E143*$D$149</f>
+      <c r="G143" s="52"/>
+      <c r="H143" s="51"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="97"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D144" s="17">
+        <f>E144*$D$150</f>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E143" s="17">
+      <c r="E144" s="104">
         <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F143" s="17">
-        <f>(D143*C143)/(100-C143)</f>
-        <v>4.9830827067669166</v>
-      </c>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="102"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="87">
-        <v>2</v>
-      </c>
-      <c r="D144" s="17">
-        <f t="shared" ref="D144:D147" si="55">E144*$D$149</f>
-        <v>1988.2499999999998</v>
-      </c>
-      <c r="E144" s="17">
-        <f t="shared" ref="E144:E147" si="56">$C$2</f>
-        <v>1500</v>
-      </c>
       <c r="F144" s="17">
-        <f t="shared" ref="F144:F147" si="57">(D144*C144)/(100-C144)</f>
-        <v>40.576530612244895</v>
+        <f>(D144*C144)/(100-C144)</f>
+        <v>1.9902402402402399</v>
       </c>
       <c r="G144" s="50"/>
       <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="102"/>
+      <c r="A145" s="97"/>
       <c r="B145" s="44"/>
-      <c r="C145" s="87">
-        <v>7.5</v>
+      <c r="C145" s="86">
+        <v>0.35</v>
       </c>
       <c r="D145" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="D145:D148" si="55">E145*$D$150</f>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E145" s="17">
-        <f t="shared" si="56"/>
+      <c r="E145" s="104">
+        <f t="shared" ref="E145:E148" si="56">$C$2</f>
         <v>1500</v>
       </c>
       <c r="F145" s="17">
-        <f t="shared" si="57"/>
-        <v>161.20945945945945</v>
+        <f t="shared" ref="F145:F148" si="57">(D145*C145)/(100-C145)</f>
+        <v>6.9833166081284483</v>
       </c>
       <c r="G145" s="50"/>
       <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="102"/>
+      <c r="A146" s="97"/>
       <c r="B146" s="44"/>
-      <c r="C146" s="87">
-        <v>10</v>
+      <c r="C146" s="86">
+        <v>1.22</v>
       </c>
       <c r="D146" s="17">
         <f t="shared" si="55"/>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E146" s="17">
+      <c r="E146" s="104">
         <f t="shared" si="56"/>
         <v>1500</v>
       </c>
       <c r="F146" s="17">
         <f t="shared" si="57"/>
-        <v>220.91666666666663</v>
-      </c>
-      <c r="G146" s="53"/>
+        <v>24.55623608017817</v>
+      </c>
+      <c r="G146" s="50"/>
       <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="102"/>
+      <c r="A147" s="97"/>
       <c r="B147" s="44"/>
-      <c r="C147" s="87">
-        <v>15</v>
+      <c r="C147" s="86">
+        <v>4.28</v>
       </c>
       <c r="D147" s="17">
         <f t="shared" si="55"/>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E147" s="17">
+      <c r="E147" s="104">
         <f t="shared" si="56"/>
         <v>1500</v>
       </c>
       <c r="F147" s="17">
         <f t="shared" si="57"/>
-        <v>350.86764705882348</v>
+        <v>88.902110321771829</v>
       </c>
       <c r="G147" s="53"/>
       <c r="H147" s="50"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="102"/>
+      <c r="A148" s="97"/>
       <c r="B148" s="44"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
+      <c r="C148" s="86">
+        <v>15</v>
+      </c>
+      <c r="D148" s="17">
+        <f t="shared" si="55"/>
+        <v>1988.2499999999998</v>
+      </c>
+      <c r="E148" s="104">
+        <f t="shared" si="56"/>
+        <v>1500</v>
+      </c>
+      <c r="F148" s="17">
+        <f t="shared" si="57"/>
+        <v>350.86764705882348</v>
+      </c>
+      <c r="G148" s="53"/>
+      <c r="H148" s="50"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="102"/>
+      <c r="A149" s="97"/>
       <c r="B149" s="44"/>
-      <c r="C149" s="36" t="s">
+      <c r="G149" s="51"/>
+      <c r="H149" s="51"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="97"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="37">
+      <c r="D150" s="37">
         <v>1.3254999999999999</v>
       </c>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37">
+      <c r="E150" s="37"/>
+      <c r="F150" s="37">
         <v>1.2</v>
       </c>
-      <c r="G149" s="54"/>
-      <c r="H149" s="55"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="102"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15">
-        <f>C2*D149</f>
+      <c r="G150" s="54"/>
+      <c r="H150" s="55"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="97"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15">
+        <f>C2*D150</f>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E151" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F150" s="15"/>
-      <c r="G150" s="55"/>
-      <c r="H150" s="55"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G151" s="51"/>
-      <c r="H151" s="51"/>
-    </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="B152" s="58">
-        <v>32</v>
-      </c>
-      <c r="C152" s="17" t="e">
-        <f>(F152/(D152+F152))*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D152" s="4">
-        <f>$D$149*E152</f>
-        <v>0</v>
-      </c>
+      <c r="F151" s="15"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="55"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G152" s="51"/>
       <c r="H152" s="51"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="98"/>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="98" t="s">
+        <v>108</v>
+      </c>
       <c r="B153" s="58">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C153" s="17" t="e">
-        <f t="shared" ref="C153:C156" si="58">(F153/(D153+F153))*100</f>
+        <f>(F153/(D153+F153))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D153" s="4">
-        <f>$D$149*E153</f>
+        <f>$D$150*E153</f>
         <v>0</v>
       </c>
       <c r="G153" s="51"/>
@@ -5122,14 +5168,14 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="98"/>
       <c r="B154" s="58">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C154" s="17" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="C154:C157" si="58">(F154/(D154+F154))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" ref="D154:D156" si="59">$D$149*E154</f>
+        <f>$D$150*E154</f>
         <v>0</v>
       </c>
       <c r="G154" s="51"/>
@@ -5138,14 +5184,14 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="98"/>
       <c r="B155" s="58">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C155" s="17" t="e">
         <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D155" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="D155:D157" si="59">$D$150*E155</f>
         <v>0</v>
       </c>
       <c r="G155" s="51"/>
@@ -5154,7 +5200,7 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="98"/>
       <c r="B156" s="58">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C156" s="17" t="e">
         <f t="shared" si="58"/>
@@ -5168,302 +5214,302 @@
       <c r="H156" s="51"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="98"/>
+      <c r="B157" s="58">
+        <v>36</v>
+      </c>
+      <c r="C157" s="17" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D157" s="4">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
       <c r="G157" s="51"/>
       <c r="H157" s="51"/>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="98" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="51"/>
+      <c r="H158" s="51"/>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B158" s="47">
+      <c r="B159" s="47">
         <v>3</v>
       </c>
-      <c r="C158" s="17">
-        <f>(F158/(D158+F158))*100</f>
+      <c r="C159" s="17">
+        <f>(F159/(D159+F159))*100</f>
         <v>0.29336542801263726</v>
       </c>
-      <c r="D158" s="4">
-        <f>$D$149*E158</f>
+      <c r="D159" s="4">
+        <f>$D$150*E159</f>
         <v>2651</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E159" s="4">
         <v>2000</v>
       </c>
-      <c r="F158" s="4">
+      <c r="F159" s="4">
         <v>7.8</v>
       </c>
-      <c r="G158" s="56"/>
-      <c r="H158" s="51"/>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="98"/>
-      <c r="B159" s="47">
+      <c r="G159" s="56"/>
+      <c r="H159" s="51"/>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="98"/>
+      <c r="B160" s="47">
         <v>4</v>
       </c>
-      <c r="C159" s="17">
-        <f t="shared" ref="C159" si="60">(F159/(D159+F159))*100</f>
+      <c r="C160" s="17">
+        <f t="shared" ref="C160" si="60">(F160/(D160+F160))*100</f>
         <v>7.6056228943190192</v>
       </c>
-      <c r="D159" s="4">
-        <f>$D$149*E159</f>
+      <c r="D160" s="4">
+        <f>$D$150*E160</f>
         <v>2385.8999999999996</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E160" s="4">
         <v>1800</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F160" s="4">
         <v>196.4</v>
       </c>
-      <c r="G159" s="53"/>
-      <c r="H159" s="51"/>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G160" s="51"/>
+      <c r="G160" s="53"/>
       <c r="H160" s="51"/>
     </row>
-    <row r="161" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="102" t="s">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="51"/>
+      <c r="H161" s="51"/>
+    </row>
+    <row r="162" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B161" s="44"/>
-      <c r="C161" s="24" t="s">
+      <c r="B162" s="44"/>
+      <c r="C162" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E162" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F162" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I161" s="29"/>
-      <c r="Q161" s="29"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="102"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="14">
+      <c r="I162" s="29"/>
+      <c r="Q162" s="29"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163" s="97"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="14">
         <v>0.1</v>
       </c>
-      <c r="D162" s="17">
-        <f>E162*$D$170</f>
+      <c r="D163" s="17">
+        <f>E163*$D$171</f>
         <v>1425</v>
       </c>
-      <c r="E162" s="17">
+      <c r="E163" s="104">
         <f>$C$2</f>
         <v>1500</v>
       </c>
-      <c r="F162" s="17">
-        <f>(D162*C162)/(100-C162)</f>
+      <c r="F163" s="17">
+        <f>(D163*C163)/(100-C163)</f>
         <v>1.4264264264264264</v>
-      </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="102"/>
-      <c r="B163" s="44"/>
-      <c r="C163" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="D163" s="17">
-        <f t="shared" ref="D163:D168" si="61">E163*$D$170</f>
-        <v>1425</v>
-      </c>
-      <c r="E163" s="17">
-        <f t="shared" ref="E163:E168" si="62">$C$2</f>
-        <v>1500</v>
-      </c>
-      <c r="F163" s="17">
-        <f t="shared" ref="F163:F166" si="63">(D163*C163)/(100-C163)</f>
-        <v>8.6016096579476855</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="102"/>
+      <c r="A164" s="97"/>
       <c r="B164" s="44"/>
       <c r="C164" s="14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D164" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="D164:D169" si="61">E164*$D$171</f>
         <v>1425</v>
       </c>
-      <c r="E164" s="17">
-        <f t="shared" si="62"/>
+      <c r="E164" s="104">
+        <f t="shared" ref="E164:E169" si="62">$C$2</f>
         <v>1500</v>
       </c>
       <c r="F164" s="17">
-        <f t="shared" si="63"/>
-        <v>14.393939393939394</v>
+        <f t="shared" ref="F164:F167" si="63">(D164*C164)/(100-C164)</f>
+        <v>8.6016096579476855</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="102"/>
+      <c r="A165" s="97"/>
       <c r="B165" s="44"/>
       <c r="C165" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="17">
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E165" s="17">
+      <c r="E165" s="104">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
       <c r="F165" s="17">
         <f t="shared" si="63"/>
-        <v>29.081632653061224</v>
+        <v>14.393939393939394</v>
       </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="102"/>
+      <c r="A166" s="97"/>
       <c r="B166" s="44"/>
       <c r="C166" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D166" s="17">
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E166" s="17">
+      <c r="E166" s="104">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
       <c r="F166" s="17">
         <f t="shared" si="63"/>
-        <v>75</v>
+        <v>29.081632653061224</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="102"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="14">
-        <v>10</v>
-      </c>
-      <c r="D167" s="17">
+      <c r="A167" s="97"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="105">
+        <v>5</v>
+      </c>
+      <c r="D167" s="106">
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E167" s="17">
+      <c r="E167" s="107">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
-      <c r="F167" s="17">
-        <f t="shared" ref="F167:F168" si="64">(D167*C167)/(100-C167)</f>
-        <v>158.33333333333334</v>
+      <c r="F167" s="106">
+        <f t="shared" si="63"/>
+        <v>75</v>
       </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="102"/>
+      <c r="A168" s="97"/>
       <c r="B168" s="62"/>
       <c r="C168" s="14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D168" s="17">
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E168" s="17">
+      <c r="E168" s="104">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
       <c r="F168" s="17">
+        <f t="shared" ref="F168:F169" si="64">(D168*C168)/(100-C168)</f>
+        <v>158.33333333333334</v>
+      </c>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A169" s="97"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="14">
+        <v>15</v>
+      </c>
+      <c r="D169" s="17">
+        <f t="shared" si="61"/>
+        <v>1425</v>
+      </c>
+      <c r="E169" s="104">
+        <f t="shared" si="62"/>
+        <v>1500</v>
+      </c>
+      <c r="F169" s="17">
         <f t="shared" si="64"/>
         <v>251.47058823529412</v>
       </c>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="102"/>
-      <c r="B169" s="44"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="102"/>
+      <c r="A170" s="97"/>
       <c r="B170" s="44"/>
-      <c r="C170" s="36" t="s">
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A171" s="97"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D170" s="37">
+      <c r="D171" s="37">
         <v>0.95</v>
       </c>
-      <c r="E170" s="37"/>
-      <c r="F170" s="37">
+      <c r="E171" s="37"/>
+      <c r="F171" s="37">
         <v>1.07</v>
       </c>
-      <c r="G170" s="37"/>
-      <c r="H170" s="15"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="102"/>
-      <c r="B171" s="44"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15">
-        <f>C2*D170</f>
+      <c r="G171" s="37"/>
+      <c r="H171" s="15"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A172" s="97"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15">
+        <f>C2*D171</f>
         <v>1425</v>
       </c>
-      <c r="E171" s="15" t="s">
+      <c r="E172" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A173" s="100" t="s">
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A174" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B173" s="88">
+      <c r="B174" s="87">
         <v>37</v>
       </c>
-      <c r="C173" s="42" t="e">
-        <f>(F173/(D173+F173))*100</f>
+      <c r="C174" s="42" t="e">
+        <f>(F174/(D174+F174))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D173" s="33">
-        <f t="shared" ref="D173:D179" si="65">$D$170*E173</f>
-        <v>0</v>
-      </c>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="100"/>
-      <c r="B174" s="88">
-        <v>38</v>
-      </c>
-      <c r="C174" s="42" t="e">
-        <f t="shared" ref="C174" si="66">(F174/(D174+F174))*100</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D174" s="33">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="D174:D180" si="65">$D$171*E174</f>
         <v>0</v>
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="33"/>
     </row>
-    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="100"/>
-      <c r="B175" s="60">
-        <v>39</v>
+      <c r="B175" s="87">
+        <v>38</v>
       </c>
       <c r="C175" s="42" t="e">
-        <f>(F175/(D175+F175))*100</f>
+        <f t="shared" ref="C175" si="66">(F175/(D175+F175))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D175" s="33">
@@ -5473,13 +5519,13 @@
       <c r="E175" s="33"/>
       <c r="F175" s="33"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="100"/>
       <c r="B176" s="60">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C176" s="42" t="e">
-        <f t="shared" ref="C176:C179" si="67">(F176/(D176+F176))*100</f>
+        <f>(F176/(D176+F176))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D176" s="33">
@@ -5492,10 +5538,10 @@
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="100"/>
       <c r="B177" s="60">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C177" s="42" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="C177:C180" si="67">(F177/(D177+F177))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D177" s="33">
@@ -5508,7 +5554,7 @@
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="100"/>
       <c r="B178" s="60">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C178" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5524,7 +5570,7 @@
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="100"/>
       <c r="B179" s="60">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C179" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5537,49 +5583,42 @@
       <c r="E179" s="33"/>
       <c r="F179" s="33"/>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="100" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="100"/>
+      <c r="B180" s="60">
+        <v>43</v>
+      </c>
+      <c r="C180" s="42" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D180" s="33">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B181" s="45">
+      <c r="B182" s="45">
         <v>6</v>
       </c>
-      <c r="C181" s="42">
-        <f>(F181/(D181+F181))*100</f>
+      <c r="C182" s="42">
+        <f>(F182/(D182+F182))*100</f>
         <v>0.61202071454726159</v>
       </c>
-      <c r="D181" s="33">
-        <f>$D$170*E181</f>
+      <c r="D182" s="33">
+        <f>$D$171*E182</f>
         <v>1900</v>
       </c>
-      <c r="E181" s="33">
+      <c r="E182" s="33">
         <v>2000</v>
       </c>
-      <c r="F181" s="33">
+      <c r="F182" s="33">
         <v>11.7</v>
-      </c>
-      <c r="G181" s="56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="100"/>
-      <c r="B182" s="45">
-        <v>7</v>
-      </c>
-      <c r="C182" s="42">
-        <f t="shared" ref="C182:C185" si="68">(F182/(D182+F182))*100</f>
-        <v>4.9399620813145146</v>
-      </c>
-      <c r="D182" s="33">
-        <f>$D$170*E182</f>
-        <v>1805</v>
-      </c>
-      <c r="E182" s="33">
-        <v>1900</v>
-      </c>
-      <c r="F182" s="33">
-        <v>93.8</v>
       </c>
       <c r="G182" s="56" t="s">
         <v>99</v>
@@ -5588,21 +5627,21 @@
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="100"/>
       <c r="B183" s="45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" s="42">
-        <f t="shared" si="68"/>
-        <v>8.0002152041749603</v>
+        <f t="shared" ref="C183:C186" si="68">(F183/(D183+F183))*100</f>
+        <v>4.9399620813145146</v>
       </c>
       <c r="D183" s="33">
-        <f>$D$170*E183</f>
-        <v>1710</v>
+        <f>$D$171*E183</f>
+        <v>1805</v>
       </c>
       <c r="E183" s="33">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F183" s="33">
-        <v>148.69999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="G183" s="56" t="s">
         <v>99</v>
@@ -5611,21 +5650,21 @@
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="100"/>
       <c r="B184" s="45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C184" s="42">
         <f t="shared" si="68"/>
-        <v>11.43108717045631</v>
+        <v>8.0002152041749603</v>
       </c>
       <c r="D184" s="33">
-        <f>$D$170*E184</f>
+        <f>$D$171*E184</f>
         <v>1710</v>
       </c>
       <c r="E184" s="33">
         <v>1800</v>
       </c>
       <c r="F184" s="33">
-        <v>220.7</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="G184" s="56" t="s">
         <v>99</v>
@@ -5634,52 +5673,75 @@
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="100"/>
       <c r="B185" s="45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C185" s="42">
         <f t="shared" si="68"/>
-        <v>15.165204601565371</v>
+        <v>11.43108717045631</v>
       </c>
       <c r="D185" s="33">
-        <f>$D$170*E185</f>
-        <v>1615</v>
+        <f>$D$171*E185</f>
+        <v>1710</v>
       </c>
       <c r="E185" s="33">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F185" s="33">
-        <v>288.7</v>
+        <v>220.7</v>
       </c>
       <c r="G185" s="56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="100"/>
+      <c r="B186" s="45">
+        <v>10</v>
+      </c>
+      <c r="C186" s="42">
+        <f t="shared" si="68"/>
+        <v>15.165204601565371</v>
+      </c>
+      <c r="D186" s="33">
+        <f>$D$171*E186</f>
+        <v>1615</v>
+      </c>
+      <c r="E186" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F186" s="33">
+        <v>288.7</v>
+      </c>
+      <c r="G186" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A173:A179"/>
-    <mergeCell ref="A181:A185"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="A142:A150"/>
-    <mergeCell ref="A161:A171"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A174:A180"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A124:A132"/>
+    <mergeCell ref="A143:A151"/>
+    <mergeCell ref="A162:A172"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/9_characterizationRheology/solutionsNrheology.xlsx
+++ b/9_characterizationRheology/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/9_characterizationRheology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E152B6E-5594-44B5-9697-B6BCC05530F0}"/>
+  <xr:revisionPtr revIDLastSave="648" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23A63ADD-B09D-4662-BABF-3752141F6DFC}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="-15" windowWidth="21555" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="21555" windowHeight="14865" activeTab="1" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -772,24 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -806,6 +788,28 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1456,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE191C-5F93-480D-978C-2A064FA643C9}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,10 +1693,10 @@
       <c r="B8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="8">
@@ -1780,10 +1784,10 @@
       <c r="B12" s="7">
         <v>5000</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="8">
@@ -1846,10 +1850,10 @@
       <c r="B14" s="7">
         <v>250000</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="8">
@@ -1879,10 +1883,10 @@
       <c r="B15" s="7">
         <v>1000000</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="8">
@@ -1912,10 +1916,10 @@
       <c r="B16" s="7">
         <v>1000000</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8">
@@ -1945,10 +1949,10 @@
       <c r="B17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8">
@@ -2048,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A135" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2107,7 +2111,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="72"/>
@@ -2146,7 +2150,7 @@
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="72"/>
       <c r="C4" s="84">
         <v>0</v>
@@ -2155,7 +2159,7 @@
         <f>E4*$D$13</f>
         <v>1684.5</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="97">
         <f>$C$2</f>
         <v>1500</v>
       </c>
@@ -2190,7 +2194,7 @@
       <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="72"/>
       <c r="C5" s="84">
         <v>1E-3</v>
@@ -2199,7 +2203,7 @@
         <f>E5*$D$13</f>
         <v>1684.5</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="97">
         <f>$C$2</f>
         <v>1500</v>
       </c>
@@ -2222,7 +2226,7 @@
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="72"/>
       <c r="C6" s="84">
         <v>0.01</v>
@@ -2231,7 +2235,7 @@
         <f t="shared" ref="D6:D11" si="0">E6*$D$13</f>
         <v>1684.5</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="97">
         <f t="shared" ref="E6:E11" si="1">$C$2</f>
         <v>1500</v>
       </c>
@@ -2256,7 +2260,7 @@
       <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="72"/>
       <c r="C7" s="84">
         <v>0.1</v>
@@ -2265,7 +2269,7 @@
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="97">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
@@ -2290,24 +2294,24 @@
       <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="110">
+      <c r="C8" s="104">
         <v>0.25</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="102">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="103">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="104">
         <f t="shared" si="2"/>
         <v>4.2218045112781954</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="104">
         <v>11.32</v>
       </c>
       <c r="H8" s="78"/>
@@ -2332,7 +2336,7 @@
       <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="72"/>
       <c r="C9" s="84">
         <v>0.5</v>
@@ -2341,7 +2345,7 @@
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E9" s="103">
+      <c r="E9" s="97">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
@@ -2374,7 +2378,7 @@
       <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="72"/>
       <c r="C10" s="84">
         <v>0.75</v>
@@ -2383,7 +2387,7 @@
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="97">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
@@ -2416,7 +2420,7 @@
       <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="72"/>
       <c r="C11" s="84">
         <v>1</v>
@@ -2425,7 +2429,7 @@
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E11" s="103">
+      <c r="E11" s="97">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
@@ -2458,7 +2462,7 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="72"/>
       <c r="C12" s="75"/>
       <c r="D12" s="76"/>
@@ -2482,7 +2486,7 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="72"/>
       <c r="C13" s="79" t="s">
         <v>35</v>
@@ -2502,7 +2506,7 @@
       <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="72"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81">
@@ -2562,7 +2566,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="106" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="85">
@@ -2591,7 +2595,7 @@
       <c r="O16" s="89"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="85">
         <v>1</v>
       </c>
@@ -2626,7 +2630,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="85">
         <v>2</v>
       </c>
@@ -2661,7 +2665,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="85">
         <v>3</v>
       </c>
@@ -2696,7 +2700,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="85">
         <v>4</v>
       </c>
@@ -2727,7 +2731,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="85">
         <v>5</v>
       </c>
@@ -2758,7 +2762,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="85">
         <v>6</v>
       </c>
@@ -2798,7 +2802,7 @@
       <c r="K24"/>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="44"/>
@@ -2818,7 +2822,7 @@
       <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="44"/>
       <c r="C26" s="14">
         <v>0.1</v>
@@ -2827,7 +2831,7 @@
         <f>E26*$D$35</f>
         <v>1332</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E26" s="98">
         <f>$C$2</f>
         <v>1500</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="44"/>
       <c r="C27" s="14">
         <v>0.34</v>
@@ -2847,7 +2851,7 @@
         <f t="shared" ref="D27:D32" si="6">E27*$D$35</f>
         <v>1332</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="98">
         <f t="shared" ref="E27:E32" si="7">$C$2</f>
         <v>1500</v>
       </c>
@@ -2858,7 +2862,7 @@
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="44"/>
       <c r="C28" s="14">
         <v>1.22</v>
@@ -2867,7 +2871,7 @@
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="98">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -2878,7 +2882,7 @@
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="44"/>
       <c r="C29" s="14">
         <v>4.28</v>
@@ -2887,7 +2891,7 @@
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="98">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -2898,27 +2902,27 @@
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="105">
+      <c r="C30" s="99">
         <v>15</v>
       </c>
-      <c r="D30" s="106">
+      <c r="D30" s="100">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="101">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="F30" s="106">
+      <c r="F30" s="100">
         <f>(D30*C30)/(100-C30)</f>
         <v>235.05882352941177</v>
       </c>
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="62"/>
       <c r="C31" s="14">
         <v>21.21</v>
@@ -2927,7 +2931,7 @@
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="98">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -2938,7 +2942,7 @@
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="62"/>
       <c r="C32" s="14">
         <v>30</v>
@@ -2947,7 +2951,7 @@
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E32" s="104">
+      <c r="E32" s="98">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -2958,7 +2962,7 @@
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="62"/>
       <c r="C33" s="14"/>
       <c r="D33" s="17"/>
@@ -2967,11 +2971,11 @@
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="44"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="44"/>
       <c r="C35" s="36" t="s">
         <v>35</v>
@@ -3002,7 +3006,7 @@
       <c r="B37" s="34"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="106" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="34">
@@ -3018,7 +3022,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="34">
         <v>8</v>
       </c>
@@ -3032,7 +3036,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="58">
         <v>9</v>
       </c>
@@ -3050,7 +3054,7 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="58">
         <v>10</v>
       </c>
@@ -3068,7 +3072,7 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="58">
         <v>11</v>
       </c>
@@ -3086,7 +3090,7 @@
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="98"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="58">
         <v>12</v>
       </c>
@@ -3104,7 +3108,7 @@
       <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="58">
         <v>13</v>
       </c>
@@ -3126,7 +3130,7 @@
       <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="106" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="47">
@@ -3150,7 +3154,7 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="47">
         <v>1</v>
       </c>
@@ -3172,7 +3176,7 @@
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="47">
         <v>2</v>
       </c>
@@ -3194,7 +3198,7 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="98"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="47">
         <v>3</v>
       </c>
@@ -3216,7 +3220,7 @@
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="98"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="47">
         <v>4</v>
       </c>
@@ -3242,7 +3246,7 @@
       <c r="B51" s="34"/>
     </row>
     <row r="52" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="106" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="47">
@@ -3266,7 +3270,7 @@
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="98"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="47">
         <v>1</v>
       </c>
@@ -3288,7 +3292,7 @@
       <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="98"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="47">
         <v>2</v>
       </c>
@@ -3310,7 +3314,7 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="98"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="47">
         <v>3</v>
       </c>
@@ -3332,7 +3336,7 @@
       <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="47">
         <v>4</v>
       </c>
@@ -3358,7 +3362,7 @@
       <c r="B57" s="35"/>
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="44"/>
@@ -3384,7 +3388,7 @@
       <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="44"/>
       <c r="C59" s="14">
         <v>0.1</v>
@@ -3393,7 +3397,7 @@
         <f>E59*$D$67</f>
         <v>999</v>
       </c>
-      <c r="E59" s="104">
+      <c r="E59" s="98">
         <f>$C$2*0.75</f>
         <v>1125</v>
       </c>
@@ -3401,7 +3405,7 @@
         <f>G59*$F$67</f>
         <v>356.25</v>
       </c>
-      <c r="G59" s="104">
+      <c r="G59" s="98">
         <f>$C$2*0.25</f>
         <v>375</v>
       </c>
@@ -3411,7 +3415,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="97"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="44"/>
       <c r="C60" s="14">
         <v>0.34</v>
@@ -3420,7 +3424,7 @@
         <f t="shared" ref="D60:D65" si="17">E60*$D$67</f>
         <v>999</v>
       </c>
-      <c r="E60" s="104">
+      <c r="E60" s="98">
         <f t="shared" ref="E60:E65" si="18">$C$2*0.75</f>
         <v>1125</v>
       </c>
@@ -3428,7 +3432,7 @@
         <f t="shared" ref="F60:F65" si="19">G60*$F$67</f>
         <v>356.25</v>
       </c>
-      <c r="G60" s="104">
+      <c r="G60" s="98">
         <f t="shared" ref="G60:G65" si="20">$C$2*0.25</f>
         <v>375</v>
       </c>
@@ -3438,7 +3442,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="44"/>
       <c r="C61" s="14">
         <v>1.224</v>
@@ -3447,7 +3451,7 @@
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E61" s="104">
+      <c r="E61" s="98">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
@@ -3455,7 +3459,7 @@
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G61" s="104">
+      <c r="G61" s="98">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
@@ -3465,7 +3469,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="97"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="44"/>
       <c r="C62" s="14">
         <v>4.28</v>
@@ -3474,7 +3478,7 @@
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E62" s="104">
+      <c r="E62" s="98">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
@@ -3482,7 +3486,7 @@
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G62" s="104">
+      <c r="G62" s="98">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
@@ -3492,34 +3496,34 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="97"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="44"/>
-      <c r="C63" s="105">
+      <c r="C63" s="99">
         <v>15</v>
       </c>
-      <c r="D63" s="106">
+      <c r="D63" s="100">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E63" s="107">
+      <c r="E63" s="101">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
-      <c r="F63" s="106">
+      <c r="F63" s="100">
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G63" s="107">
+      <c r="G63" s="101">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
-      <c r="H63" s="106">
+      <c r="H63" s="100">
         <f t="shared" si="21"/>
         <v>239.16176470588235</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="97"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="62"/>
       <c r="C64" s="14">
         <v>19.36</v>
@@ -3528,7 +3532,7 @@
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E64" s="104">
+      <c r="E64" s="98">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
@@ -3536,7 +3540,7 @@
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G64" s="104">
+      <c r="G64" s="98">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
@@ -3546,7 +3550,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="62"/>
       <c r="C65" s="14">
         <v>25</v>
@@ -3555,7 +3559,7 @@
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E65" s="104">
+      <c r="E65" s="98">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
@@ -3563,7 +3567,7 @@
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G65" s="104">
+      <c r="G65" s="98">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
@@ -3573,11 +3577,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="44"/>
       <c r="C67" s="36" t="s">
         <v>35</v>
@@ -3610,7 +3614,7 @@
       <c r="H68" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="98" t="s">
+      <c r="A70" s="106" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="87">
@@ -3633,7 +3637,7 @@
       <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="87">
         <v>15</v>
       </c>
@@ -3654,7 +3658,7 @@
       <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="58">
         <v>16</v>
       </c>
@@ -3675,7 +3679,7 @@
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="59">
         <v>17</v>
       </c>
@@ -3696,7 +3700,7 @@
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="98"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="59">
         <v>18</v>
       </c>
@@ -3717,7 +3721,7 @@
       <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="98"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="59">
         <v>19</v>
       </c>
@@ -3738,7 +3742,7 @@
       <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="98"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="59">
         <v>20</v>
       </c>
@@ -3759,7 +3763,7 @@
       <c r="H76" s="17"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="98" t="s">
+      <c r="A78" s="106" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="47">
@@ -3788,7 +3792,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="99"/>
+      <c r="A79" s="107"/>
       <c r="B79" s="48">
         <v>6</v>
       </c>
@@ -3815,7 +3819,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="99"/>
+      <c r="A80" s="107"/>
       <c r="B80" s="48">
         <v>7</v>
       </c>
@@ -3842,7 +3846,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="99"/>
+      <c r="A81" s="107"/>
       <c r="B81" s="48">
         <v>8</v>
       </c>
@@ -3869,7 +3873,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
+      <c r="A82" s="107"/>
       <c r="B82" s="48">
         <v>9</v>
       </c>
@@ -3897,7 +3901,7 @@
     </row>
     <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="98" t="s">
+      <c r="A84" s="106" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="47">
@@ -3926,7 +3930,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="99"/>
+      <c r="A85" s="107"/>
       <c r="B85" s="48">
         <v>6</v>
       </c>
@@ -3953,7 +3957,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="99"/>
+      <c r="A86" s="107"/>
       <c r="B86" s="48">
         <v>7</v>
       </c>
@@ -3980,7 +3984,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="99"/>
+      <c r="A87" s="107"/>
       <c r="B87" s="48">
         <v>8</v>
       </c>
@@ -4007,7 +4011,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="99"/>
+      <c r="A88" s="107"/>
       <c r="B88" s="48">
         <v>9</v>
       </c>
@@ -4035,7 +4039,7 @@
     </row>
     <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="97" t="s">
+      <c r="A90" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="44"/>
@@ -4056,7 +4060,7 @@
       <c r="Q90" s="29"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="97"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="44"/>
       <c r="C91" s="14">
         <v>0.1</v>
@@ -4065,7 +4069,7 @@
         <f>E91*$D$98</f>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E91" s="104">
+      <c r="E91" s="98">
         <f>$C$2</f>
         <v>1500</v>
       </c>
@@ -4077,7 +4081,7 @@
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="97"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="44"/>
       <c r="C92" s="14">
         <v>0.43</v>
@@ -4086,7 +4090,7 @@
         <f t="shared" ref="D92:D96" si="35">E92*$D$98</f>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E92" s="104">
+      <c r="E92" s="98">
         <f t="shared" ref="E92:E96" si="36">$C$2</f>
         <v>1500</v>
       </c>
@@ -4098,7 +4102,7 @@
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="97"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="44"/>
       <c r="C93" s="14">
         <v>1.85</v>
@@ -4107,7 +4111,7 @@
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E93" s="104">
+      <c r="E93" s="98">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
@@ -4119,20 +4123,20 @@
       <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="97"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="44"/>
-      <c r="C94" s="105">
+      <c r="C94" s="99">
         <v>8</v>
       </c>
-      <c r="D94" s="106">
+      <c r="D94" s="100">
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E94" s="107">
+      <c r="E94" s="101">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
-      <c r="F94" s="106">
+      <c r="F94" s="100">
         <f t="shared" si="37"/>
         <v>133.95652173913041</v>
       </c>
@@ -4140,7 +4144,7 @@
       <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="97"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="44"/>
       <c r="C95" s="14">
         <v>10.95</v>
@@ -4149,7 +4153,7 @@
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E95" s="104">
+      <c r="E95" s="98">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
@@ -4161,7 +4165,7 @@
       <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="97"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="62"/>
       <c r="C96" s="14">
         <v>15</v>
@@ -4170,7 +4174,7 @@
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E96" s="104">
+      <c r="E96" s="98">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
@@ -4182,11 +4186,11 @@
       <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="97"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="44"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="97"/>
+      <c r="A98" s="108"/>
       <c r="B98" s="44"/>
       <c r="C98" s="36" t="s">
         <v>35</v>
@@ -4227,7 +4231,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="101" t="s">
+      <c r="A101" s="109" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="61">
@@ -4247,7 +4251,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="101"/>
+      <c r="A102" s="109"/>
       <c r="B102" s="60">
         <v>22</v>
       </c>
@@ -4265,7 +4269,7 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="101"/>
+      <c r="A103" s="109"/>
       <c r="B103" s="61">
         <v>23</v>
       </c>
@@ -4283,7 +4287,7 @@
       <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="101"/>
+      <c r="A104" s="109"/>
       <c r="B104" s="61">
         <v>24</v>
       </c>
@@ -4301,7 +4305,7 @@
       <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="101"/>
+      <c r="A105" s="109"/>
       <c r="B105" s="61">
         <v>25</v>
       </c>
@@ -4319,7 +4323,7 @@
       <c r="H105" s="43"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="101"/>
+      <c r="A106" s="109"/>
       <c r="B106" s="61">
         <v>26</v>
       </c>
@@ -4347,7 +4351,7 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="101" t="s">
+      <c r="A108" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B108" s="45">
@@ -4371,7 +4375,7 @@
       <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="102"/>
+      <c r="A109" s="110"/>
       <c r="B109" s="46">
         <v>11</v>
       </c>
@@ -4393,7 +4397,7 @@
       <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="102"/>
+      <c r="A110" s="110"/>
       <c r="B110" s="46">
         <v>12</v>
       </c>
@@ -4415,7 +4419,7 @@
       <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="102"/>
+      <c r="A111" s="110"/>
       <c r="B111" s="46">
         <v>13</v>
       </c>
@@ -4437,7 +4441,7 @@
       <c r="H111" s="43"/>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="102"/>
+      <c r="A112" s="110"/>
       <c r="B112" s="46">
         <v>14</v>
       </c>
@@ -4460,7 +4464,7 @@
     </row>
     <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="97" t="s">
+      <c r="A114" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="44"/>
@@ -4482,7 +4486,7 @@
       <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="97"/>
+      <c r="A115" s="108"/>
       <c r="B115" s="44"/>
       <c r="C115" s="23">
         <v>0.25</v>
@@ -4506,7 +4510,7 @@
       <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="97"/>
+      <c r="A116" s="108"/>
       <c r="B116" s="44"/>
       <c r="C116" s="23">
         <v>3.75</v>
@@ -4530,7 +4534,7 @@
       <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="97"/>
+      <c r="A117" s="108"/>
       <c r="B117" s="44"/>
       <c r="C117" s="23">
         <v>7.5</v>
@@ -4554,7 +4558,7 @@
       <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="97"/>
+      <c r="A118" s="108"/>
       <c r="B118" s="44"/>
       <c r="C118" s="23">
         <v>11.25</v>
@@ -4578,7 +4582,7 @@
       <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="97"/>
+      <c r="A119" s="108"/>
       <c r="B119" s="44"/>
       <c r="C119" s="23">
         <v>15</v>
@@ -4602,7 +4606,7 @@
       <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="97"/>
+      <c r="A120" s="108"/>
       <c r="B120" s="44"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -4612,7 +4616,7 @@
       <c r="H120" s="31"/>
     </row>
     <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="97"/>
+      <c r="A121" s="108"/>
       <c r="B121" s="44"/>
       <c r="C121" s="38" t="s">
         <v>35</v>
@@ -4630,7 +4634,7 @@
       <c r="H121" s="40"/>
     </row>
     <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="97"/>
+      <c r="A122" s="108"/>
       <c r="B122" s="44"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="e">
@@ -4646,7 +4650,7 @@
     </row>
     <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="97" t="s">
+      <c r="A124" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B124" s="44"/>
@@ -4668,7 +4672,7 @@
       <c r="Q124" s="29"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="97"/>
+      <c r="A125" s="108"/>
       <c r="B125" s="44"/>
       <c r="C125" s="14">
         <v>0.1</v>
@@ -4677,7 +4681,7 @@
         <f>E125*$D$131</f>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E125" s="104">
+      <c r="E125" s="98">
         <f>$C$2</f>
         <v>1500</v>
       </c>
@@ -4691,7 +4695,7 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="97"/>
+      <c r="A126" s="108"/>
       <c r="B126" s="44"/>
       <c r="C126" s="86">
         <v>0.35</v>
@@ -4700,7 +4704,7 @@
         <f t="shared" ref="D126:D129" si="49">E126*$D$131</f>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E126" s="104">
+      <c r="E126" s="98">
         <f t="shared" ref="E126:E129" si="50">$C$2</f>
         <v>1500</v>
       </c>
@@ -4714,7 +4718,7 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="97"/>
+      <c r="A127" s="108"/>
       <c r="B127" s="44"/>
       <c r="C127" s="86">
         <v>1.22</v>
@@ -4723,7 +4727,7 @@
         <f t="shared" si="49"/>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E127" s="104">
+      <c r="E127" s="98">
         <f t="shared" si="50"/>
         <v>1500</v>
       </c>
@@ -4737,7 +4741,7 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="97"/>
+      <c r="A128" s="108"/>
       <c r="B128" s="44"/>
       <c r="C128" s="86">
         <v>4.28</v>
@@ -4746,7 +4750,7 @@
         <f t="shared" si="49"/>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E128" s="104">
+      <c r="E128" s="98">
         <f t="shared" si="50"/>
         <v>1500</v>
       </c>
@@ -4760,7 +4764,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="97"/>
+      <c r="A129" s="108"/>
       <c r="B129" s="44"/>
       <c r="C129" s="86">
         <v>15</v>
@@ -4769,7 +4773,7 @@
         <f t="shared" si="49"/>
         <v>2224.8000000000002</v>
       </c>
-      <c r="E129" s="104">
+      <c r="E129" s="98">
         <f t="shared" si="50"/>
         <v>1500</v>
       </c>
@@ -4783,13 +4787,13 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="97"/>
+      <c r="A130" s="108"/>
       <c r="B130" s="44"/>
       <c r="G130" s="51"/>
       <c r="H130" s="51"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="97"/>
+      <c r="A131" s="108"/>
       <c r="B131" s="44"/>
       <c r="C131" s="36" t="s">
         <v>35</v>
@@ -4805,7 +4809,7 @@
       <c r="H131" s="55"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="97"/>
+      <c r="A132" s="108"/>
       <c r="B132" s="44"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15">
@@ -4830,7 +4834,7 @@
       <c r="H133" s="55"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="101" t="s">
+      <c r="A134" s="109" t="s">
         <v>108</v>
       </c>
       <c r="B134" s="60">
@@ -4850,7 +4854,7 @@
       <c r="H134" s="55"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="101"/>
+      <c r="A135" s="109"/>
       <c r="B135" s="60">
         <v>28</v>
       </c>
@@ -4868,7 +4872,7 @@
       <c r="H135" s="55"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="101"/>
+      <c r="A136" s="109"/>
       <c r="B136" s="60">
         <v>29</v>
       </c>
@@ -4886,7 +4890,7 @@
       <c r="H136" s="55"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="101"/>
+      <c r="A137" s="109"/>
       <c r="B137" s="60">
         <v>30</v>
       </c>
@@ -4904,7 +4908,7 @@
       <c r="H137" s="55"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="101"/>
+      <c r="A138" s="109"/>
       <c r="B138" s="60">
         <v>31</v>
       </c>
@@ -4932,7 +4936,7 @@
       <c r="H139" s="55"/>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="101" t="s">
+      <c r="A140" s="109" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="45">
@@ -4956,7 +4960,7 @@
       <c r="H140" s="55"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="101"/>
+      <c r="A141" s="109"/>
       <c r="B141" s="45">
         <v>1</v>
       </c>
@@ -4982,7 +4986,7 @@
       <c r="H142" s="51"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="97" t="s">
+      <c r="A143" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B143" s="44"/>
@@ -5002,7 +5006,7 @@
       <c r="H143" s="51"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="97"/>
+      <c r="A144" s="108"/>
       <c r="B144" s="44"/>
       <c r="C144" s="14">
         <v>0.1</v>
@@ -5011,7 +5015,7 @@
         <f>E144*$D$150</f>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E144" s="104">
+      <c r="E144" s="98">
         <f>$C$2</f>
         <v>1500</v>
       </c>
@@ -5023,7 +5027,7 @@
       <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="97"/>
+      <c r="A145" s="108"/>
       <c r="B145" s="44"/>
       <c r="C145" s="86">
         <v>0.35</v>
@@ -5032,7 +5036,7 @@
         <f t="shared" ref="D145:D148" si="55">E145*$D$150</f>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E145" s="104">
+      <c r="E145" s="98">
         <f t="shared" ref="E145:E148" si="56">$C$2</f>
         <v>1500</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="97"/>
+      <c r="A146" s="108"/>
       <c r="B146" s="44"/>
       <c r="C146" s="86">
         <v>1.22</v>
@@ -5053,7 +5057,7 @@
         <f t="shared" si="55"/>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E146" s="104">
+      <c r="E146" s="98">
         <f t="shared" si="56"/>
         <v>1500</v>
       </c>
@@ -5065,7 +5069,7 @@
       <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="97"/>
+      <c r="A147" s="108"/>
       <c r="B147" s="44"/>
       <c r="C147" s="86">
         <v>4.28</v>
@@ -5074,7 +5078,7 @@
         <f t="shared" si="55"/>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E147" s="104">
+      <c r="E147" s="98">
         <f t="shared" si="56"/>
         <v>1500</v>
       </c>
@@ -5086,7 +5090,7 @@
       <c r="H147" s="50"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="97"/>
+      <c r="A148" s="108"/>
       <c r="B148" s="44"/>
       <c r="C148" s="86">
         <v>15</v>
@@ -5095,7 +5099,7 @@
         <f t="shared" si="55"/>
         <v>1988.2499999999998</v>
       </c>
-      <c r="E148" s="104">
+      <c r="E148" s="98">
         <f t="shared" si="56"/>
         <v>1500</v>
       </c>
@@ -5107,13 +5111,13 @@
       <c r="H148" s="50"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="97"/>
+      <c r="A149" s="108"/>
       <c r="B149" s="44"/>
       <c r="G149" s="51"/>
       <c r="H149" s="51"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="97"/>
+      <c r="A150" s="108"/>
       <c r="B150" s="44"/>
       <c r="C150" s="36" t="s">
         <v>35</v>
@@ -5129,7 +5133,7 @@
       <c r="H150" s="55"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="97"/>
+      <c r="A151" s="108"/>
       <c r="B151" s="44"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15">
@@ -5148,7 +5152,7 @@
       <c r="H152" s="51"/>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="98" t="s">
+      <c r="A153" s="106" t="s">
         <v>108</v>
       </c>
       <c r="B153" s="58">
@@ -5166,7 +5170,7 @@
       <c r="H153" s="51"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="98"/>
+      <c r="A154" s="106"/>
       <c r="B154" s="58">
         <v>33</v>
       </c>
@@ -5182,7 +5186,7 @@
       <c r="H154" s="51"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="98"/>
+      <c r="A155" s="106"/>
       <c r="B155" s="58">
         <v>34</v>
       </c>
@@ -5198,7 +5202,7 @@
       <c r="H155" s="51"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="98"/>
+      <c r="A156" s="106"/>
       <c r="B156" s="58">
         <v>35</v>
       </c>
@@ -5214,7 +5218,7 @@
       <c r="H156" s="51"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="98"/>
+      <c r="A157" s="106"/>
       <c r="B157" s="58">
         <v>36</v>
       </c>
@@ -5234,7 +5238,7 @@
       <c r="H158" s="51"/>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="98" t="s">
+      <c r="A159" s="106" t="s">
         <v>98</v>
       </c>
       <c r="B159" s="47">
@@ -5258,7 +5262,7 @@
       <c r="H159" s="51"/>
     </row>
     <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="98"/>
+      <c r="A160" s="106"/>
       <c r="B160" s="47">
         <v>4</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="H161" s="51"/>
     </row>
     <row r="162" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="97" t="s">
+      <c r="A162" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B162" s="44"/>
@@ -5304,7 +5308,7 @@
       <c r="Q162" s="29"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="97"/>
+      <c r="A163" s="108"/>
       <c r="B163" s="44"/>
       <c r="C163" s="14">
         <v>0.1</v>
@@ -5313,7 +5317,7 @@
         <f>E163*$D$171</f>
         <v>1425</v>
       </c>
-      <c r="E163" s="104">
+      <c r="E163" s="98">
         <f>$C$2</f>
         <v>1500</v>
       </c>
@@ -5325,7 +5329,7 @@
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="97"/>
+      <c r="A164" s="108"/>
       <c r="B164" s="44"/>
       <c r="C164" s="14">
         <v>0.6</v>
@@ -5334,7 +5338,7 @@
         <f t="shared" ref="D164:D169" si="61">E164*$D$171</f>
         <v>1425</v>
       </c>
-      <c r="E164" s="104">
+      <c r="E164" s="98">
         <f t="shared" ref="E164:E169" si="62">$C$2</f>
         <v>1500</v>
       </c>
@@ -5346,7 +5350,7 @@
       <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="97"/>
+      <c r="A165" s="108"/>
       <c r="B165" s="44"/>
       <c r="C165" s="14">
         <v>1</v>
@@ -5355,7 +5359,7 @@
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E165" s="104">
+      <c r="E165" s="98">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
@@ -5367,7 +5371,7 @@
       <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="97"/>
+      <c r="A166" s="108"/>
       <c r="B166" s="44"/>
       <c r="C166" s="14">
         <v>2</v>
@@ -5376,7 +5380,7 @@
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E166" s="104">
+      <c r="E166" s="98">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
@@ -5388,20 +5392,20 @@
       <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="97"/>
+      <c r="A167" s="108"/>
       <c r="B167" s="44"/>
-      <c r="C167" s="105">
+      <c r="C167" s="99">
         <v>5</v>
       </c>
-      <c r="D167" s="106">
+      <c r="D167" s="100">
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E167" s="107">
+      <c r="E167" s="101">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
-      <c r="F167" s="106">
+      <c r="F167" s="100">
         <f t="shared" si="63"/>
         <v>75</v>
       </c>
@@ -5409,7 +5413,7 @@
       <c r="H167" s="17"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="97"/>
+      <c r="A168" s="108"/>
       <c r="B168" s="62"/>
       <c r="C168" s="14">
         <v>10</v>
@@ -5418,7 +5422,7 @@
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E168" s="104">
+      <c r="E168" s="98">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
@@ -5430,7 +5434,7 @@
       <c r="H168" s="17"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="97"/>
+      <c r="A169" s="108"/>
       <c r="B169" s="62"/>
       <c r="C169" s="14">
         <v>15</v>
@@ -5439,7 +5443,7 @@
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E169" s="104">
+      <c r="E169" s="98">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
@@ -5451,11 +5455,11 @@
       <c r="H169" s="17"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="97"/>
+      <c r="A170" s="108"/>
       <c r="B170" s="44"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="97"/>
+      <c r="A171" s="108"/>
       <c r="B171" s="44"/>
       <c r="C171" s="36" t="s">
         <v>35</v>
@@ -5471,7 +5475,7 @@
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A172" s="97"/>
+      <c r="A172" s="108"/>
       <c r="B172" s="44"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15">
@@ -5486,7 +5490,7 @@
       <c r="H172" s="15"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="100" t="s">
+      <c r="A174" s="105" t="s">
         <v>108</v>
       </c>
       <c r="B174" s="87">
@@ -5504,7 +5508,7 @@
       <c r="F174" s="33"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A175" s="100"/>
+      <c r="A175" s="105"/>
       <c r="B175" s="87">
         <v>38</v>
       </c>
@@ -5520,7 +5524,7 @@
       <c r="F175" s="33"/>
     </row>
     <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="100"/>
+      <c r="A176" s="105"/>
       <c r="B176" s="60">
         <v>39</v>
       </c>
@@ -5536,7 +5540,7 @@
       <c r="F176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="100"/>
+      <c r="A177" s="105"/>
       <c r="B177" s="60">
         <v>40</v>
       </c>
@@ -5552,7 +5556,7 @@
       <c r="F177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="100"/>
+      <c r="A178" s="105"/>
       <c r="B178" s="60">
         <v>41</v>
       </c>
@@ -5568,7 +5572,7 @@
       <c r="F178" s="33"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="100"/>
+      <c r="A179" s="105"/>
       <c r="B179" s="60">
         <v>42</v>
       </c>
@@ -5584,7 +5588,7 @@
       <c r="F179" s="33"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="100"/>
+      <c r="A180" s="105"/>
       <c r="B180" s="60">
         <v>43</v>
       </c>
@@ -5600,7 +5604,7 @@
       <c r="F180" s="33"/>
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="100" t="s">
+      <c r="A182" s="105" t="s">
         <v>98</v>
       </c>
       <c r="B182" s="45">
@@ -5625,7 +5629,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="100"/>
+      <c r="A183" s="105"/>
       <c r="B183" s="45">
         <v>7</v>
       </c>
@@ -5648,7 +5652,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="100"/>
+      <c r="A184" s="105"/>
       <c r="B184" s="45">
         <v>8</v>
       </c>
@@ -5671,7 +5675,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="100"/>
+      <c r="A185" s="105"/>
       <c r="B185" s="45">
         <v>9</v>
       </c>
@@ -5694,7 +5698,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="100"/>
+      <c r="A186" s="105"/>
       <c r="B186" s="45">
         <v>10</v>
       </c>
@@ -5719,6 +5723,13 @@
     <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A38:A44"/>
     <mergeCell ref="A174:A180"/>
     <mergeCell ref="A182:A186"/>
     <mergeCell ref="A46:A50"/>
@@ -5735,13 +5746,6 @@
     <mergeCell ref="A153:A157"/>
     <mergeCell ref="A70:A76"/>
     <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/9_characterizationRheology/solutionsNrheology.xlsx
+++ b/9_characterizationRheology/solutionsNrheology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/9_characterizationRheology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\9_characterizationRheology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="648" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23A63ADD-B09D-4662-BABF-3752141F6DFC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3787D86-0DCC-48A0-8019-BA18D1AAABAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="21555" windowHeight="14865" activeTab="1" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="21555" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,20 +782,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -797,8 +795,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -806,10 +804,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE191C-5F93-480D-978C-2A064FA643C9}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1699,7 @@
       <c r="B8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="100" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1784,7 +1790,7 @@
       <c r="B12" s="7">
         <v>5000</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="99" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1850,7 +1856,7 @@
       <c r="B14" s="7">
         <v>250000</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="99" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1883,7 +1889,7 @@
       <c r="B15" s="7">
         <v>1000000</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="99" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1916,7 +1922,7 @@
       <c r="B16" s="7">
         <v>1000000</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="99" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1949,7 +1955,7 @@
       <c r="B17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -2052,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,7 +2117,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="72"/>
@@ -2150,7 +2156,7 @@
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="72"/>
       <c r="C4" s="84">
         <v>0</v>
@@ -2194,7 +2200,7 @@
       <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="72"/>
       <c r="C5" s="84">
         <v>1E-3</v>
@@ -2226,7 +2232,7 @@
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="72"/>
       <c r="C6" s="84">
         <v>0.01</v>
@@ -2260,7 +2266,7 @@
       <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="72"/>
       <c r="C7" s="84">
         <v>0.1</v>
@@ -2294,24 +2300,24 @@
       <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="104">
+      <c r="C8" s="107">
         <v>0.25</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="108">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="109">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="107">
         <f t="shared" si="2"/>
         <v>4.2218045112781954</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="107">
         <v>11.32</v>
       </c>
       <c r="H8" s="78"/>
@@ -2336,7 +2342,7 @@
       <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="72"/>
       <c r="C9" s="84">
         <v>0.5</v>
@@ -2378,7 +2384,7 @@
       <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="72"/>
       <c r="C10" s="84">
         <v>0.75</v>
@@ -2420,7 +2426,7 @@
       <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="72"/>
       <c r="C11" s="84">
         <v>1</v>
@@ -2462,7 +2468,7 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="72"/>
       <c r="C12" s="75"/>
       <c r="D12" s="76"/>
@@ -2486,7 +2492,7 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="72"/>
       <c r="C13" s="79" t="s">
         <v>35</v>
@@ -2506,7 +2512,7 @@
       <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="72"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81">
@@ -2566,7 +2572,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="102" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="85">
@@ -2595,10 +2601,8 @@
       <c r="O16" s="89"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="85">
-        <v>1</v>
-      </c>
+      <c r="A17" s="102"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="17" t="e">
         <f t="shared" ref="C17:C22" si="4">(F17/(D17+F17))*100</f>
         <v>#DIV/0!</v>
@@ -2630,10 +2634,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="85">
-        <v>2</v>
-      </c>
+      <c r="A18" s="102"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2665,10 +2667,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="85">
-        <v>3</v>
-      </c>
+      <c r="A19" s="102"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2700,10 +2700,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="85">
-        <v>4</v>
-      </c>
+      <c r="A20" s="102"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2731,10 +2729,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="85">
-        <v>5</v>
-      </c>
+      <c r="A21" s="102"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2762,10 +2758,8 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="85">
-        <v>6</v>
-      </c>
+      <c r="A22" s="102"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2802,7 +2796,7 @@
       <c r="K24"/>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="44"/>
@@ -2822,7 +2816,7 @@
       <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="44"/>
       <c r="C26" s="14">
         <v>0.1</v>
@@ -2842,7 +2836,7 @@
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="44"/>
       <c r="C27" s="14">
         <v>0.34</v>
@@ -2862,7 +2856,7 @@
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="44"/>
       <c r="C28" s="14">
         <v>1.22</v>
@@ -2882,7 +2876,7 @@
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="44"/>
       <c r="C29" s="14">
         <v>4.28</v>
@@ -2902,27 +2896,27 @@
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="99">
+      <c r="C30" s="110">
         <v>15</v>
       </c>
-      <c r="D30" s="100">
+      <c r="D30" s="111">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E30" s="112">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="F30" s="100">
+      <c r="F30" s="111">
         <f>(D30*C30)/(100-C30)</f>
         <v>235.05882352941177</v>
       </c>
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="62"/>
       <c r="C31" s="14">
         <v>21.21</v>
@@ -2942,7 +2936,7 @@
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="62"/>
       <c r="C32" s="14">
         <v>30</v>
@@ -2962,7 +2956,7 @@
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="62"/>
       <c r="C33" s="14"/>
       <c r="D33" s="17"/>
@@ -2971,11 +2965,11 @@
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="44"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="44"/>
       <c r="C35" s="36" t="s">
         <v>35</v>
@@ -3006,11 +3000,11 @@
       <c r="B37" s="34"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="102" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C38" s="17" t="e">
         <f t="shared" ref="C38:C39" si="9">(F38/(D38+F38))*100</f>
@@ -3022,10 +3016,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="34">
-        <v>8</v>
-      </c>
+      <c r="A39" s="102"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -3036,10 +3028,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="58">
-        <v>9</v>
-      </c>
+      <c r="A40" s="102"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="17" t="e">
         <f>(F40/(D40+F40))*100</f>
         <v>#DIV/0!</v>
@@ -3054,10 +3044,8 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="58">
-        <v>10</v>
-      </c>
+      <c r="A41" s="102"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="17" t="e">
         <f t="shared" ref="C41:C44" si="11">(F41/(D41+F41))*100</f>
         <v>#DIV/0!</v>
@@ -3072,10 +3060,8 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="58">
-        <v>11</v>
-      </c>
+      <c r="A42" s="102"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -3090,10 +3076,8 @@
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="58">
-        <v>12</v>
-      </c>
+      <c r="A43" s="102"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -3108,10 +3092,8 @@
       <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
-      <c r="B44" s="58">
-        <v>13</v>
-      </c>
+      <c r="A44" s="102"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -3130,7 +3112,7 @@
       <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="102" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="47">
@@ -3154,7 +3136,7 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="47">
         <v>1</v>
       </c>
@@ -3176,7 +3158,7 @@
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="47">
         <v>2</v>
       </c>
@@ -3198,7 +3180,7 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="A49" s="102"/>
       <c r="B49" s="47">
         <v>3</v>
       </c>
@@ -3220,7 +3202,7 @@
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="47">
         <v>4</v>
       </c>
@@ -3246,7 +3228,7 @@
       <c r="B51" s="34"/>
     </row>
     <row r="52" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="102" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="47">
@@ -3270,7 +3252,7 @@
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="106"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="47">
         <v>1</v>
       </c>
@@ -3292,7 +3274,7 @@
       <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="106"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="47">
         <v>2</v>
       </c>
@@ -3314,7 +3296,7 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="47">
         <v>3</v>
       </c>
@@ -3336,7 +3318,7 @@
       <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="47">
         <v>4</v>
       </c>
@@ -3362,7 +3344,7 @@
       <c r="B57" s="35"/>
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="44"/>
@@ -3388,7 +3370,7 @@
       <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="44"/>
       <c r="C59" s="14">
         <v>0.1</v>
@@ -3415,7 +3397,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="44"/>
       <c r="C60" s="14">
         <v>0.34</v>
@@ -3442,7 +3424,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="44"/>
       <c r="C61" s="14">
         <v>1.224</v>
@@ -3469,7 +3451,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="44"/>
       <c r="C62" s="14">
         <v>4.28</v>
@@ -3496,34 +3478,34 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+      <c r="A63" s="101"/>
       <c r="B63" s="44"/>
-      <c r="C63" s="99">
+      <c r="C63" s="110">
         <v>15</v>
       </c>
-      <c r="D63" s="100">
+      <c r="D63" s="111">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E63" s="101">
+      <c r="E63" s="112">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
-      <c r="F63" s="100">
+      <c r="F63" s="111">
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G63" s="101">
+      <c r="G63" s="112">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
-      <c r="H63" s="100">
+      <c r="H63" s="111">
         <f t="shared" si="21"/>
         <v>239.16176470588235</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="62"/>
       <c r="C64" s="14">
         <v>19.36</v>
@@ -3550,7 +3532,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="62"/>
       <c r="C65" s="14">
         <v>25</v>
@@ -3577,11 +3559,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="44"/>
       <c r="C67" s="36" t="s">
         <v>35</v>
@@ -3614,11 +3596,11 @@
       <c r="H68" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="106" t="s">
+      <c r="A70" s="102" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="87">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C70" s="17" t="e">
         <f t="shared" ref="C70:C71" si="23">(H70/(D70+F70+H70))*100</f>
@@ -3637,10 +3619,8 @@
       <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
-      <c r="B71" s="87">
-        <v>15</v>
-      </c>
+      <c r="A71" s="102"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="17" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
@@ -3658,10 +3638,8 @@
       <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="58">
-        <v>16</v>
-      </c>
+      <c r="A72" s="102"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="17" t="e">
         <f>(H72/(D72+F72+H72))*100</f>
         <v>#DIV/0!</v>
@@ -3679,10 +3657,8 @@
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="59">
-        <v>17</v>
-      </c>
+      <c r="A73" s="102"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="17" t="e">
         <f t="shared" ref="C73:C76" si="26">(H73/(D73+F73+H73))*100</f>
         <v>#DIV/0!</v>
@@ -3700,10 +3676,8 @@
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="59">
-        <v>18</v>
-      </c>
+      <c r="A74" s="102"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="17" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
@@ -3721,10 +3695,8 @@
       <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
-      <c r="B75" s="59">
-        <v>19</v>
-      </c>
+      <c r="A75" s="102"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="17" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
@@ -3742,10 +3714,8 @@
       <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="59">
-        <v>20</v>
-      </c>
+      <c r="A76" s="102"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="17" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
@@ -3763,7 +3733,7 @@
       <c r="H76" s="17"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="106" t="s">
+      <c r="A78" s="102" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="47">
@@ -3792,7 +3762,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="107"/>
+      <c r="A79" s="103"/>
       <c r="B79" s="48">
         <v>6</v>
       </c>
@@ -3819,7 +3789,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="107"/>
+      <c r="A80" s="103"/>
       <c r="B80" s="48">
         <v>7</v>
       </c>
@@ -3846,7 +3816,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="107"/>
+      <c r="A81" s="103"/>
       <c r="B81" s="48">
         <v>8</v>
       </c>
@@ -3873,7 +3843,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="107"/>
+      <c r="A82" s="103"/>
       <c r="B82" s="48">
         <v>9</v>
       </c>
@@ -3901,7 +3871,7 @@
     </row>
     <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="102" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="47">
@@ -3930,7 +3900,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="107"/>
+      <c r="A85" s="103"/>
       <c r="B85" s="48">
         <v>6</v>
       </c>
@@ -3957,7 +3927,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="107"/>
+      <c r="A86" s="103"/>
       <c r="B86" s="48">
         <v>7</v>
       </c>
@@ -3984,7 +3954,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="107"/>
+      <c r="A87" s="103"/>
       <c r="B87" s="48">
         <v>8</v>
       </c>
@@ -4011,7 +3981,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="107"/>
+      <c r="A88" s="103"/>
       <c r="B88" s="48">
         <v>9</v>
       </c>
@@ -4039,7 +4009,7 @@
     </row>
     <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="44"/>
@@ -4060,7 +4030,7 @@
       <c r="Q90" s="29"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
+      <c r="A91" s="101"/>
       <c r="B91" s="44"/>
       <c r="C91" s="14">
         <v>0.1</v>
@@ -4081,7 +4051,7 @@
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="44"/>
       <c r="C92" s="14">
         <v>0.43</v>
@@ -4102,7 +4072,7 @@
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
+      <c r="A93" s="101"/>
       <c r="B93" s="44"/>
       <c r="C93" s="14">
         <v>1.85</v>
@@ -4123,20 +4093,20 @@
       <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
+      <c r="A94" s="101"/>
       <c r="B94" s="44"/>
-      <c r="C94" s="99">
+      <c r="C94" s="110">
         <v>8</v>
       </c>
-      <c r="D94" s="100">
+      <c r="D94" s="111">
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E94" s="101">
+      <c r="E94" s="112">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
-      <c r="F94" s="100">
+      <c r="F94" s="111">
         <f t="shared" si="37"/>
         <v>133.95652173913041</v>
       </c>
@@ -4144,7 +4114,7 @@
       <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
+      <c r="A95" s="101"/>
       <c r="B95" s="44"/>
       <c r="C95" s="14">
         <v>10.95</v>
@@ -4165,7 +4135,7 @@
       <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
+      <c r="A96" s="101"/>
       <c r="B96" s="62"/>
       <c r="C96" s="14">
         <v>15</v>
@@ -4186,11 +4156,11 @@
       <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
+      <c r="A97" s="101"/>
       <c r="B97" s="44"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="108"/>
+      <c r="A98" s="101"/>
       <c r="B98" s="44"/>
       <c r="C98" s="36" t="s">
         <v>35</v>
@@ -4231,11 +4201,11 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="109" t="s">
+      <c r="A101" s="105" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="61">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C101" s="42" t="e">
         <f t="shared" ref="C101" si="39">(F101/(D101+F101))*100</f>
@@ -4251,10 +4221,8 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="109"/>
-      <c r="B102" s="60">
-        <v>22</v>
-      </c>
+      <c r="A102" s="105"/>
+      <c r="B102" s="60"/>
       <c r="C102" s="42" t="e">
         <f>(F102/(D102+F102))*100</f>
         <v>#DIV/0!</v>
@@ -4269,10 +4237,8 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="109"/>
-      <c r="B103" s="61">
-        <v>23</v>
-      </c>
+      <c r="A103" s="105"/>
+      <c r="B103" s="61"/>
       <c r="C103" s="42" t="e">
         <f t="shared" ref="C103:C106" si="41">(F103/(D103+F103))*100</f>
         <v>#DIV/0!</v>
@@ -4287,10 +4253,8 @@
       <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="109"/>
-      <c r="B104" s="61">
-        <v>24</v>
-      </c>
+      <c r="A104" s="105"/>
+      <c r="B104" s="61"/>
       <c r="C104" s="42" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
@@ -4305,10 +4269,8 @@
       <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="109"/>
-      <c r="B105" s="61">
-        <v>25</v>
-      </c>
+      <c r="A105" s="105"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="42" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
@@ -4323,10 +4285,8 @@
       <c r="H105" s="43"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="109"/>
-      <c r="B106" s="61">
-        <v>26</v>
-      </c>
+      <c r="A106" s="105"/>
+      <c r="B106" s="61"/>
       <c r="C106" s="42" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
@@ -4351,7 +4311,7 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="109" t="s">
+      <c r="A108" s="105" t="s">
         <v>97</v>
       </c>
       <c r="B108" s="45">
@@ -4375,7 +4335,7 @@
       <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="110"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="46">
         <v>11</v>
       </c>
@@ -4397,7 +4357,7 @@
       <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="110"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="46">
         <v>12</v>
       </c>
@@ -4419,7 +4379,7 @@
       <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="110"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="46">
         <v>13</v>
       </c>
@@ -4441,7 +4401,7 @@
       <c r="H111" s="43"/>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="110"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="46">
         <v>14</v>
       </c>
@@ -4464,7 +4424,7 @@
     </row>
     <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="108" t="s">
+      <c r="A114" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="44"/>
@@ -4486,7 +4446,7 @@
       <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="108"/>
+      <c r="A115" s="101"/>
       <c r="B115" s="44"/>
       <c r="C115" s="23">
         <v>0.25</v>
@@ -4510,7 +4470,7 @@
       <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="108"/>
+      <c r="A116" s="101"/>
       <c r="B116" s="44"/>
       <c r="C116" s="23">
         <v>3.75</v>
@@ -4534,7 +4494,7 @@
       <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="108"/>
+      <c r="A117" s="101"/>
       <c r="B117" s="44"/>
       <c r="C117" s="23">
         <v>7.5</v>
@@ -4558,7 +4518,7 @@
       <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="108"/>
+      <c r="A118" s="101"/>
       <c r="B118" s="44"/>
       <c r="C118" s="23">
         <v>11.25</v>
@@ -4582,7 +4542,7 @@
       <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="108"/>
+      <c r="A119" s="101"/>
       <c r="B119" s="44"/>
       <c r="C119" s="23">
         <v>15</v>
@@ -4606,7 +4566,7 @@
       <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="108"/>
+      <c r="A120" s="101"/>
       <c r="B120" s="44"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -4616,7 +4576,7 @@
       <c r="H120" s="31"/>
     </row>
     <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="108"/>
+      <c r="A121" s="101"/>
       <c r="B121" s="44"/>
       <c r="C121" s="38" t="s">
         <v>35</v>
@@ -4634,7 +4594,7 @@
       <c r="H121" s="40"/>
     </row>
     <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="108"/>
+      <c r="A122" s="101"/>
       <c r="B122" s="44"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="e">
@@ -4650,7 +4610,7 @@
     </row>
     <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="108" t="s">
+      <c r="A124" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B124" s="44"/>
@@ -4672,7 +4632,7 @@
       <c r="Q124" s="29"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="108"/>
+      <c r="A125" s="101"/>
       <c r="B125" s="44"/>
       <c r="C125" s="14">
         <v>0.1</v>
@@ -4695,7 +4655,7 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="108"/>
+      <c r="A126" s="101"/>
       <c r="B126" s="44"/>
       <c r="C126" s="86">
         <v>0.35</v>
@@ -4718,7 +4678,7 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="108"/>
+      <c r="A127" s="101"/>
       <c r="B127" s="44"/>
       <c r="C127" s="86">
         <v>1.22</v>
@@ -4741,7 +4701,7 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="108"/>
+      <c r="A128" s="101"/>
       <c r="B128" s="44"/>
       <c r="C128" s="86">
         <v>4.28</v>
@@ -4764,7 +4724,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="108"/>
+      <c r="A129" s="101"/>
       <c r="B129" s="44"/>
       <c r="C129" s="86">
         <v>15</v>
@@ -4787,13 +4747,13 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="108"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="44"/>
       <c r="G130" s="51"/>
       <c r="H130" s="51"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="108"/>
+      <c r="A131" s="101"/>
       <c r="B131" s="44"/>
       <c r="C131" s="36" t="s">
         <v>35</v>
@@ -4809,7 +4769,7 @@
       <c r="H131" s="55"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="108"/>
+      <c r="A132" s="101"/>
       <c r="B132" s="44"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15">
@@ -4834,12 +4794,10 @@
       <c r="H133" s="55"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="109" t="s">
+      <c r="A134" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="60">
-        <v>27</v>
-      </c>
+      <c r="B134" s="60"/>
       <c r="C134" s="43" t="e">
         <f>(F134/(D134+F134))*100</f>
         <v>#DIV/0!</v>
@@ -4854,10 +4812,8 @@
       <c r="H134" s="55"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="109"/>
-      <c r="B135" s="60">
-        <v>28</v>
-      </c>
+      <c r="A135" s="105"/>
+      <c r="B135" s="60"/>
       <c r="C135" s="43" t="e">
         <f t="shared" ref="C135:C138" si="52">(F135/(D135+F135))*100</f>
         <v>#DIV/0!</v>
@@ -4872,10 +4828,8 @@
       <c r="H135" s="55"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="109"/>
-      <c r="B136" s="60">
-        <v>29</v>
-      </c>
+      <c r="A136" s="105"/>
+      <c r="B136" s="60"/>
       <c r="C136" s="43" t="e">
         <f t="shared" si="52"/>
         <v>#DIV/0!</v>
@@ -4890,10 +4844,8 @@
       <c r="H136" s="55"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="109"/>
-      <c r="B137" s="60">
-        <v>30</v>
-      </c>
+      <c r="A137" s="105"/>
+      <c r="B137" s="60"/>
       <c r="C137" s="43" t="e">
         <f t="shared" si="52"/>
         <v>#DIV/0!</v>
@@ -4908,10 +4860,8 @@
       <c r="H137" s="55"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="109"/>
-      <c r="B138" s="60">
-        <v>31</v>
-      </c>
+      <c r="A138" s="105"/>
+      <c r="B138" s="60"/>
       <c r="C138" s="43" t="e">
         <f t="shared" si="52"/>
         <v>#DIV/0!</v>
@@ -4936,7 +4886,7 @@
       <c r="H139" s="55"/>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="109" t="s">
+      <c r="A140" s="105" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="45">
@@ -4960,7 +4910,7 @@
       <c r="H140" s="55"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="109"/>
+      <c r="A141" s="105"/>
       <c r="B141" s="45">
         <v>1</v>
       </c>
@@ -4986,7 +4936,7 @@
       <c r="H142" s="51"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="108" t="s">
+      <c r="A143" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B143" s="44"/>
@@ -5006,7 +4956,7 @@
       <c r="H143" s="51"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="108"/>
+      <c r="A144" s="101"/>
       <c r="B144" s="44"/>
       <c r="C144" s="14">
         <v>0.1</v>
@@ -5027,7 +4977,7 @@
       <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="108"/>
+      <c r="A145" s="101"/>
       <c r="B145" s="44"/>
       <c r="C145" s="86">
         <v>0.35</v>
@@ -5048,7 +4998,7 @@
       <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="108"/>
+      <c r="A146" s="101"/>
       <c r="B146" s="44"/>
       <c r="C146" s="86">
         <v>1.22</v>
@@ -5069,7 +5019,7 @@
       <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="108"/>
+      <c r="A147" s="101"/>
       <c r="B147" s="44"/>
       <c r="C147" s="86">
         <v>4.28</v>
@@ -5090,7 +5040,7 @@
       <c r="H147" s="50"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="108"/>
+      <c r="A148" s="101"/>
       <c r="B148" s="44"/>
       <c r="C148" s="86">
         <v>15</v>
@@ -5111,13 +5061,13 @@
       <c r="H148" s="50"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="108"/>
+      <c r="A149" s="101"/>
       <c r="B149" s="44"/>
       <c r="G149" s="51"/>
       <c r="H149" s="51"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="108"/>
+      <c r="A150" s="101"/>
       <c r="B150" s="44"/>
       <c r="C150" s="36" t="s">
         <v>35</v>
@@ -5133,7 +5083,7 @@
       <c r="H150" s="55"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="108"/>
+      <c r="A151" s="101"/>
       <c r="B151" s="44"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15">
@@ -5152,12 +5102,10 @@
       <c r="H152" s="51"/>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="106" t="s">
+      <c r="A153" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="B153" s="58">
-        <v>32</v>
-      </c>
+      <c r="B153" s="58"/>
       <c r="C153" s="17" t="e">
         <f>(F153/(D153+F153))*100</f>
         <v>#DIV/0!</v>
@@ -5170,10 +5118,8 @@
       <c r="H153" s="51"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="106"/>
-      <c r="B154" s="58">
-        <v>33</v>
-      </c>
+      <c r="A154" s="102"/>
+      <c r="B154" s="58"/>
       <c r="C154" s="17" t="e">
         <f t="shared" ref="C154:C157" si="58">(F154/(D154+F154))*100</f>
         <v>#DIV/0!</v>
@@ -5186,10 +5132,8 @@
       <c r="H154" s="51"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="106"/>
-      <c r="B155" s="58">
-        <v>34</v>
-      </c>
+      <c r="A155" s="102"/>
+      <c r="B155" s="58"/>
       <c r="C155" s="17" t="e">
         <f t="shared" si="58"/>
         <v>#DIV/0!</v>
@@ -5202,10 +5146,8 @@
       <c r="H155" s="51"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="106"/>
-      <c r="B156" s="58">
-        <v>35</v>
-      </c>
+      <c r="A156" s="102"/>
+      <c r="B156" s="58"/>
       <c r="C156" s="17" t="e">
         <f t="shared" si="58"/>
         <v>#DIV/0!</v>
@@ -5218,10 +5160,8 @@
       <c r="H156" s="51"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="106"/>
-      <c r="B157" s="58">
-        <v>36</v>
-      </c>
+      <c r="A157" s="102"/>
+      <c r="B157" s="58"/>
       <c r="C157" s="17" t="e">
         <f t="shared" si="58"/>
         <v>#DIV/0!</v>
@@ -5238,7 +5178,7 @@
       <c r="H158" s="51"/>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="106" t="s">
+      <c r="A159" s="102" t="s">
         <v>98</v>
       </c>
       <c r="B159" s="47">
@@ -5262,7 +5202,7 @@
       <c r="H159" s="51"/>
     </row>
     <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="106"/>
+      <c r="A160" s="102"/>
       <c r="B160" s="47">
         <v>4</v>
       </c>
@@ -5288,7 +5228,7 @@
       <c r="H161" s="51"/>
     </row>
     <row r="162" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="108" t="s">
+      <c r="A162" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B162" s="44"/>
@@ -5308,7 +5248,7 @@
       <c r="Q162" s="29"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="108"/>
+      <c r="A163" s="101"/>
       <c r="B163" s="44"/>
       <c r="C163" s="14">
         <v>0.1</v>
@@ -5329,7 +5269,7 @@
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="108"/>
+      <c r="A164" s="101"/>
       <c r="B164" s="44"/>
       <c r="C164" s="14">
         <v>0.6</v>
@@ -5350,7 +5290,7 @@
       <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="108"/>
+      <c r="A165" s="101"/>
       <c r="B165" s="44"/>
       <c r="C165" s="14">
         <v>1</v>
@@ -5371,7 +5311,7 @@
       <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="108"/>
+      <c r="A166" s="101"/>
       <c r="B166" s="44"/>
       <c r="C166" s="14">
         <v>2</v>
@@ -5392,20 +5332,20 @@
       <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="108"/>
+      <c r="A167" s="101"/>
       <c r="B167" s="44"/>
-      <c r="C167" s="99">
+      <c r="C167" s="110">
         <v>5</v>
       </c>
-      <c r="D167" s="100">
+      <c r="D167" s="111">
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E167" s="101">
+      <c r="E167" s="112">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
-      <c r="F167" s="100">
+      <c r="F167" s="111">
         <f t="shared" si="63"/>
         <v>75</v>
       </c>
@@ -5413,7 +5353,7 @@
       <c r="H167" s="17"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="108"/>
+      <c r="A168" s="101"/>
       <c r="B168" s="62"/>
       <c r="C168" s="14">
         <v>10</v>
@@ -5434,7 +5374,7 @@
       <c r="H168" s="17"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="108"/>
+      <c r="A169" s="101"/>
       <c r="B169" s="62"/>
       <c r="C169" s="14">
         <v>15</v>
@@ -5455,11 +5395,11 @@
       <c r="H169" s="17"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="108"/>
+      <c r="A170" s="101"/>
       <c r="B170" s="44"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="108"/>
+      <c r="A171" s="101"/>
       <c r="B171" s="44"/>
       <c r="C171" s="36" t="s">
         <v>35</v>
@@ -5475,7 +5415,7 @@
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A172" s="108"/>
+      <c r="A172" s="101"/>
       <c r="B172" s="44"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15">
@@ -5490,11 +5430,11 @@
       <c r="H172" s="15"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="105" t="s">
+      <c r="A174" s="104" t="s">
         <v>108</v>
       </c>
       <c r="B174" s="87">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C174" s="42" t="e">
         <f>(F174/(D174+F174))*100</f>
@@ -5508,10 +5448,8 @@
       <c r="F174" s="33"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A175" s="105"/>
-      <c r="B175" s="87">
-        <v>38</v>
-      </c>
+      <c r="A175" s="104"/>
+      <c r="B175" s="87"/>
       <c r="C175" s="42" t="e">
         <f t="shared" ref="C175" si="66">(F175/(D175+F175))*100</f>
         <v>#DIV/0!</v>
@@ -5524,10 +5462,8 @@
       <c r="F175" s="33"/>
     </row>
     <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="105"/>
-      <c r="B176" s="60">
-        <v>39</v>
-      </c>
+      <c r="A176" s="104"/>
+      <c r="B176" s="60"/>
       <c r="C176" s="42" t="e">
         <f>(F176/(D176+F176))*100</f>
         <v>#DIV/0!</v>
@@ -5540,10 +5476,8 @@
       <c r="F176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="105"/>
-      <c r="B177" s="60">
-        <v>40</v>
-      </c>
+      <c r="A177" s="104"/>
+      <c r="B177" s="60"/>
       <c r="C177" s="42" t="e">
         <f t="shared" ref="C177:C180" si="67">(F177/(D177+F177))*100</f>
         <v>#DIV/0!</v>
@@ -5556,10 +5490,8 @@
       <c r="F177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="105"/>
-      <c r="B178" s="60">
-        <v>41</v>
-      </c>
+      <c r="A178" s="104"/>
+      <c r="B178" s="60"/>
       <c r="C178" s="42" t="e">
         <f t="shared" si="67"/>
         <v>#DIV/0!</v>
@@ -5572,10 +5504,8 @@
       <c r="F178" s="33"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="105"/>
-      <c r="B179" s="60">
-        <v>42</v>
-      </c>
+      <c r="A179" s="104"/>
+      <c r="B179" s="60"/>
       <c r="C179" s="42" t="e">
         <f t="shared" si="67"/>
         <v>#DIV/0!</v>
@@ -5588,10 +5518,8 @@
       <c r="F179" s="33"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="105"/>
-      <c r="B180" s="60">
-        <v>43</v>
-      </c>
+      <c r="A180" s="104"/>
+      <c r="B180" s="60"/>
       <c r="C180" s="42" t="e">
         <f t="shared" si="67"/>
         <v>#DIV/0!</v>
@@ -5604,7 +5532,7 @@
       <c r="F180" s="33"/>
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="105" t="s">
+      <c r="A182" s="104" t="s">
         <v>98</v>
       </c>
       <c r="B182" s="45">
@@ -5629,7 +5557,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="105"/>
+      <c r="A183" s="104"/>
       <c r="B183" s="45">
         <v>7</v>
       </c>
@@ -5652,7 +5580,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="105"/>
+      <c r="A184" s="104"/>
       <c r="B184" s="45">
         <v>8</v>
       </c>
@@ -5675,7 +5603,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="105"/>
+      <c r="A185" s="104"/>
       <c r="B185" s="45">
         <v>9</v>
       </c>
@@ -5698,7 +5626,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="105"/>
+      <c r="A186" s="104"/>
       <c r="B186" s="45">
         <v>10</v>
       </c>
@@ -5723,13 +5651,6 @@
     <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A38:A44"/>
     <mergeCell ref="A174:A180"/>
     <mergeCell ref="A182:A186"/>
     <mergeCell ref="A46:A50"/>
@@ -5746,6 +5667,13 @@
     <mergeCell ref="A153:A157"/>
     <mergeCell ref="A70:A76"/>
     <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/9_characterizationRheology/solutionsNrheology.xlsx
+++ b/9_characterizationRheology/solutionsNrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\9_characterizationRheology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3787D86-0DCC-48A0-8019-BA18D1AAABAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD1BFA-1E8E-4494-9D27-1C99BF766C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="21555" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="21225" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +571,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -594,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -786,24 +792,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -816,6 +804,33 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2058,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2132,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="72"/>
@@ -2156,7 +2171,7 @@
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="72"/>
       <c r="C4" s="84">
         <v>0</v>
@@ -2200,7 +2215,7 @@
       <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="72"/>
       <c r="C5" s="84">
         <v>1E-3</v>
@@ -2232,7 +2247,7 @@
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="72"/>
       <c r="C6" s="84">
         <v>0.01</v>
@@ -2266,7 +2281,7 @@
       <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="72"/>
       <c r="C7" s="84">
         <v>0.1</v>
@@ -2300,24 +2315,24 @@
       <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="107">
+      <c r="C8" s="101">
         <v>0.25</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="102">
         <f t="shared" si="0"/>
         <v>1684.5</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="103">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="101">
         <f t="shared" si="2"/>
         <v>4.2218045112781954</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="101">
         <v>11.32</v>
       </c>
       <c r="H8" s="78"/>
@@ -2342,7 +2357,7 @@
       <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="72"/>
       <c r="C9" s="84">
         <v>0.5</v>
@@ -2384,7 +2399,7 @@
       <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="72"/>
       <c r="C10" s="84">
         <v>0.75</v>
@@ -2426,7 +2441,7 @@
       <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="72"/>
       <c r="C11" s="84">
         <v>1</v>
@@ -2468,7 +2483,7 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="72"/>
       <c r="C12" s="75"/>
       <c r="D12" s="76"/>
@@ -2492,7 +2507,7 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="72"/>
       <c r="C13" s="79" t="s">
         <v>35</v>
@@ -2512,7 +2527,7 @@
       <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="72"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81">
@@ -2572,23 +2587,29 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="117" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="85">
         <v>0</v>
       </c>
-      <c r="C16" s="17" t="e">
+      <c r="C16" s="17">
         <f>(F16/(D16+F16))*100</f>
-        <v>#DIV/0!</v>
+        <v>0.25001154719367669</v>
       </c>
       <c r="D16" s="17">
         <f>$D$13*E16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="71"/>
+        <v>1684.5</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="17">
+        <v>4.2220000000000004</v>
+      </c>
+      <c r="G16" s="71">
+        <v>11.32</v>
+      </c>
       <c r="H16" s="71"/>
       <c r="K16" s="88" t="str">
         <v>PANI</v>
@@ -2601,7 +2622,7 @@
       <c r="O16" s="89"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="85"/>
       <c r="C17" s="17" t="e">
         <f t="shared" ref="C17:C22" si="4">(F17/(D17+F17))*100</f>
@@ -2634,7 +2655,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="85"/>
       <c r="C18" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2667,7 +2688,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="85"/>
       <c r="C19" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2700,7 +2721,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="85"/>
       <c r="C20" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2729,7 +2750,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="85"/>
       <c r="C21" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2758,7 +2779,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="85"/>
       <c r="C22" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2796,7 +2817,7 @@
       <c r="K24"/>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="44"/>
@@ -2816,7 +2837,7 @@
       <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="44"/>
       <c r="C26" s="14">
         <v>0.1</v>
@@ -2836,7 +2857,7 @@
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="44"/>
       <c r="C27" s="14">
         <v>0.34</v>
@@ -2856,7 +2877,7 @@
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="44"/>
       <c r="C28" s="14">
         <v>1.22</v>
@@ -2876,7 +2897,7 @@
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="44"/>
       <c r="C29" s="14">
         <v>4.28</v>
@@ -2896,47 +2917,47 @@
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="110">
+      <c r="C30" s="104">
         <v>15</v>
       </c>
-      <c r="D30" s="111">
+      <c r="D30" s="105">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E30" s="112">
+      <c r="E30" s="106">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="F30" s="111">
+      <c r="F30" s="105">
         <f>(D30*C30)/(100-C30)</f>
         <v>235.05882352941177</v>
       </c>
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="62"/>
-      <c r="C31" s="14">
+      <c r="C31" s="113">
         <v>21.21</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="114">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E31" s="98">
+      <c r="E31" s="115">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="114">
         <f t="shared" ref="F31:F32" si="8">(D31*C31)/(100-C31)</f>
         <v>358.5698692727504</v>
       </c>
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="62"/>
       <c r="C32" s="14">
         <v>30</v>
@@ -2956,7 +2977,7 @@
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="62"/>
       <c r="C33" s="14"/>
       <c r="D33" s="17"/>
@@ -2965,11 +2986,11 @@
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="44"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="44"/>
       <c r="C35" s="36" t="s">
         <v>35</v>
@@ -3000,35 +3021,49 @@
       <c r="B37" s="34"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="117" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="34">
         <v>1</v>
       </c>
-      <c r="C38" s="17" t="e">
+      <c r="C38" s="17">
         <f t="shared" ref="C38:C39" si="9">(F38/(D38+F38))*100</f>
-        <v>#DIV/0!</v>
+        <v>15.000009572070994</v>
       </c>
       <c r="D38" s="17">
         <f t="shared" ref="D38:D39" si="10">$D$35*E38</f>
-        <v>0</v>
+        <v>1332</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F38" s="4">
+        <v>235.059</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="102"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="17" t="e">
+      <c r="A39" s="117"/>
+      <c r="B39" s="34">
+        <v>2</v>
+      </c>
+      <c r="C39" s="17">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>21.210006092619651</v>
       </c>
       <c r="D39" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1332</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F39" s="4">
+        <v>358.57</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="102"/>
+      <c r="A40" s="117"/>
       <c r="B40" s="58"/>
       <c r="C40" s="17" t="e">
         <f>(F40/(D40+F40))*100</f>
@@ -3044,7 +3079,7 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="58"/>
       <c r="C41" s="17" t="e">
         <f t="shared" ref="C41:C44" si="11">(F41/(D41+F41))*100</f>
@@ -3060,7 +3095,7 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="102"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="58"/>
       <c r="C42" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3076,7 +3111,7 @@
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="58"/>
       <c r="C43" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3092,7 +3127,7 @@
       <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="102"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="58"/>
       <c r="C44" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3112,7 +3147,7 @@
       <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="117" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="47">
@@ -3136,7 +3171,7 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="47">
         <v>1</v>
       </c>
@@ -3158,7 +3193,7 @@
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
+      <c r="A48" s="117"/>
       <c r="B48" s="47">
         <v>2</v>
       </c>
@@ -3180,7 +3215,7 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
+      <c r="A49" s="117"/>
       <c r="B49" s="47">
         <v>3</v>
       </c>
@@ -3202,7 +3237,7 @@
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
+      <c r="A50" s="117"/>
       <c r="B50" s="47">
         <v>4</v>
       </c>
@@ -3228,7 +3263,7 @@
       <c r="B51" s="34"/>
     </row>
     <row r="52" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="117" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="47">
@@ -3252,7 +3287,7 @@
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="47">
         <v>1</v>
       </c>
@@ -3274,7 +3309,7 @@
       <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="102"/>
+      <c r="A54" s="117"/>
       <c r="B54" s="47">
         <v>2</v>
       </c>
@@ -3296,7 +3331,7 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="47">
         <v>3</v>
       </c>
@@ -3318,7 +3353,7 @@
       <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="47">
         <v>4</v>
       </c>
@@ -3344,7 +3379,7 @@
       <c r="B57" s="35"/>
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="101" t="s">
+      <c r="A58" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="44"/>
@@ -3370,7 +3405,7 @@
       <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="101"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="44"/>
       <c r="C59" s="14">
         <v>0.1</v>
@@ -3397,7 +3432,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="44"/>
       <c r="C60" s="14">
         <v>0.34</v>
@@ -3424,7 +3459,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="44"/>
       <c r="C61" s="14">
         <v>1.224</v>
@@ -3451,7 +3486,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="101"/>
+      <c r="A62" s="119"/>
       <c r="B62" s="44"/>
       <c r="C62" s="14">
         <v>4.28</v>
@@ -3478,61 +3513,61 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="101"/>
+      <c r="A63" s="119"/>
       <c r="B63" s="44"/>
-      <c r="C63" s="110">
+      <c r="C63" s="107">
         <v>15</v>
       </c>
-      <c r="D63" s="111">
+      <c r="D63" s="108">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E63" s="112">
+      <c r="E63" s="109">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
-      <c r="F63" s="111">
+      <c r="F63" s="108">
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G63" s="112">
+      <c r="G63" s="109">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
-      <c r="H63" s="111">
+      <c r="H63" s="108">
         <f t="shared" si="21"/>
         <v>239.16176470588235</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="14">
+      <c r="C64" s="110">
         <v>19.36</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="111">
         <f t="shared" si="17"/>
         <v>999</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="112">
         <f t="shared" si="18"/>
         <v>1125</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="111">
         <f t="shared" si="19"/>
         <v>356.25</v>
       </c>
-      <c r="G64" s="98">
+      <c r="G64" s="112">
         <f t="shared" si="20"/>
         <v>375</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="111">
         <f t="shared" ref="H64:H65" si="22">((D64+F64)*C64)/(100-C64)</f>
         <v>325.36755952380952</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="101"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="62"/>
       <c r="C65" s="14">
         <v>25</v>
@@ -3559,11 +3594,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
+      <c r="A66" s="119"/>
       <c r="B66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="44"/>
       <c r="C67" s="36" t="s">
         <v>35</v>
@@ -3596,49 +3631,63 @@
       <c r="H68" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="117" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="87">
-        <v>2</v>
-      </c>
-      <c r="C70" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="C70" s="17">
         <f t="shared" ref="C70:C71" si="23">(H70/(D70+F70+H70))*100</f>
-        <v>#DIV/0!</v>
+        <v>15.000012543809255</v>
       </c>
       <c r="D70" s="17">
         <f t="shared" ref="D70:D71" si="24">$D$67*E70</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="17"/>
+        <v>999</v>
+      </c>
+      <c r="E70" s="17">
+        <v>1125</v>
+      </c>
       <c r="F70" s="17">
         <f t="shared" ref="F70:F71" si="25">$F$67*G70</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+        <v>356.25</v>
+      </c>
+      <c r="G70" s="17">
+        <v>375</v>
+      </c>
+      <c r="H70" s="17">
+        <v>239.16200000000001</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="102"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="17" t="e">
+      <c r="A71" s="117"/>
+      <c r="B71" s="87">
+        <v>5</v>
+      </c>
+      <c r="C71" s="17">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>19.360021135082452</v>
       </c>
       <c r="D71" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="17"/>
+        <v>999</v>
+      </c>
+      <c r="E71" s="17">
+        <v>1125</v>
+      </c>
       <c r="F71" s="17">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
+        <v>356.25</v>
+      </c>
+      <c r="G71" s="17">
+        <v>375</v>
+      </c>
+      <c r="H71" s="17">
+        <v>325.36799999999999</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="102"/>
+      <c r="A72" s="117"/>
       <c r="B72" s="58"/>
       <c r="C72" s="17" t="e">
         <f>(H72/(D72+F72+H72))*100</f>
@@ -3657,7 +3706,7 @@
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="102"/>
+      <c r="A73" s="117"/>
       <c r="B73" s="59"/>
       <c r="C73" s="17" t="e">
         <f t="shared" ref="C73:C76" si="26">(H73/(D73+F73+H73))*100</f>
@@ -3676,7 +3725,7 @@
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="102"/>
+      <c r="A74" s="117"/>
       <c r="B74" s="59"/>
       <c r="C74" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3695,7 +3744,7 @@
       <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="102"/>
+      <c r="A75" s="117"/>
       <c r="B75" s="59"/>
       <c r="C75" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3714,7 +3763,7 @@
       <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="102"/>
+      <c r="A76" s="117"/>
       <c r="B76" s="59"/>
       <c r="C76" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3733,7 +3782,7 @@
       <c r="H76" s="17"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="117" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="47">
@@ -3762,7 +3811,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="103"/>
+      <c r="A79" s="118"/>
       <c r="B79" s="48">
         <v>6</v>
       </c>
@@ -3789,7 +3838,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="103"/>
+      <c r="A80" s="118"/>
       <c r="B80" s="48">
         <v>7</v>
       </c>
@@ -3816,7 +3865,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="103"/>
+      <c r="A81" s="118"/>
       <c r="B81" s="48">
         <v>8</v>
       </c>
@@ -3843,7 +3892,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="103"/>
+      <c r="A82" s="118"/>
       <c r="B82" s="48">
         <v>9</v>
       </c>
@@ -3871,7 +3920,7 @@
     </row>
     <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="102" t="s">
+      <c r="A84" s="117" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="47">
@@ -3900,7 +3949,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="103"/>
+      <c r="A85" s="118"/>
       <c r="B85" s="48">
         <v>6</v>
       </c>
@@ -3927,7 +3976,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="103"/>
+      <c r="A86" s="118"/>
       <c r="B86" s="48">
         <v>7</v>
       </c>
@@ -3954,7 +4003,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="103"/>
+      <c r="A87" s="118"/>
       <c r="B87" s="48">
         <v>8</v>
       </c>
@@ -3981,7 +4030,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="103"/>
+      <c r="A88" s="118"/>
       <c r="B88" s="48">
         <v>9</v>
       </c>
@@ -4009,7 +4058,7 @@
     </row>
     <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="101" t="s">
+      <c r="A90" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="44"/>
@@ -4030,7 +4079,7 @@
       <c r="Q90" s="29"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="101"/>
+      <c r="A91" s="119"/>
       <c r="B91" s="44"/>
       <c r="C91" s="14">
         <v>0.1</v>
@@ -4051,7 +4100,7 @@
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="101"/>
+      <c r="A92" s="119"/>
       <c r="B92" s="44"/>
       <c r="C92" s="14">
         <v>0.43</v>
@@ -4072,7 +4121,7 @@
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="101"/>
+      <c r="A93" s="119"/>
       <c r="B93" s="44"/>
       <c r="C93" s="14">
         <v>1.85</v>
@@ -4093,20 +4142,20 @@
       <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="101"/>
+      <c r="A94" s="119"/>
       <c r="B94" s="44"/>
-      <c r="C94" s="110">
+      <c r="C94" s="107">
         <v>8</v>
       </c>
-      <c r="D94" s="111">
+      <c r="D94" s="108">
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E94" s="112">
+      <c r="E94" s="109">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
-      <c r="F94" s="111">
+      <c r="F94" s="108">
         <f t="shared" si="37"/>
         <v>133.95652173913041</v>
       </c>
@@ -4114,20 +4163,20 @@
       <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="101"/>
+      <c r="A95" s="119"/>
       <c r="B95" s="44"/>
-      <c r="C95" s="14">
+      <c r="C95" s="110">
         <v>10.95</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D95" s="111">
         <f t="shared" si="35"/>
         <v>1540.4999999999998</v>
       </c>
-      <c r="E95" s="98">
+      <c r="E95" s="112">
         <f t="shared" si="36"/>
         <v>1500</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="111">
         <f t="shared" si="37"/>
         <v>189.42700729927003</v>
       </c>
@@ -4135,7 +4184,7 @@
       <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="101"/>
+      <c r="A96" s="119"/>
       <c r="B96" s="62"/>
       <c r="C96" s="14">
         <v>15</v>
@@ -4156,11 +4205,11 @@
       <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="101"/>
+      <c r="A97" s="119"/>
       <c r="B97" s="44"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="101"/>
+      <c r="A98" s="119"/>
       <c r="B98" s="44"/>
       <c r="C98" s="36" t="s">
         <v>35</v>
@@ -4201,43 +4250,53 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="105" t="s">
+      <c r="A101" s="120" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="61">
-        <v>3</v>
-      </c>
-      <c r="C101" s="42" t="e">
+        <v>6</v>
+      </c>
+      <c r="C101" s="42">
         <f t="shared" ref="C101" si="39">(F101/(D101+F101))*100</f>
-        <v>#DIV/0!</v>
+        <v>8.0000262771752269</v>
       </c>
       <c r="D101" s="43">
         <f t="shared" ref="D101" si="40">$D$98*E101</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
+        <v>1540.4999999999998</v>
+      </c>
+      <c r="E101" s="43">
+        <v>1500</v>
+      </c>
+      <c r="F101" s="43">
+        <v>133.95699999999999</v>
+      </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="105"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="42" t="e">
+      <c r="A102" s="120"/>
+      <c r="B102" s="60">
+        <v>7</v>
+      </c>
+      <c r="C102" s="42">
         <f>(F102/(D102+F102))*100</f>
-        <v>#DIV/0!</v>
+        <v>10.949999624261604</v>
       </c>
       <c r="D102" s="43">
         <f>$D$98*E102</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
+        <v>1540.4999999999998</v>
+      </c>
+      <c r="E102" s="43">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="43">
+        <v>189.42699999999999</v>
+      </c>
       <c r="G102" s="43"/>
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="105"/>
+      <c r="A103" s="120"/>
       <c r="B103" s="61"/>
       <c r="C103" s="42" t="e">
         <f t="shared" ref="C103:C106" si="41">(F103/(D103+F103))*100</f>
@@ -4253,7 +4312,7 @@
       <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="105"/>
+      <c r="A104" s="120"/>
       <c r="B104" s="61"/>
       <c r="C104" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4269,7 +4328,7 @@
       <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="105"/>
+      <c r="A105" s="120"/>
       <c r="B105" s="61"/>
       <c r="C105" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4285,7 +4344,7 @@
       <c r="H105" s="43"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="105"/>
+      <c r="A106" s="120"/>
       <c r="B106" s="61"/>
       <c r="C106" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4311,7 +4370,7 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="105" t="s">
+      <c r="A108" s="120" t="s">
         <v>97</v>
       </c>
       <c r="B108" s="45">
@@ -4335,7 +4394,7 @@
       <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="106"/>
+      <c r="A109" s="121"/>
       <c r="B109" s="46">
         <v>11</v>
       </c>
@@ -4357,7 +4416,7 @@
       <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="106"/>
+      <c r="A110" s="121"/>
       <c r="B110" s="46">
         <v>12</v>
       </c>
@@ -4379,7 +4438,7 @@
       <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="106"/>
+      <c r="A111" s="121"/>
       <c r="B111" s="46">
         <v>13</v>
       </c>
@@ -4401,7 +4460,7 @@
       <c r="H111" s="43"/>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="106"/>
+      <c r="A112" s="121"/>
       <c r="B112" s="46">
         <v>14</v>
       </c>
@@ -4424,7 +4483,7 @@
     </row>
     <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="101" t="s">
+      <c r="A114" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="44"/>
@@ -4446,7 +4505,7 @@
       <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="101"/>
+      <c r="A115" s="119"/>
       <c r="B115" s="44"/>
       <c r="C115" s="23">
         <v>0.25</v>
@@ -4470,7 +4529,7 @@
       <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="101"/>
+      <c r="A116" s="119"/>
       <c r="B116" s="44"/>
       <c r="C116" s="23">
         <v>3.75</v>
@@ -4494,7 +4553,7 @@
       <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="101"/>
+      <c r="A117" s="119"/>
       <c r="B117" s="44"/>
       <c r="C117" s="23">
         <v>7.5</v>
@@ -4518,7 +4577,7 @@
       <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="101"/>
+      <c r="A118" s="119"/>
       <c r="B118" s="44"/>
       <c r="C118" s="23">
         <v>11.25</v>
@@ -4542,7 +4601,7 @@
       <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="101"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="44"/>
       <c r="C119" s="23">
         <v>15</v>
@@ -4566,7 +4625,7 @@
       <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="101"/>
+      <c r="A120" s="119"/>
       <c r="B120" s="44"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -4576,7 +4635,7 @@
       <c r="H120" s="31"/>
     </row>
     <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="101"/>
+      <c r="A121" s="119"/>
       <c r="B121" s="44"/>
       <c r="C121" s="38" t="s">
         <v>35</v>
@@ -4594,7 +4653,7 @@
       <c r="H121" s="40"/>
     </row>
     <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="101"/>
+      <c r="A122" s="119"/>
       <c r="B122" s="44"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="e">
@@ -4610,7 +4669,7 @@
     </row>
     <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="101" t="s">
+      <c r="A124" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B124" s="44"/>
@@ -4632,7 +4691,7 @@
       <c r="Q124" s="29"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="101"/>
+      <c r="A125" s="119"/>
       <c r="B125" s="44"/>
       <c r="C125" s="14">
         <v>0.1</v>
@@ -4655,7 +4714,7 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="101"/>
+      <c r="A126" s="119"/>
       <c r="B126" s="44"/>
       <c r="C126" s="86">
         <v>0.35</v>
@@ -4678,7 +4737,7 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="101"/>
+      <c r="A127" s="119"/>
       <c r="B127" s="44"/>
       <c r="C127" s="86">
         <v>1.22</v>
@@ -4701,7 +4760,7 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="101"/>
+      <c r="A128" s="119"/>
       <c r="B128" s="44"/>
       <c r="C128" s="86">
         <v>4.28</v>
@@ -4724,7 +4783,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="101"/>
+      <c r="A129" s="119"/>
       <c r="B129" s="44"/>
       <c r="C129" s="86">
         <v>15</v>
@@ -4747,13 +4806,13 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="101"/>
+      <c r="A130" s="119"/>
       <c r="B130" s="44"/>
       <c r="G130" s="51"/>
       <c r="H130" s="51"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="101"/>
+      <c r="A131" s="119"/>
       <c r="B131" s="44"/>
       <c r="C131" s="36" t="s">
         <v>35</v>
@@ -4769,7 +4828,7 @@
       <c r="H131" s="55"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="101"/>
+      <c r="A132" s="119"/>
       <c r="B132" s="44"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15">
@@ -4794,7 +4853,7 @@
       <c r="H133" s="55"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="105" t="s">
+      <c r="A134" s="120" t="s">
         <v>108</v>
       </c>
       <c r="B134" s="60"/>
@@ -4812,7 +4871,7 @@
       <c r="H134" s="55"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="105"/>
+      <c r="A135" s="120"/>
       <c r="B135" s="60"/>
       <c r="C135" s="43" t="e">
         <f t="shared" ref="C135:C138" si="52">(F135/(D135+F135))*100</f>
@@ -4828,7 +4887,7 @@
       <c r="H135" s="55"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="105"/>
+      <c r="A136" s="120"/>
       <c r="B136" s="60"/>
       <c r="C136" s="43" t="e">
         <f t="shared" si="52"/>
@@ -4844,7 +4903,7 @@
       <c r="H136" s="55"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="105"/>
+      <c r="A137" s="120"/>
       <c r="B137" s="60"/>
       <c r="C137" s="43" t="e">
         <f t="shared" si="52"/>
@@ -4860,7 +4919,7 @@
       <c r="H137" s="55"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="105"/>
+      <c r="A138" s="120"/>
       <c r="B138" s="60"/>
       <c r="C138" s="43" t="e">
         <f t="shared" si="52"/>
@@ -4886,7 +4945,7 @@
       <c r="H139" s="55"/>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="105" t="s">
+      <c r="A140" s="120" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="45">
@@ -4910,7 +4969,7 @@
       <c r="H140" s="55"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="105"/>
+      <c r="A141" s="120"/>
       <c r="B141" s="45">
         <v>1</v>
       </c>
@@ -4936,7 +4995,7 @@
       <c r="H142" s="51"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="101" t="s">
+      <c r="A143" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B143" s="44"/>
@@ -4956,7 +5015,7 @@
       <c r="H143" s="51"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="101"/>
+      <c r="A144" s="119"/>
       <c r="B144" s="44"/>
       <c r="C144" s="14">
         <v>0.1</v>
@@ -4977,7 +5036,7 @@
       <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="101"/>
+      <c r="A145" s="119"/>
       <c r="B145" s="44"/>
       <c r="C145" s="86">
         <v>0.35</v>
@@ -4998,7 +5057,7 @@
       <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="101"/>
+      <c r="A146" s="119"/>
       <c r="B146" s="44"/>
       <c r="C146" s="86">
         <v>1.22</v>
@@ -5019,7 +5078,7 @@
       <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="101"/>
+      <c r="A147" s="119"/>
       <c r="B147" s="44"/>
       <c r="C147" s="86">
         <v>4.28</v>
@@ -5040,7 +5099,7 @@
       <c r="H147" s="50"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="101"/>
+      <c r="A148" s="119"/>
       <c r="B148" s="44"/>
       <c r="C148" s="86">
         <v>15</v>
@@ -5061,13 +5120,13 @@
       <c r="H148" s="50"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="101"/>
+      <c r="A149" s="119"/>
       <c r="B149" s="44"/>
       <c r="G149" s="51"/>
       <c r="H149" s="51"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="101"/>
+      <c r="A150" s="119"/>
       <c r="B150" s="44"/>
       <c r="C150" s="36" t="s">
         <v>35</v>
@@ -5083,7 +5142,7 @@
       <c r="H150" s="55"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="101"/>
+      <c r="A151" s="119"/>
       <c r="B151" s="44"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15">
@@ -5102,7 +5161,7 @@
       <c r="H152" s="51"/>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="102" t="s">
+      <c r="A153" s="117" t="s">
         <v>108</v>
       </c>
       <c r="B153" s="58"/>
@@ -5118,7 +5177,7 @@
       <c r="H153" s="51"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="102"/>
+      <c r="A154" s="117"/>
       <c r="B154" s="58"/>
       <c r="C154" s="17" t="e">
         <f t="shared" ref="C154:C157" si="58">(F154/(D154+F154))*100</f>
@@ -5132,7 +5191,7 @@
       <c r="H154" s="51"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="102"/>
+      <c r="A155" s="117"/>
       <c r="B155" s="58"/>
       <c r="C155" s="17" t="e">
         <f t="shared" si="58"/>
@@ -5146,7 +5205,7 @@
       <c r="H155" s="51"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="102"/>
+      <c r="A156" s="117"/>
       <c r="B156" s="58"/>
       <c r="C156" s="17" t="e">
         <f t="shared" si="58"/>
@@ -5160,7 +5219,7 @@
       <c r="H156" s="51"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="102"/>
+      <c r="A157" s="117"/>
       <c r="B157" s="58"/>
       <c r="C157" s="17" t="e">
         <f t="shared" si="58"/>
@@ -5178,7 +5237,7 @@
       <c r="H158" s="51"/>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="102" t="s">
+      <c r="A159" s="117" t="s">
         <v>98</v>
       </c>
       <c r="B159" s="47">
@@ -5202,7 +5261,7 @@
       <c r="H159" s="51"/>
     </row>
     <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="102"/>
+      <c r="A160" s="117"/>
       <c r="B160" s="47">
         <v>4</v>
       </c>
@@ -5228,7 +5287,7 @@
       <c r="H161" s="51"/>
     </row>
     <row r="162" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="101" t="s">
+      <c r="A162" s="119" t="s">
         <v>96</v>
       </c>
       <c r="B162" s="44"/>
@@ -5248,7 +5307,7 @@
       <c r="Q162" s="29"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="101"/>
+      <c r="A163" s="119"/>
       <c r="B163" s="44"/>
       <c r="C163" s="14">
         <v>0.1</v>
@@ -5269,7 +5328,7 @@
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="101"/>
+      <c r="A164" s="119"/>
       <c r="B164" s="44"/>
       <c r="C164" s="14">
         <v>0.6</v>
@@ -5290,7 +5349,7 @@
       <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="101"/>
+      <c r="A165" s="119"/>
       <c r="B165" s="44"/>
       <c r="C165" s="14">
         <v>1</v>
@@ -5311,7 +5370,7 @@
       <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="101"/>
+      <c r="A166" s="119"/>
       <c r="B166" s="44"/>
       <c r="C166" s="14">
         <v>2</v>
@@ -5332,20 +5391,20 @@
       <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="101"/>
+      <c r="A167" s="119"/>
       <c r="B167" s="44"/>
-      <c r="C167" s="110">
+      <c r="C167" s="104">
         <v>5</v>
       </c>
-      <c r="D167" s="111">
+      <c r="D167" s="105">
         <f t="shared" si="61"/>
         <v>1425</v>
       </c>
-      <c r="E167" s="112">
+      <c r="E167" s="106">
         <f t="shared" si="62"/>
         <v>1500</v>
       </c>
-      <c r="F167" s="111">
+      <c r="F167" s="105">
         <f t="shared" si="63"/>
         <v>75</v>
       </c>
@@ -5353,7 +5412,7 @@
       <c r="H167" s="17"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="101"/>
+      <c r="A168" s="119"/>
       <c r="B168" s="62"/>
       <c r="C168" s="14">
         <v>10</v>
@@ -5374,7 +5433,7 @@
       <c r="H168" s="17"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="101"/>
+      <c r="A169" s="119"/>
       <c r="B169" s="62"/>
       <c r="C169" s="14">
         <v>15</v>
@@ -5395,11 +5454,11 @@
       <c r="H169" s="17"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="101"/>
+      <c r="A170" s="119"/>
       <c r="B170" s="44"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="101"/>
+      <c r="A171" s="119"/>
       <c r="B171" s="44"/>
       <c r="C171" s="36" t="s">
         <v>35</v>
@@ -5415,7 +5474,7 @@
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A172" s="101"/>
+      <c r="A172" s="119"/>
       <c r="B172" s="44"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15">
@@ -5430,25 +5489,29 @@
       <c r="H172" s="15"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="104" t="s">
+      <c r="A174" s="116" t="s">
         <v>108</v>
       </c>
       <c r="B174" s="87">
-        <v>4</v>
-      </c>
-      <c r="C174" s="42" t="e">
+        <v>3</v>
+      </c>
+      <c r="C174" s="42">
         <f>(F174/(D174+F174))*100</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="D174" s="33">
         <f t="shared" ref="D174:D180" si="65">$D$171*E174</f>
-        <v>0</v>
-      </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
+        <v>1425</v>
+      </c>
+      <c r="E174" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F174" s="33">
+        <v>75</v>
+      </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A175" s="104"/>
+      <c r="A175" s="116"/>
       <c r="B175" s="87"/>
       <c r="C175" s="42" t="e">
         <f t="shared" ref="C175" si="66">(F175/(D175+F175))*100</f>
@@ -5462,7 +5525,7 @@
       <c r="F175" s="33"/>
     </row>
     <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="104"/>
+      <c r="A176" s="116"/>
       <c r="B176" s="60"/>
       <c r="C176" s="42" t="e">
         <f>(F176/(D176+F176))*100</f>
@@ -5476,7 +5539,7 @@
       <c r="F176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="104"/>
+      <c r="A177" s="116"/>
       <c r="B177" s="60"/>
       <c r="C177" s="42" t="e">
         <f t="shared" ref="C177:C180" si="67">(F177/(D177+F177))*100</f>
@@ -5490,7 +5553,7 @@
       <c r="F177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="104"/>
+      <c r="A178" s="116"/>
       <c r="B178" s="60"/>
       <c r="C178" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5504,7 +5567,7 @@
       <c r="F178" s="33"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="104"/>
+      <c r="A179" s="116"/>
       <c r="B179" s="60"/>
       <c r="C179" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5518,7 +5581,7 @@
       <c r="F179" s="33"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="104"/>
+      <c r="A180" s="116"/>
       <c r="B180" s="60"/>
       <c r="C180" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5532,7 +5595,7 @@
       <c r="F180" s="33"/>
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="104" t="s">
+      <c r="A182" s="116" t="s">
         <v>98</v>
       </c>
       <c r="B182" s="45">
@@ -5557,7 +5620,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="104"/>
+      <c r="A183" s="116"/>
       <c r="B183" s="45">
         <v>7</v>
       </c>
@@ -5580,7 +5643,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="104"/>
+      <c r="A184" s="116"/>
       <c r="B184" s="45">
         <v>8</v>
       </c>
@@ -5603,7 +5666,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="104"/>
+      <c r="A185" s="116"/>
       <c r="B185" s="45">
         <v>9</v>
       </c>
@@ -5626,7 +5689,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="104"/>
+      <c r="A186" s="116"/>
       <c r="B186" s="45">
         <v>10</v>
       </c>
@@ -5651,6 +5714,13 @@
     <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A38:A44"/>
     <mergeCell ref="A174:A180"/>
     <mergeCell ref="A182:A186"/>
     <mergeCell ref="A46:A50"/>
@@ -5667,13 +5737,6 @@
     <mergeCell ref="A153:A157"/>
     <mergeCell ref="A70:A76"/>
     <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
